--- a/gun infos.xlsx
+++ b/gun infos.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kingc\web\blackout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D1E190-0590-4FF2-B3E3-DD881CB87751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8D2772-8CAC-4619-A44D-98F203F347F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="0" windowWidth="25270" windowHeight="21690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="fragHitNum">Sheet1!$K$3</definedName>
+    <definedName name="playerHealth">Sheet1!$B$37</definedName>
     <definedName name="tilesize">Sheet1!$B$39</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="83">
   <si>
     <t>Weapon info</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -363,6 +365,26 @@
   </si>
   <si>
     <t>projectile explodes into 12 fragments / More friction applied</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DPS based on direct hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fragHitNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>non usable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>playerHealth</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -754,7 +776,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -950,6 +972,10 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1230,10 +1256,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y43"/>
+  <dimension ref="A1:AH43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1241,7 +1267,7 @@
     <col min="1" max="1" width="20.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1267,7 +1293,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
@@ -1298,7 +1324,9 @@
       <c r="J2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="11"/>
+      <c r="K2" s="11" t="s">
+        <v>79</v>
+      </c>
       <c r="L2" s="12" t="s">
         <v>18</v>
       </c>
@@ -1336,7 +1364,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A3" s="22" t="s">
         <v>69</v>
       </c>
@@ -1367,51 +1395,64 @@
       <c r="J3" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="K3" s="23"/>
+      <c r="K3" s="23">
+        <v>6</v>
+      </c>
       <c r="L3" s="23">
-        <f>ROUND(D3*E3/F3*1000,2)</f>
-        <v>1.25</v>
+        <f>ROUND(D3*(E3+fragHitNum)/F3*1000,2)</f>
+        <v>5</v>
       </c>
       <c r="M3" s="23">
-        <f>ROUND(D3*E3/(F3+I3)*1000,2)</f>
-        <v>0.59</v>
+        <f>ROUND(D3*(E3+fragHitNum)/(F3+I3)*1000,2)</f>
+        <v>2.35</v>
       </c>
       <c r="N3" s="23">
-        <f>D3*E3*H3</f>
-        <v>6</v>
-      </c>
-      <c r="O3" s="25">
-        <f>ROUND(8/(D3*E3),1)</f>
-        <v>4</v>
-      </c>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="26" t="s">
-        <v>30</v>
+        <f>D3*(E3+fragHitNum)*H3</f>
+        <v>24</v>
+      </c>
+      <c r="O3" s="29">
+        <f>ROUND(playerHealth/(D3*(E3+fragHitNum)),1)</f>
+        <v>1</v>
+      </c>
+      <c r="P3" s="23">
+        <f t="shared" ref="P3:P6" si="0">-(FLOOR(G3/6,1)-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="Q3" s="23">
+        <f t="shared" ref="Q3:Q6" si="1">ROUND(C3/G3,3)</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="30" t="s">
+        <v>81</v>
       </c>
       <c r="S3" s="23"/>
       <c r="T3" s="23">
-        <f xml:space="preserve"> D3*E3*7/10</f>
-        <v>1.4</v>
-      </c>
-      <c r="U3" s="35">
-        <f t="shared" ref="U3:U6" si="0">ROUND(8/(T3),2)</f>
-        <v>5.71</v>
+        <f xml:space="preserve"> D3*(E3+fragHitNum)*9/10</f>
+        <v>7.2</v>
+      </c>
+      <c r="U3" s="31">
+        <f>ROUND(playerHealth/(T3),2)</f>
+        <v>1.1100000000000001</v>
       </c>
       <c r="V3" s="23">
-        <f t="shared" ref="V3:V20" si="1">D3*(E3-0.4)</f>
-        <v>1.6</v>
+        <f>D3*((E3+fragHitNum)-0.4)</f>
+        <v>7.6</v>
       </c>
       <c r="W3" s="31">
-        <f t="shared" ref="W3:W24" si="2">ROUND(8/(V3),2)</f>
-        <v>5</v>
+        <f>ROUND(playerHealth/(V3),2)</f>
+        <v>1.05</v>
       </c>
       <c r="X3" s="23"/>
       <c r="Y3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="AF3" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A4" s="27" t="s">
         <v>70</v>
       </c>
@@ -1455,28 +1496,36 @@
         <f>D4*E4*H4</f>
         <v>5</v>
       </c>
-      <c r="O4" s="25">
-        <f>ROUND(8/(D4*E4),1)</f>
+      <c r="O4" s="41">
+        <f>ROUND(playerHealth/(D4*E4),1)</f>
         <v>8</v>
       </c>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="30"/>
+      <c r="P4" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="23">
+        <f t="shared" si="1"/>
+        <v>0.375</v>
+      </c>
+      <c r="R4" s="72" t="s">
+        <v>80</v>
+      </c>
       <c r="S4" s="28"/>
       <c r="T4" s="23">
-        <f t="shared" ref="T3:T6" si="3" xml:space="preserve"> D4*E4*7/10</f>
+        <f t="shared" ref="T4" si="2" xml:space="preserve"> D4*E4*7/10</f>
         <v>0.7</v>
       </c>
-      <c r="U4" s="35">
-        <f t="shared" si="0"/>
+      <c r="U4" s="42">
+        <f>ROUND(playerHealth/(T4),2)</f>
         <v>11.43</v>
       </c>
       <c r="V4" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="V3:V20" si="3">D4*(E4-0.4)</f>
         <v>0.6</v>
       </c>
       <c r="W4" s="31">
-        <f t="shared" si="2"/>
+        <f>ROUND(playerHealth/(V4),2)</f>
         <v>13.33</v>
       </c>
       <c r="X4" s="28"/>
@@ -1484,7 +1533,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A5" s="22"/>
       <c r="B5" s="68"/>
       <c r="C5" s="23"/>
@@ -1502,7 +1551,7 @@
       <c r="O5" s="25"/>
       <c r="P5" s="23"/>
       <c r="Q5" s="23"/>
-      <c r="R5" s="34"/>
+      <c r="R5" s="72"/>
       <c r="S5" s="23"/>
       <c r="T5" s="23"/>
       <c r="U5" s="35"/>
@@ -1510,15 +1559,17 @@
       <c r="W5" s="31"/>
       <c r="X5" s="23"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.45">
       <c r="B6" s="70"/>
       <c r="O6" s="37"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
       <c r="T6" s="23"/>
       <c r="U6" s="35"/>
       <c r="V6" s="23"/>
       <c r="W6" s="31"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A7" s="22" t="s">
         <v>32</v>
       </c>
@@ -1563,7 +1614,7 @@
         <v>25</v>
       </c>
       <c r="O7" s="38">
-        <f>ROUND(8/(D7*E7),1)</f>
+        <f>ROUND(playerHealth/(D7*E7),1)</f>
         <v>1.6</v>
       </c>
       <c r="P7" s="23">
@@ -1583,20 +1634,20 @@
         <v>3.5</v>
       </c>
       <c r="U7" s="35">
-        <f>ROUND(8/(T7),2)</f>
+        <f>ROUND(playerHealth/(T7),2)</f>
         <v>2.29</v>
       </c>
       <c r="V7" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="W7" s="31">
-        <f t="shared" si="2"/>
+        <f>ROUND(playerHealth/(V7),2)</f>
         <v>1.74</v>
       </c>
       <c r="X7" s="23"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A8" s="22" t="s">
         <v>33</v>
       </c>
@@ -1641,7 +1692,7 @@
         <v>42</v>
       </c>
       <c r="O8" s="25">
-        <f>ROUND(8/(D8*E8),1)</f>
+        <f>ROUND(playerHealth/(D8*E8),1)</f>
         <v>2.7</v>
       </c>
       <c r="P8" s="23">
@@ -1661,20 +1712,20 @@
         <v>2.7</v>
       </c>
       <c r="U8" s="35">
-        <f t="shared" ref="U4:U24" si="5">ROUND(8/(T8),2)</f>
+        <f>ROUND(playerHealth/(T8),2)</f>
         <v>2.96</v>
       </c>
       <c r="V8" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.6</v>
       </c>
       <c r="W8" s="36">
-        <f t="shared" si="2"/>
+        <f>ROUND(playerHealth/(V8),2)</f>
         <v>3.08</v>
       </c>
       <c r="X8" s="23"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A9" s="22" t="s">
         <v>34</v>
       </c>
@@ -1719,7 +1770,7 @@
         <v>35</v>
       </c>
       <c r="O9" s="25">
-        <f>ROUND(8/(D9*E9),1)</f>
+        <f>ROUND(playerHealth/(D9*E9),1)</f>
         <v>2.2999999999999998</v>
       </c>
       <c r="P9" s="23">
@@ -1739,20 +1790,20 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="U9" s="36">
-        <f>ROUND(8/(T9),2)</f>
+        <f>ROUND(playerHealth/(T9),2)</f>
         <v>3.27</v>
       </c>
       <c r="V9" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.1</v>
       </c>
       <c r="W9" s="35">
-        <f t="shared" si="2"/>
+        <f>ROUND(playerHealth/(V9),2)</f>
         <v>2.58</v>
       </c>
       <c r="X9" s="23"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A10" s="22" t="s">
         <v>35</v>
       </c>
@@ -1797,7 +1848,7 @@
         <v>63</v>
       </c>
       <c r="O10" s="29">
-        <f>ROUND(8/(D10*E10),1)</f>
+        <f>ROUND(playerHealth/(D10*E10),1)</f>
         <v>0.9</v>
       </c>
       <c r="P10" s="23">
@@ -1817,15 +1868,15 @@
         <v>6.3</v>
       </c>
       <c r="U10" s="31">
-        <f t="shared" si="5"/>
+        <f>ROUND(playerHealth/(T10),2)</f>
         <v>1.27</v>
       </c>
       <c r="V10" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.6</v>
       </c>
       <c r="W10" s="32">
-        <f t="shared" si="2"/>
+        <f>ROUND(playerHealth/(V10),2)</f>
         <v>0.93</v>
       </c>
       <c r="X10" s="23"/>
@@ -1833,7 +1884,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A11" s="39"/>
       <c r="B11" s="68"/>
       <c r="C11" s="23"/>
@@ -1859,7 +1910,7 @@
       <c r="W11" s="35"/>
       <c r="X11" s="23"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A12" s="22" t="s">
         <v>37</v>
       </c>
@@ -1904,7 +1955,7 @@
         <v>15</v>
       </c>
       <c r="O12" s="41">
-        <f>ROUND(8/(D12*E12),1)</f>
+        <f>ROUND(playerHealth/(D12*E12),1)</f>
         <v>8</v>
       </c>
       <c r="P12" s="23">
@@ -1924,20 +1975,20 @@
         <v>0.9</v>
       </c>
       <c r="U12" s="42">
-        <f t="shared" si="5"/>
+        <f>ROUND(playerHealth/(T12),2)</f>
         <v>8.89</v>
       </c>
       <c r="V12" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
       <c r="W12" s="42">
-        <f t="shared" si="2"/>
+        <f>ROUND(playerHealth/(V12),2)</f>
         <v>13.33</v>
       </c>
       <c r="X12" s="23"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A13" s="22" t="s">
         <v>38</v>
       </c>
@@ -1982,7 +2033,7 @@
         <v>150</v>
       </c>
       <c r="O13" s="41">
-        <f>ROUND(8/(D13*E13),1)</f>
+        <f>ROUND(playerHealth/(D13*E13),1)</f>
         <v>8</v>
       </c>
       <c r="P13" s="23">
@@ -2002,15 +2053,15 @@
         <v>0.9</v>
       </c>
       <c r="U13" s="42">
-        <f t="shared" si="5"/>
+        <f>ROUND(playerHealth/(T13),2)</f>
         <v>8.89</v>
       </c>
       <c r="V13" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
       <c r="W13" s="42">
-        <f t="shared" si="2"/>
+        <f>ROUND(playerHealth/(V13),2)</f>
         <v>13.33</v>
       </c>
       <c r="X13" s="23"/>
@@ -2018,7 +2069,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A14" s="22" t="s">
         <v>40</v>
       </c>
@@ -2063,7 +2114,7 @@
         <v>10</v>
       </c>
       <c r="O14" s="41">
-        <f>ROUND(8/(D14*E14),1)</f>
+        <f>ROUND(playerHealth/(D14*E14),1)</f>
         <v>8</v>
       </c>
       <c r="P14" s="23">
@@ -2083,15 +2134,15 @@
         <v>0.9</v>
       </c>
       <c r="U14" s="42">
-        <f t="shared" si="5"/>
+        <f>ROUND(playerHealth/(T14),2)</f>
         <v>8.89</v>
       </c>
       <c r="V14" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
       <c r="W14" s="42">
-        <f t="shared" si="2"/>
+        <f>ROUND(playerHealth/(V14),2)</f>
         <v>13.33</v>
       </c>
       <c r="X14" s="23"/>
@@ -2099,7 +2150,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A15" s="22" t="s">
         <v>42</v>
       </c>
@@ -2144,7 +2195,7 @@
         <v>30</v>
       </c>
       <c r="O15" s="41">
-        <f>ROUND(8/(D15*E15),1)</f>
+        <f>ROUND(playerHealth/(D15*E15),1)</f>
         <v>8</v>
       </c>
       <c r="P15" s="23">
@@ -2164,20 +2215,20 @@
         <v>0.9</v>
       </c>
       <c r="U15" s="42">
-        <f t="shared" si="5"/>
+        <f>ROUND(playerHealth/(T15),2)</f>
         <v>8.89</v>
       </c>
       <c r="V15" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
       <c r="W15" s="42">
-        <f t="shared" si="2"/>
+        <f>ROUND(playerHealth/(V15),2)</f>
         <v>13.33</v>
       </c>
       <c r="X15" s="23"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A16" s="22" t="s">
         <v>43</v>
       </c>
@@ -2222,7 +2273,7 @@
         <v>30</v>
       </c>
       <c r="O16" s="41">
-        <f>ROUND(8/(D16*E16),1)</f>
+        <f>ROUND(playerHealth/(D16*E16),1)</f>
         <v>8</v>
       </c>
       <c r="P16" s="23">
@@ -2242,15 +2293,15 @@
         <v>0.9</v>
       </c>
       <c r="U16" s="42">
-        <f t="shared" si="5"/>
+        <f>ROUND(playerHealth/(T16),2)</f>
         <v>8.89</v>
       </c>
       <c r="V16" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
       <c r="W16" s="42">
-        <f t="shared" si="2"/>
+        <f>ROUND(playerHealth/(V16),2)</f>
         <v>13.33</v>
       </c>
       <c r="X16" s="23"/>
@@ -2326,7 +2377,7 @@
         <v>10</v>
       </c>
       <c r="O18" s="38">
-        <f>ROUND(8/(D18*E18),1)</f>
+        <f>ROUND(playerHealth/(D18*E18),1)</f>
         <v>1.6</v>
       </c>
       <c r="P18" s="23">
@@ -2346,15 +2397,15 @@
         <v>4.5</v>
       </c>
       <c r="U18" s="31">
-        <f t="shared" si="5"/>
+        <f>ROUND(playerHealth/(T18),2)</f>
         <v>1.78</v>
       </c>
       <c r="V18" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="W18" s="35">
-        <f t="shared" si="2"/>
+        <f>ROUND(playerHealth/(V18),2)</f>
         <v>2.67</v>
       </c>
       <c r="X18" s="23"/>
@@ -2407,7 +2458,7 @@
         <v>42</v>
       </c>
       <c r="O19" s="25">
-        <f>ROUND(8/(D19*E19),1)</f>
+        <f>ROUND(playerHealth/(D19*E19),1)</f>
         <v>2.7</v>
       </c>
       <c r="P19" s="23">
@@ -2427,15 +2478,15 @@
         <v>2.7</v>
       </c>
       <c r="U19" s="35">
-        <f t="shared" si="5"/>
+        <f>ROUND(playerHealth/(T19),2)</f>
         <v>2.96</v>
       </c>
       <c r="V19" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.7999999999999998</v>
       </c>
       <c r="W19" s="42">
-        <f t="shared" si="2"/>
+        <f>ROUND(playerHealth/(V19),2)</f>
         <v>4.4400000000000004</v>
       </c>
       <c r="X19" s="23"/>
@@ -2485,7 +2536,7 @@
         <v>10</v>
       </c>
       <c r="O20" s="41">
-        <f>ROUND(8/(D20*E20),1)</f>
+        <f>ROUND(playerHealth/(D20*E20),1)</f>
         <v>4</v>
       </c>
       <c r="P20" s="23">
@@ -2505,15 +2556,15 @@
         <v>1.8</v>
       </c>
       <c r="U20" s="42">
-        <f t="shared" si="5"/>
+        <f>ROUND(playerHealth/(T20),2)</f>
         <v>4.4400000000000004</v>
       </c>
       <c r="V20" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2</v>
       </c>
       <c r="W20" s="42">
-        <f t="shared" si="2"/>
+        <f>ROUND(playerHealth/(V20),2)</f>
         <v>6.67</v>
       </c>
       <c r="X20" s="23"/>
@@ -2589,7 +2640,7 @@
         <v>12.5</v>
       </c>
       <c r="O22" s="41">
-        <f>ROUND(8/(D22*E22),1)</f>
+        <f>ROUND(playerHealth/(D22*E22),1)</f>
         <v>16</v>
       </c>
       <c r="P22" s="23">
@@ -2609,7 +2660,7 @@
         <v>0.45</v>
       </c>
       <c r="U22" s="42">
-        <f t="shared" si="5"/>
+        <f>ROUND(playerHealth/(T22),2)</f>
         <v>17.78</v>
       </c>
       <c r="V22" s="23">
@@ -2617,7 +2668,7 @@
         <v>0.3</v>
       </c>
       <c r="W22" s="42">
-        <f t="shared" si="2"/>
+        <f>ROUND(playerHealth/(V22),2)</f>
         <v>26.67</v>
       </c>
       <c r="X22" s="23"/>
@@ -2667,7 +2718,7 @@
         <v>9.5</v>
       </c>
       <c r="O23" s="41">
-        <f>ROUND(8/(D23*E23),1)</f>
+        <f>ROUND(playerHealth/(D23*E23),1)</f>
         <v>16</v>
       </c>
       <c r="P23" s="23">
@@ -2687,7 +2738,7 @@
         <v>0.45</v>
       </c>
       <c r="U23" s="42">
-        <f t="shared" si="5"/>
+        <f>ROUND(playerHealth/(T23),2)</f>
         <v>17.78</v>
       </c>
       <c r="V23" s="23">
@@ -2695,7 +2746,7 @@
         <v>0.3</v>
       </c>
       <c r="W23" s="42">
-        <f t="shared" si="2"/>
+        <f>ROUND(playerHealth/(V23),2)</f>
         <v>26.67</v>
       </c>
       <c r="X23" s="23"/>
@@ -2745,7 +2796,7 @@
         <v>15</v>
       </c>
       <c r="O24" s="41">
-        <f>ROUND(8/(D24*E24),1)</f>
+        <f>ROUND(playerHealth/(D24*E24),1)</f>
         <v>16</v>
       </c>
       <c r="P24" s="23">
@@ -2761,11 +2812,11 @@
       </c>
       <c r="S24" s="23"/>
       <c r="T24" s="23">
-        <f t="shared" si="4"/>
+        <f xml:space="preserve"> D24*E24*9/10</f>
         <v>0.45</v>
       </c>
       <c r="U24" s="42">
-        <f t="shared" si="5"/>
+        <f>ROUND(playerHealth/(T24),2)</f>
         <v>17.78</v>
       </c>
       <c r="V24" s="23">
@@ -2773,7 +2824,7 @@
         <v>0.3</v>
       </c>
       <c r="W24" s="42">
-        <f t="shared" si="2"/>
+        <f>ROUND(playerHealth/(V24),2)</f>
         <v>26.67</v>
       </c>
       <c r="X24" s="23"/>
@@ -2799,9 +2850,9 @@
       <c r="R25" s="40"/>
       <c r="S25" s="23"/>
       <c r="T25" s="23"/>
-      <c r="U25" s="23"/>
+      <c r="U25" s="42"/>
       <c r="V25" s="23"/>
-      <c r="W25" s="23"/>
+      <c r="W25" s="42"/>
       <c r="X25" s="23"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.45">
@@ -2827,9 +2878,9 @@
       <c r="R26" s="40"/>
       <c r="S26" s="23"/>
       <c r="T26" s="23"/>
-      <c r="U26" s="23"/>
+      <c r="U26" s="42"/>
       <c r="V26" s="23"/>
-      <c r="W26" s="23"/>
+      <c r="W26" s="42"/>
       <c r="X26" s="23"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.45">
@@ -2871,7 +2922,7 @@
         <v>0.67</v>
       </c>
       <c r="N27" s="23"/>
-      <c r="O27" s="23">
+      <c r="O27" s="25">
         <f>ROUND(8/(D27*E27),1)</f>
         <v>40</v>
       </c>
@@ -2879,10 +2930,19 @@
       <c r="Q27" s="23"/>
       <c r="R27" s="40"/>
       <c r="S27" s="23"/>
-      <c r="T27" s="23"/>
-      <c r="U27" s="23"/>
-      <c r="V27" s="23"/>
-      <c r="W27" s="23"/>
+      <c r="T27" s="23">
+        <f t="shared" ref="T25:T29" si="5" xml:space="preserve"> D27*E27*9/10</f>
+        <v>0.18</v>
+      </c>
+      <c r="U27" s="42">
+        <f>ROUND(playerHealth/(T27),2)</f>
+        <v>44.44</v>
+      </c>
+      <c r="V27" s="23">
+        <f t="shared" ref="V25:V29" si="6">D27*(E27-0.2)</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="42"/>
       <c r="X27" s="23"/>
       <c r="Y27" t="s">
         <v>55</v>
@@ -2927,7 +2987,7 @@
         <v>2</v>
       </c>
       <c r="N28" s="23"/>
-      <c r="O28" s="23">
+      <c r="O28" s="25">
         <f>ROUND(8/(D28*E28),1)</f>
         <v>20</v>
       </c>
@@ -2935,10 +2995,22 @@
       <c r="Q28" s="23"/>
       <c r="R28" s="40"/>
       <c r="S28" s="23"/>
-      <c r="T28" s="23"/>
-      <c r="U28" s="23"/>
-      <c r="V28" s="23"/>
-      <c r="W28" s="23"/>
+      <c r="T28" s="23">
+        <f t="shared" si="5"/>
+        <v>0.36</v>
+      </c>
+      <c r="U28" s="42">
+        <f>ROUND(playerHealth/(T28),2)</f>
+        <v>22.22</v>
+      </c>
+      <c r="V28" s="23">
+        <f t="shared" si="6"/>
+        <v>0.2</v>
+      </c>
+      <c r="W28" s="42">
+        <f>ROUND(playerHealth/(V28),2)</f>
+        <v>40</v>
+      </c>
       <c r="X28" s="23"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.45">
@@ -2972,7 +3044,7 @@
       <c r="J29" s="23"/>
       <c r="K29" s="23"/>
       <c r="L29" s="23">
-        <f t="shared" ref="L29" si="6">ROUND(D29*E29/F29*1000,3)</f>
+        <f t="shared" ref="L29" si="7">ROUND(D29*E29/F29*1000,3)</f>
         <v>2</v>
       </c>
       <c r="M29" s="23">
@@ -2980,7 +3052,7 @@
         <v>2</v>
       </c>
       <c r="N29" s="23"/>
-      <c r="O29" s="23">
+      <c r="O29" s="25">
         <f>ROUND(8/(D29*E29),1)</f>
         <v>8</v>
       </c>
@@ -2988,10 +3060,22 @@
       <c r="Q29" s="23"/>
       <c r="R29" s="40"/>
       <c r="S29" s="23"/>
-      <c r="T29" s="23"/>
-      <c r="U29" s="23"/>
-      <c r="V29" s="23"/>
-      <c r="W29" s="23"/>
+      <c r="T29" s="23">
+        <f t="shared" si="5"/>
+        <v>0.9</v>
+      </c>
+      <c r="U29" s="41">
+        <f>ROUND(playerHealth/(T29),2)</f>
+        <v>8.89</v>
+      </c>
+      <c r="V29" s="23">
+        <f>D29*(E29-0.4)</f>
+        <v>0.6</v>
+      </c>
+      <c r="W29" s="41">
+        <f>ROUND(playerHealth/(V29),2)</f>
+        <v>13.33</v>
+      </c>
       <c r="X29" s="23"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.45">
@@ -3074,6 +3158,14 @@
     <row r="34" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A34" s="51"/>
     </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37">
+        <v>8</v>
+      </c>
+    </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>71</v>
@@ -3133,47 +3225,47 @@
         <v>74</v>
       </c>
       <c r="B42" s="45">
-        <f>(2+B41)*tilesize+tilesize/2</f>
+        <f t="shared" ref="B42:L42" si="8">(2+B41)*tilesize+tilesize/2</f>
         <v>192</v>
       </c>
       <c r="C42" s="45">
-        <f>(2+C41)*tilesize+tilesize/2</f>
+        <f t="shared" si="8"/>
         <v>320</v>
       </c>
       <c r="D42" s="45">
-        <f>(2+D41)*tilesize+tilesize/2</f>
+        <f t="shared" si="8"/>
         <v>448</v>
       </c>
       <c r="E42" s="45">
-        <f>(2+E41)*tilesize+tilesize/2</f>
+        <f t="shared" si="8"/>
         <v>576</v>
       </c>
       <c r="F42" s="45">
-        <f>(2+F41)*tilesize+tilesize/2</f>
+        <f t="shared" si="8"/>
         <v>704</v>
       </c>
       <c r="G42" s="45">
-        <f>(2+G41)*tilesize+tilesize/2</f>
+        <f t="shared" si="8"/>
         <v>832</v>
       </c>
       <c r="H42" s="45">
-        <f>(2+H41)*tilesize+tilesize/2</f>
+        <f t="shared" si="8"/>
         <v>960</v>
       </c>
       <c r="I42" s="45">
-        <f>(2+I41)*tilesize+tilesize/2</f>
+        <f t="shared" si="8"/>
         <v>1088</v>
       </c>
       <c r="J42" s="45">
-        <f>(2+J41)*tilesize+tilesize/2</f>
+        <f t="shared" si="8"/>
         <v>1216</v>
       </c>
       <c r="K42" s="45">
-        <f>(2+K41)*tilesize+tilesize/2</f>
+        <f t="shared" si="8"/>
         <v>1344</v>
       </c>
       <c r="L42" s="45">
-        <f>(2+L41)*tilesize+tilesize/2</f>
+        <f t="shared" si="8"/>
         <v>1472</v>
       </c>
     </row>
@@ -3182,47 +3274,47 @@
         <v>75</v>
       </c>
       <c r="B43" s="57">
-        <f>(2+B41+1)*tilesize+tilesize/2</f>
+        <f t="shared" ref="B43:L43" si="9">(2+B41+1)*tilesize+tilesize/2</f>
         <v>320</v>
       </c>
       <c r="C43" s="58">
-        <f>(2+C41+1)*tilesize+tilesize/2</f>
+        <f t="shared" si="9"/>
         <v>448</v>
       </c>
       <c r="D43" s="59">
-        <f>(2+D41+1)*tilesize+tilesize/2</f>
+        <f t="shared" si="9"/>
         <v>576</v>
       </c>
       <c r="E43" s="60">
-        <f>(2+E41+1)*tilesize+tilesize/2</f>
+        <f t="shared" si="9"/>
         <v>704</v>
       </c>
       <c r="F43" s="61">
-        <f>(2+F41+1)*tilesize+tilesize/2</f>
+        <f t="shared" si="9"/>
         <v>832</v>
       </c>
       <c r="G43" s="62">
-        <f>(2+G41+1)*tilesize+tilesize/2</f>
+        <f t="shared" si="9"/>
         <v>960</v>
       </c>
       <c r="H43" s="63">
-        <f>(2+H41+1)*tilesize+tilesize/2</f>
+        <f t="shared" si="9"/>
         <v>1088</v>
       </c>
       <c r="I43" s="64">
-        <f>(2+I41+1)*tilesize+tilesize/2</f>
+        <f t="shared" si="9"/>
         <v>1216</v>
       </c>
       <c r="J43" s="65">
-        <f>(2+J41+1)*tilesize+tilesize/2</f>
+        <f t="shared" si="9"/>
         <v>1344</v>
       </c>
       <c r="K43" s="66">
-        <f>(2+K41+1)*tilesize+tilesize/2</f>
+        <f t="shared" si="9"/>
         <v>1472</v>
       </c>
       <c r="L43" s="67">
-        <f>(2+L41+1)*tilesize+tilesize/2</f>
+        <f t="shared" si="9"/>
         <v>1600</v>
       </c>
     </row>

--- a/gun infos.xlsx
+++ b/gun infos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kingc\web\blackout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8D2772-8CAC-4619-A44D-98F203F347F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD10D7C-526F-459C-8CD2-2A3362130754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="fragHitNum">Sheet1!$K$3</definedName>
     <definedName name="playerHealth">Sheet1!$B$37</definedName>
-    <definedName name="tilesize">Sheet1!$B$39</definedName>
+    <definedName name="tilesize">Sheet1!$B$38</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="87">
   <si>
     <t>Weapon info</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -387,12 +387,28 @@
     <t>playerHealth</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>bullet destination cannot be seen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>can be seen in normal ranges</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>house</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Some constants</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -624,8 +640,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -734,6 +757,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -776,7 +811,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -973,7 +1008,12 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1256,10 +1296,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH43"/>
+  <dimension ref="A1:AH45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+      <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1415,11 +1455,11 @@
         <v>1</v>
       </c>
       <c r="P3" s="23">
-        <f t="shared" ref="P3:P6" si="0">-(FLOOR(G3/6,1)-1)</f>
+        <f t="shared" ref="P3:P4" si="0">-(FLOOR(G3/6,1)-1)</f>
         <v>-1</v>
       </c>
       <c r="Q3" s="23">
-        <f t="shared" ref="Q3:Q6" si="1">ROUND(C3/G3,3)</f>
+        <f t="shared" ref="Q3:Q4" si="1">ROUND(C3/G3,3)</f>
         <v>0</v>
       </c>
       <c r="R3" s="30" t="s">
@@ -1508,7 +1548,7 @@
         <f t="shared" si="1"/>
         <v>0.375</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="40" t="s">
         <v>80</v>
       </c>
       <c r="S4" s="28"/>
@@ -1521,7 +1561,7 @@
         <v>11.43</v>
       </c>
       <c r="V4" s="23">
-        <f t="shared" ref="V3:V20" si="3">D4*(E4-0.4)</f>
+        <f t="shared" ref="V4:V20" si="3">D4*(E4-0.4)</f>
         <v>0.6</v>
       </c>
       <c r="W4" s="31">
@@ -1551,7 +1591,7 @@
       <c r="O5" s="25"/>
       <c r="P5" s="23"/>
       <c r="Q5" s="23"/>
-      <c r="R5" s="72"/>
+      <c r="R5" s="40"/>
       <c r="S5" s="23"/>
       <c r="T5" s="23"/>
       <c r="U5" s="35"/>
@@ -1708,7 +1748,7 @@
       </c>
       <c r="S8" s="23"/>
       <c r="T8" s="23">
-        <f t="shared" ref="T8:T24" si="4" xml:space="preserve"> D8*E8*9/10</f>
+        <f t="shared" ref="T8:T23" si="4" xml:space="preserve"> D8*E8*9/10</f>
         <v>2.7</v>
       </c>
       <c r="U8" s="35">
@@ -2931,7 +2971,7 @@
       <c r="R27" s="40"/>
       <c r="S27" s="23"/>
       <c r="T27" s="23">
-        <f t="shared" ref="T25:T29" si="5" xml:space="preserve"> D27*E27*9/10</f>
+        <f t="shared" ref="T27:T29" si="5" xml:space="preserve"> D27*E27*9/10</f>
         <v>0.18</v>
       </c>
       <c r="U27" s="42">
@@ -2939,7 +2979,7 @@
         <v>44.44</v>
       </c>
       <c r="V27" s="23">
-        <f t="shared" ref="V25:V29" si="6">D27*(E27-0.2)</f>
+        <f t="shared" ref="V27:V28" si="6">D27*(E27-0.2)</f>
         <v>0</v>
       </c>
       <c r="W27" s="42"/>
@@ -3158,6 +3198,11 @@
     <row r="34" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A34" s="51"/>
     </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>86</v>
+      </c>
+    </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>82</v>
@@ -3166,11 +3211,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
         <v>71</v>
       </c>
-      <c r="B39">
+      <c r="B38">
         <v>128</v>
       </c>
     </row>
@@ -3181,142 +3226,166 @@
       <c r="G40" s="55"/>
       <c r="H40" s="55"/>
       <c r="I40" s="55"/>
+      <c r="J40" s="55"/>
+      <c r="K40" s="55"/>
+      <c r="L40" s="55"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A41" s="52" t="s">
+      <c r="B41" s="77" t="s">
+        <v>85</v>
+      </c>
+      <c r="F41" s="75"/>
+      <c r="G41" s="76" t="s">
+        <v>83</v>
+      </c>
+      <c r="H41" s="76"/>
+      <c r="I41" s="76"/>
+      <c r="J41" s="76"/>
+      <c r="K41" s="76"/>
+      <c r="L41" s="76"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A42" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="B41" s="53">
+      <c r="B42" s="53">
         <v>-1</v>
       </c>
-      <c r="C41" s="53">
+      <c r="C42" s="53">
         <v>0</v>
       </c>
-      <c r="D41" s="53">
-        <v>1</v>
-      </c>
-      <c r="E41" s="53">
+      <c r="D42" s="53">
+        <v>1</v>
+      </c>
+      <c r="E42" s="53">
         <v>2</v>
       </c>
-      <c r="F41" s="56">
+      <c r="F42" s="56">
         <v>3</v>
       </c>
-      <c r="G41" s="56">
+      <c r="G42" s="56">
         <v>4</v>
       </c>
-      <c r="H41" s="56">
+      <c r="H42" s="56">
         <v>5</v>
       </c>
-      <c r="I41" s="56">
+      <c r="I42" s="56">
         <v>6</v>
       </c>
-      <c r="J41" s="56">
+      <c r="J42" s="56">
         <v>7</v>
       </c>
-      <c r="K41" s="56">
+      <c r="K42" s="56">
         <v>8</v>
       </c>
-      <c r="L41" s="56">
+      <c r="L42" s="56">
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A42" s="54" t="s">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A43" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="B42" s="45">
-        <f t="shared" ref="B42:L42" si="8">(2+B41)*tilesize+tilesize/2</f>
+      <c r="B43" s="45">
+        <f t="shared" ref="B43:L43" si="8">(2+B42)*tilesize+tilesize/2</f>
         <v>192</v>
       </c>
-      <c r="C42" s="45">
+      <c r="C43" s="45">
         <f t="shared" si="8"/>
         <v>320</v>
       </c>
-      <c r="D42" s="45">
+      <c r="D43" s="45">
         <f t="shared" si="8"/>
         <v>448</v>
       </c>
-      <c r="E42" s="45">
+      <c r="E43" s="45">
         <f t="shared" si="8"/>
         <v>576</v>
       </c>
-      <c r="F42" s="45">
+      <c r="F43" s="45">
         <f t="shared" si="8"/>
         <v>704</v>
       </c>
-      <c r="G42" s="45">
+      <c r="G43" s="45">
         <f t="shared" si="8"/>
         <v>832</v>
       </c>
-      <c r="H42" s="45">
+      <c r="H43" s="45">
         <f t="shared" si="8"/>
         <v>960</v>
       </c>
-      <c r="I42" s="45">
+      <c r="I43" s="45">
         <f t="shared" si="8"/>
         <v>1088</v>
       </c>
-      <c r="J42" s="45">
+      <c r="J43" s="45">
         <f t="shared" si="8"/>
         <v>1216</v>
       </c>
-      <c r="K42" s="45">
+      <c r="K43" s="45">
         <f t="shared" si="8"/>
         <v>1344</v>
       </c>
-      <c r="L42" s="45">
+      <c r="L43" s="45">
         <f t="shared" si="8"/>
         <v>1472</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A43" s="54" t="s">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A44" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="B43" s="57">
-        <f t="shared" ref="B43:L43" si="9">(2+B41+1)*tilesize+tilesize/2</f>
+      <c r="B44" s="57">
+        <f t="shared" ref="B44:L44" si="9">(2+B42+1)*tilesize+tilesize/2</f>
         <v>320</v>
       </c>
-      <c r="C43" s="58">
+      <c r="C44" s="58">
         <f t="shared" si="9"/>
         <v>448</v>
       </c>
-      <c r="D43" s="59">
+      <c r="D44" s="59">
         <f t="shared" si="9"/>
         <v>576</v>
       </c>
-      <c r="E43" s="60">
+      <c r="E44" s="60">
         <f t="shared" si="9"/>
         <v>704</v>
       </c>
-      <c r="F43" s="61">
+      <c r="F44" s="61">
         <f t="shared" si="9"/>
         <v>832</v>
       </c>
-      <c r="G43" s="62">
+      <c r="G44" s="62">
         <f t="shared" si="9"/>
         <v>960</v>
       </c>
-      <c r="H43" s="63">
+      <c r="H44" s="63">
         <f t="shared" si="9"/>
         <v>1088</v>
       </c>
-      <c r="I43" s="64">
+      <c r="I44" s="64">
         <f t="shared" si="9"/>
         <v>1216</v>
       </c>
-      <c r="J43" s="65">
+      <c r="J44" s="65">
         <f t="shared" si="9"/>
         <v>1344</v>
       </c>
-      <c r="K43" s="66">
+      <c r="K44" s="66">
         <f t="shared" si="9"/>
         <v>1472</v>
       </c>
-      <c r="L43" s="67">
+      <c r="L44" s="67">
         <f t="shared" si="9"/>
         <v>1600</v>
       </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="C45" s="73" t="s">
+        <v>84</v>
+      </c>
+      <c r="D45" s="74"/>
+      <c r="E45" s="72"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/gun infos.xlsx
+++ b/gun infos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kingc\web\blackout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD10D7C-526F-459C-8CD2-2A3362130754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E507B2DE-4933-4ACA-BF03-3A34777836A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29810" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -811,7 +811,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1011,7 +1011,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1299,7 +1298,7 @@
   <dimension ref="A1:AH45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1418,7 +1417,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" s="23">
         <v>1600</v>
@@ -1440,19 +1439,19 @@
       </c>
       <c r="L3" s="23">
         <f>ROUND(D3*(E3+fragHitNum)/F3*1000,2)</f>
-        <v>5</v>
+        <v>5.63</v>
       </c>
       <c r="M3" s="23">
         <f>ROUND(D3*(E3+fragHitNum)/(F3+I3)*1000,2)</f>
-        <v>2.35</v>
+        <v>2.65</v>
       </c>
       <c r="N3" s="23">
         <f>D3*(E3+fragHitNum)*H3</f>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="O3" s="29">
         <f>ROUND(playerHealth/(D3*(E3+fragHitNum)),1)</f>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="P3" s="23">
         <f t="shared" ref="P3:P4" si="0">-(FLOOR(G3/6,1)-1)</f>
@@ -1468,19 +1467,19 @@
       <c r="S3" s="23"/>
       <c r="T3" s="23">
         <f xml:space="preserve"> D3*(E3+fragHitNum)*9/10</f>
-        <v>7.2</v>
-      </c>
-      <c r="U3" s="31">
+        <v>8.1</v>
+      </c>
+      <c r="U3" s="32">
         <f>ROUND(playerHealth/(T3),2)</f>
-        <v>1.1100000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="V3" s="23">
         <f>D3*((E3+fragHitNum)-0.4)</f>
-        <v>7.6</v>
-      </c>
-      <c r="W3" s="31">
+        <v>8.6</v>
+      </c>
+      <c r="W3" s="32">
         <f>ROUND(playerHealth/(V3),2)</f>
-        <v>1.05</v>
+        <v>0.93</v>
       </c>
       <c r="X3" s="23"/>
       <c r="Y3" t="s">
@@ -1506,7 +1505,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" s="28">
         <v>100</v>
@@ -1526,19 +1525,19 @@
       <c r="K4" s="28"/>
       <c r="L4" s="23">
         <f>ROUND(D4*E4/F4*1000,2)</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M4" s="23">
         <f>ROUND(D4*E4/(F4+I4)*1000,2)</f>
-        <v>0.67</v>
+        <v>1.33</v>
       </c>
       <c r="N4" s="23">
         <f>D4*E4*H4</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O4" s="41">
         <f>ROUND(playerHealth/(D4*E4),1)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P4" s="23">
         <f t="shared" si="0"/>
@@ -1554,19 +1553,19 @@
       <c r="S4" s="28"/>
       <c r="T4" s="23">
         <f t="shared" ref="T4" si="2" xml:space="preserve"> D4*E4*7/10</f>
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="U4" s="42">
         <f>ROUND(playerHealth/(T4),2)</f>
-        <v>11.43</v>
+        <v>5.71</v>
       </c>
       <c r="V4" s="23">
         <f t="shared" ref="V4:V20" si="3">D4*(E4-0.4)</f>
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="W4" s="31">
         <f>ROUND(playerHealth/(V4),2)</f>
-        <v>13.33</v>
+        <v>5</v>
       </c>
       <c r="X4" s="28"/>
       <c r="Y4" t="s">
@@ -3231,18 +3230,17 @@
       <c r="L40" s="55"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B41" s="77" t="s">
+      <c r="B41" s="76" t="s">
         <v>85</v>
       </c>
-      <c r="F41" s="75"/>
-      <c r="G41" s="76" t="s">
+      <c r="G41" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="H41" s="76"/>
-      <c r="I41" s="76"/>
-      <c r="J41" s="76"/>
-      <c r="K41" s="76"/>
-      <c r="L41" s="76"/>
+      <c r="H41" s="75"/>
+      <c r="I41" s="75"/>
+      <c r="J41" s="75"/>
+      <c r="K41" s="75"/>
+      <c r="L41" s="75"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A42" s="52" t="s">

--- a/gun infos.xlsx
+++ b/gun infos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kingc\web\blackout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E507B2DE-4933-4ACA-BF03-3A34777836A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E060E1-C8EA-46F9-AF33-791A75CBEF80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29810" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14670" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1298,7 +1298,7 @@
   <dimension ref="A1:AH45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2729,7 +2729,7 @@
         <v>0.5</v>
       </c>
       <c r="F23" s="23">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G23" s="23">
         <v>17</v>
@@ -2746,7 +2746,7 @@
       <c r="K23" s="23"/>
       <c r="L23" s="23">
         <f>ROUND(D23*E23/F23*1000,2)</f>
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="M23" s="23">
         <f>ROUND(D23*E23/(F23+I23)*1000,2)</f>
@@ -3285,48 +3285,48 @@
         <v>74</v>
       </c>
       <c r="B43" s="45">
-        <f t="shared" ref="B43:L43" si="8">(2+B42)*tilesize+tilesize/2</f>
-        <v>192</v>
+        <f>(2+B42)*tilesize</f>
+        <v>128</v>
       </c>
       <c r="C43" s="45">
-        <f t="shared" si="8"/>
-        <v>320</v>
+        <f>(2+C42)*tilesize</f>
+        <v>256</v>
       </c>
       <c r="D43" s="45">
-        <f t="shared" si="8"/>
-        <v>448</v>
+        <f>(2+D42)*tilesize</f>
+        <v>384</v>
       </c>
       <c r="E43" s="45">
-        <f t="shared" si="8"/>
-        <v>576</v>
+        <f>(2+E42)*tilesize</f>
+        <v>512</v>
       </c>
       <c r="F43" s="45">
-        <f t="shared" si="8"/>
-        <v>704</v>
+        <f>(2+F42)*tilesize</f>
+        <v>640</v>
       </c>
       <c r="G43" s="45">
-        <f t="shared" si="8"/>
-        <v>832</v>
+        <f>(2+G42)*tilesize</f>
+        <v>768</v>
       </c>
       <c r="H43" s="45">
-        <f t="shared" si="8"/>
-        <v>960</v>
+        <f>(2+H42)*tilesize</f>
+        <v>896</v>
       </c>
       <c r="I43" s="45">
-        <f t="shared" si="8"/>
-        <v>1088</v>
+        <f>(2+I42)*tilesize</f>
+        <v>1024</v>
       </c>
       <c r="J43" s="45">
-        <f t="shared" si="8"/>
-        <v>1216</v>
+        <f>(2+J42)*tilesize</f>
+        <v>1152</v>
       </c>
       <c r="K43" s="45">
-        <f t="shared" si="8"/>
-        <v>1344</v>
+        <f>(2+K42)*tilesize</f>
+        <v>1280</v>
       </c>
       <c r="L43" s="45">
-        <f t="shared" si="8"/>
-        <v>1472</v>
+        <f>(2+L42)*tilesize</f>
+        <v>1408</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.45">
@@ -3334,47 +3334,47 @@
         <v>75</v>
       </c>
       <c r="B44" s="57">
-        <f t="shared" ref="B44:L44" si="9">(2+B42+1)*tilesize+tilesize/2</f>
+        <f t="shared" ref="B44:L44" si="8">(2+B42+1)*tilesize+tilesize/2</f>
         <v>320</v>
       </c>
       <c r="C44" s="58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>448</v>
       </c>
       <c r="D44" s="59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>576</v>
       </c>
       <c r="E44" s="60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>704</v>
       </c>
       <c r="F44" s="61">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>832</v>
       </c>
       <c r="G44" s="62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>960</v>
       </c>
       <c r="H44" s="63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1088</v>
       </c>
       <c r="I44" s="64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1216</v>
       </c>
       <c r="J44" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1344</v>
       </c>
       <c r="K44" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1472</v>
       </c>
       <c r="L44" s="67">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1600</v>
       </c>
     </row>

--- a/gun infos.xlsx
+++ b/gun infos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kingc\web\blackout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E060E1-C8EA-46F9-AF33-791A75CBEF80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B67987-2B66-4099-BCF8-3ED46E411904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14670" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1260" yWindow="0" windowWidth="31240" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="90">
   <si>
     <t>Weapon info</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -403,12 +403,24 @@
     <t>Some constants</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>tank buster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rocket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Designed to destroy a tank (too slow bullet for practical fights)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -518,13 +530,6 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -811,7 +816,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -901,34 +906,30 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -959,26 +960,29 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -994,9 +998,6 @@
     <xf numFmtId="0" fontId="26" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1007,10 +1008,10 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1298,7 +1299,7 @@
   <dimension ref="A1:AH45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1407,7 +1408,7 @@
       <c r="A3" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="59">
+      <c r="B3" s="57">
         <v>576</v>
       </c>
       <c r="C3" s="24">
@@ -1454,15 +1455,15 @@
         <v>0.9</v>
       </c>
       <c r="P3" s="23">
-        <f t="shared" ref="P3:P4" si="0">-(FLOOR(G3/6,1)-1)</f>
+        <f t="shared" ref="P3:P5" si="0">-(FLOOR(G3/6,1)-1)</f>
         <v>-1</v>
       </c>
       <c r="Q3" s="23">
-        <f t="shared" ref="Q3:Q4" si="1">ROUND(C3/G3,3)</f>
+        <f t="shared" ref="Q3:Q5" si="1">ROUND(C3/G3,3)</f>
         <v>0</v>
       </c>
-      <c r="R3" s="30" t="s">
-        <v>81</v>
+      <c r="R3" s="26" t="s">
+        <v>30</v>
       </c>
       <c r="S3" s="23"/>
       <c r="T3" s="23">
@@ -1485,17 +1486,17 @@
       <c r="Y3" t="s">
         <v>77</v>
       </c>
-      <c r="AF3" s="71" t="s">
+      <c r="AF3" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
+      <c r="AG3" s="52"/>
+      <c r="AH3" s="52"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A4" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="69">
+      <c r="B4" s="67">
         <v>192</v>
       </c>
       <c r="C4" s="28">
@@ -1535,7 +1536,7 @@
         <f>D4*E4*H4</f>
         <v>10</v>
       </c>
-      <c r="O4" s="41">
+      <c r="O4" s="39">
         <f>ROUND(playerHealth/(D4*E4),1)</f>
         <v>4</v>
       </c>
@@ -1547,15 +1548,15 @@
         <f t="shared" si="1"/>
         <v>0.375</v>
       </c>
-      <c r="R4" s="40" t="s">
+      <c r="R4" s="38" t="s">
         <v>80</v>
       </c>
       <c r="S4" s="28"/>
       <c r="T4" s="23">
-        <f t="shared" ref="T4" si="2" xml:space="preserve"> D4*E4*7/10</f>
+        <f t="shared" ref="T4:T5" si="2" xml:space="preserve"> D4*E4*7/10</f>
         <v>1.4</v>
       </c>
-      <c r="U4" s="42">
+      <c r="U4" s="40">
         <f>ROUND(playerHealth/(T4),2)</f>
         <v>5.71</v>
       </c>
@@ -1573,38 +1574,96 @@
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A5" s="22"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="33"/>
+      <c r="A5" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="59">
+        <v>832</v>
+      </c>
+      <c r="C5" s="23">
+        <v>0</v>
+      </c>
+      <c r="D5" s="24">
+        <v>1</v>
+      </c>
+      <c r="E5" s="23">
+        <v>200</v>
+      </c>
+      <c r="F5" s="23">
+        <v>4000</v>
+      </c>
+      <c r="G5" s="23">
+        <v>6</v>
+      </c>
+      <c r="H5" s="23">
+        <v>1</v>
+      </c>
+      <c r="I5" s="23">
+        <v>6000</v>
+      </c>
+      <c r="J5" s="28" t="s">
+        <v>88</v>
+      </c>
       <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="40"/>
+      <c r="L5" s="23">
+        <f t="shared" ref="L5" si="4">ROUND(D5*E5/F5*1000,2)</f>
+        <v>50</v>
+      </c>
+      <c r="M5" s="23">
+        <f t="shared" ref="M5" si="5">ROUND(D5*E5/(F5+I5)*1000,2)</f>
+        <v>20</v>
+      </c>
+      <c r="N5" s="23">
+        <f t="shared" ref="N5" si="6">D5*E5*H5</f>
+        <v>200</v>
+      </c>
+      <c r="O5" s="29">
+        <f>ROUND(playerHealth/(D5*E5),1)</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R5" s="30" t="s">
+        <v>81</v>
+      </c>
       <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="35"/>
-      <c r="V5" s="23"/>
-      <c r="W5" s="31"/>
+      <c r="T5" s="23">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+      <c r="U5" s="32">
+        <f>ROUND(playerHealth/(T5),2)</f>
+        <v>0.06</v>
+      </c>
+      <c r="V5" s="23">
+        <f t="shared" si="3"/>
+        <v>199.6</v>
+      </c>
+      <c r="W5" s="32">
+        <f>ROUND(playerHealth/(V5),2)</f>
+        <v>0.04</v>
+      </c>
       <c r="X5" s="23"/>
+      <c r="Y5" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="B6" s="70"/>
-      <c r="O6" s="37"/>
+      <c r="B6" s="68"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="36"/>
       <c r="P6" s="23"/>
       <c r="Q6" s="23"/>
       <c r="T6" s="23"/>
-      <c r="U6" s="35"/>
+      <c r="U6" s="34"/>
       <c r="V6" s="23"/>
       <c r="W6" s="31"/>
     </row>
@@ -1612,7 +1671,7 @@
       <c r="A7" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="66">
+      <c r="B7" s="64">
         <v>1472</v>
       </c>
       <c r="C7" s="23">
@@ -1652,7 +1711,7 @@
         <f>D7*E7*H7</f>
         <v>25</v>
       </c>
-      <c r="O7" s="38">
+      <c r="O7" s="36">
         <f>ROUND(playerHealth/(D7*E7),1)</f>
         <v>1.6</v>
       </c>
@@ -1672,7 +1731,7 @@
         <f xml:space="preserve"> D7*E7*7/10</f>
         <v>3.5</v>
       </c>
-      <c r="U7" s="35">
+      <c r="U7" s="34">
         <f>ROUND(playerHealth/(T7),2)</f>
         <v>2.29</v>
       </c>
@@ -1690,7 +1749,7 @@
       <c r="A8" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="63">
+      <c r="B8" s="61">
         <v>1088</v>
       </c>
       <c r="C8" s="23">
@@ -1742,15 +1801,15 @@
         <f>ROUND(C8/G8,3)</f>
         <v>3.1E-2</v>
       </c>
-      <c r="R8" s="34" t="s">
+      <c r="R8" s="33" t="s">
         <v>31</v>
       </c>
       <c r="S8" s="23"/>
       <c r="T8" s="23">
-        <f t="shared" ref="T8:T23" si="4" xml:space="preserve"> D8*E8*9/10</f>
+        <f t="shared" ref="T8:T23" si="7" xml:space="preserve"> D8*E8*9/10</f>
         <v>2.7</v>
       </c>
-      <c r="U8" s="35">
+      <c r="U8" s="34">
         <f>ROUND(playerHealth/(T8),2)</f>
         <v>2.96</v>
       </c>
@@ -1758,7 +1817,7 @@
         <f t="shared" si="3"/>
         <v>2.6</v>
       </c>
-      <c r="W8" s="36">
+      <c r="W8" s="35">
         <f>ROUND(playerHealth/(V8),2)</f>
         <v>3.08</v>
       </c>
@@ -1768,7 +1827,7 @@
       <c r="A9" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="64">
+      <c r="B9" s="62">
         <v>1216</v>
       </c>
       <c r="C9" s="23">
@@ -1820,7 +1879,7 @@
         <f>ROUND(C9/G9,3)</f>
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="R9" s="34" t="s">
+      <c r="R9" s="33" t="s">
         <v>31</v>
       </c>
       <c r="S9" s="23"/>
@@ -1828,7 +1887,7 @@
         <f xml:space="preserve"> D9*E9*7/10</f>
         <v>2.4500000000000002</v>
       </c>
-      <c r="U9" s="36">
+      <c r="U9" s="35">
         <f>ROUND(playerHealth/(T9),2)</f>
         <v>3.27</v>
       </c>
@@ -1836,7 +1895,7 @@
         <f t="shared" si="3"/>
         <v>3.1</v>
       </c>
-      <c r="W9" s="35">
+      <c r="W9" s="34">
         <f>ROUND(playerHealth/(V9),2)</f>
         <v>2.58</v>
       </c>
@@ -1846,7 +1905,7 @@
       <c r="A10" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="67">
+      <c r="B10" s="65">
         <v>1600</v>
       </c>
       <c r="C10" s="23">
@@ -1924,8 +1983,8 @@
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A11" s="39"/>
-      <c r="B11" s="68"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="66"/>
       <c r="C11" s="23"/>
       <c r="D11" s="28"/>
       <c r="E11" s="23"/>
@@ -1941,19 +2000,19 @@
       <c r="O11" s="25"/>
       <c r="P11" s="23"/>
       <c r="Q11" s="23"/>
-      <c r="R11" s="40"/>
+      <c r="R11" s="38"/>
       <c r="S11" s="23"/>
       <c r="T11" s="23"/>
-      <c r="U11" s="35"/>
+      <c r="U11" s="34"/>
       <c r="V11" s="23"/>
-      <c r="W11" s="35"/>
+      <c r="W11" s="34"/>
       <c r="X11" s="23"/>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A12" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="59">
+      <c r="B12" s="57">
         <v>576</v>
       </c>
       <c r="C12" s="23">
@@ -1993,7 +2052,7 @@
         <f>D12*E12*H12</f>
         <v>15</v>
       </c>
-      <c r="O12" s="41">
+      <c r="O12" s="39">
         <f>ROUND(playerHealth/(D12*E12),1)</f>
         <v>8</v>
       </c>
@@ -2005,15 +2064,15 @@
         <f>ROUND(C12/G12,3)</f>
         <v>0.2</v>
       </c>
-      <c r="R12" s="34" t="s">
+      <c r="R12" s="33" t="s">
         <v>31</v>
       </c>
       <c r="S12" s="23"/>
       <c r="T12" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.9</v>
       </c>
-      <c r="U12" s="42">
+      <c r="U12" s="40">
         <f>ROUND(playerHealth/(T12),2)</f>
         <v>8.89</v>
       </c>
@@ -2021,7 +2080,7 @@
         <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
-      <c r="W12" s="42">
+      <c r="W12" s="40">
         <f>ROUND(playerHealth/(V12),2)</f>
         <v>13.33</v>
       </c>
@@ -2031,7 +2090,7 @@
       <c r="A13" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="61">
+      <c r="B13" s="59">
         <v>832</v>
       </c>
       <c r="C13" s="23">
@@ -2071,7 +2130,7 @@
         <f>D13*E13*H13</f>
         <v>150</v>
       </c>
-      <c r="O13" s="41">
+      <c r="O13" s="39">
         <f>ROUND(playerHealth/(D13*E13),1)</f>
         <v>8</v>
       </c>
@@ -2088,10 +2147,10 @@
       </c>
       <c r="S13" s="23"/>
       <c r="T13" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.9</v>
       </c>
-      <c r="U13" s="42">
+      <c r="U13" s="40">
         <f>ROUND(playerHealth/(T13),2)</f>
         <v>8.89</v>
       </c>
@@ -2099,7 +2158,7 @@
         <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
-      <c r="W13" s="42">
+      <c r="W13" s="40">
         <f>ROUND(playerHealth/(V13),2)</f>
         <v>13.33</v>
       </c>
@@ -2112,7 +2171,7 @@
       <c r="A14" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="63">
+      <c r="B14" s="61">
         <v>1088</v>
       </c>
       <c r="C14" s="23">
@@ -2152,7 +2211,7 @@
         <f>D14*E14*H14</f>
         <v>10</v>
       </c>
-      <c r="O14" s="41">
+      <c r="O14" s="39">
         <f>ROUND(playerHealth/(D14*E14),1)</f>
         <v>8</v>
       </c>
@@ -2169,10 +2228,10 @@
       </c>
       <c r="S14" s="23"/>
       <c r="T14" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.9</v>
       </c>
-      <c r="U14" s="42">
+      <c r="U14" s="40">
         <f>ROUND(playerHealth/(T14),2)</f>
         <v>8.89</v>
       </c>
@@ -2180,7 +2239,7 @@
         <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
-      <c r="W14" s="42">
+      <c r="W14" s="40">
         <f>ROUND(playerHealth/(V14),2)</f>
         <v>13.33</v>
       </c>
@@ -2193,7 +2252,7 @@
       <c r="A15" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="60">
+      <c r="B15" s="58">
         <v>704</v>
       </c>
       <c r="C15" s="23">
@@ -2233,7 +2292,7 @@
         <f>D15*E15*H15</f>
         <v>30</v>
       </c>
-      <c r="O15" s="41">
+      <c r="O15" s="39">
         <f>ROUND(playerHealth/(D15*E15),1)</f>
         <v>8</v>
       </c>
@@ -2245,15 +2304,15 @@
         <f>ROUND(C15/G15,3)</f>
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="R15" s="34" t="s">
+      <c r="R15" s="33" t="s">
         <v>31</v>
       </c>
       <c r="S15" s="23"/>
       <c r="T15" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.9</v>
       </c>
-      <c r="U15" s="42">
+      <c r="U15" s="40">
         <f>ROUND(playerHealth/(T15),2)</f>
         <v>8.89</v>
       </c>
@@ -2261,7 +2320,7 @@
         <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
-      <c r="W15" s="42">
+      <c r="W15" s="40">
         <f>ROUND(playerHealth/(V15),2)</f>
         <v>13.33</v>
       </c>
@@ -2271,7 +2330,7 @@
       <c r="A16" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="59">
+      <c r="B16" s="57">
         <v>576</v>
       </c>
       <c r="C16" s="23">
@@ -2311,7 +2370,7 @@
         <f>D16*E16*H16</f>
         <v>30</v>
       </c>
-      <c r="O16" s="41">
+      <c r="O16" s="39">
         <f>ROUND(playerHealth/(D16*E16),1)</f>
         <v>8</v>
       </c>
@@ -2323,15 +2382,15 @@
         <f>ROUND(C16/G16,3)</f>
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="R16" s="34" t="s">
+      <c r="R16" s="33" t="s">
         <v>31</v>
       </c>
       <c r="S16" s="23"/>
       <c r="T16" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.9</v>
       </c>
-      <c r="U16" s="42">
+      <c r="U16" s="40">
         <f>ROUND(playerHealth/(T16),2)</f>
         <v>8.89</v>
       </c>
@@ -2339,7 +2398,7 @@
         <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
-      <c r="W16" s="42">
+      <c r="W16" s="40">
         <f>ROUND(playerHealth/(V16),2)</f>
         <v>13.33</v>
       </c>
@@ -2347,7 +2406,7 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A17" s="22"/>
-      <c r="B17" s="68"/>
+      <c r="B17" s="66"/>
       <c r="C17" s="23"/>
       <c r="D17" s="28"/>
       <c r="E17" s="23"/>
@@ -2363,19 +2422,19 @@
       <c r="O17" s="25"/>
       <c r="P17" s="23"/>
       <c r="Q17" s="23"/>
-      <c r="R17" s="40"/>
+      <c r="R17" s="38"/>
       <c r="S17" s="23"/>
       <c r="T17" s="23"/>
-      <c r="U17" s="35"/>
+      <c r="U17" s="34"/>
       <c r="V17" s="23"/>
-      <c r="W17" s="35"/>
+      <c r="W17" s="34"/>
       <c r="X17" s="23"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A18" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="57">
+      <c r="B18" s="55">
         <v>320</v>
       </c>
       <c r="C18" s="23">
@@ -2415,7 +2474,7 @@
         <f>D18*E18*H18</f>
         <v>10</v>
       </c>
-      <c r="O18" s="38">
+      <c r="O18" s="36">
         <f>ROUND(playerHealth/(D18*E18),1)</f>
         <v>1.6</v>
       </c>
@@ -2427,12 +2486,12 @@
         <f>ROUND(C18/G18,3)</f>
         <v>0.5</v>
       </c>
-      <c r="R18" s="34" t="s">
+      <c r="R18" s="33" t="s">
         <v>31</v>
       </c>
       <c r="S18" s="23"/>
       <c r="T18" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4.5</v>
       </c>
       <c r="U18" s="31">
@@ -2443,7 +2502,7 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="W18" s="35">
+      <c r="W18" s="34">
         <f>ROUND(playerHealth/(V18),2)</f>
         <v>2.67</v>
       </c>
@@ -2456,7 +2515,7 @@
       <c r="A19" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="58">
+      <c r="B19" s="56">
         <v>448</v>
       </c>
       <c r="C19" s="23">
@@ -2513,10 +2572,10 @@
       </c>
       <c r="S19" s="23"/>
       <c r="T19" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.7</v>
       </c>
-      <c r="U19" s="35">
+      <c r="U19" s="34">
         <f>ROUND(playerHealth/(T19),2)</f>
         <v>2.96</v>
       </c>
@@ -2524,7 +2583,7 @@
         <f t="shared" si="3"/>
         <v>1.7999999999999998</v>
       </c>
-      <c r="W19" s="42">
+      <c r="W19" s="40">
         <f>ROUND(playerHealth/(V19),2)</f>
         <v>4.4400000000000004</v>
       </c>
@@ -2534,7 +2593,7 @@
       <c r="A20" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="58">
+      <c r="B20" s="56">
         <v>448</v>
       </c>
       <c r="C20" s="23">
@@ -2574,7 +2633,7 @@
         <f>D20*E20*H20</f>
         <v>10</v>
       </c>
-      <c r="O20" s="41">
+      <c r="O20" s="39">
         <f>ROUND(playerHealth/(D20*E20),1)</f>
         <v>4</v>
       </c>
@@ -2586,15 +2645,15 @@
         <f>ROUND(C20/G20,3)</f>
         <v>0.214</v>
       </c>
-      <c r="R20" s="34" t="s">
+      <c r="R20" s="33" t="s">
         <v>31</v>
       </c>
       <c r="S20" s="23"/>
       <c r="T20" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.8</v>
       </c>
-      <c r="U20" s="42">
+      <c r="U20" s="40">
         <f>ROUND(playerHealth/(T20),2)</f>
         <v>4.4400000000000004</v>
       </c>
@@ -2602,7 +2661,7 @@
         <f t="shared" si="3"/>
         <v>1.2</v>
       </c>
-      <c r="W20" s="42">
+      <c r="W20" s="40">
         <f>ROUND(playerHealth/(V20),2)</f>
         <v>6.67</v>
       </c>
@@ -2610,7 +2669,7 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A21" s="22"/>
-      <c r="B21" s="68"/>
+      <c r="B21" s="66"/>
       <c r="C21" s="23"/>
       <c r="D21" s="28"/>
       <c r="E21" s="23"/>
@@ -2626,19 +2685,19 @@
       <c r="O21" s="25"/>
       <c r="P21" s="23"/>
       <c r="Q21" s="23"/>
-      <c r="R21" s="40"/>
+      <c r="R21" s="38"/>
       <c r="S21" s="23"/>
       <c r="T21" s="23"/>
-      <c r="U21" s="35"/>
+      <c r="U21" s="34"/>
       <c r="V21" s="23"/>
-      <c r="W21" s="35"/>
+      <c r="W21" s="34"/>
       <c r="X21" s="23"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A22" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="68">
+      <c r="B22" s="66">
         <v>700</v>
       </c>
       <c r="C22" s="23">
@@ -2678,7 +2737,7 @@
         <f>D22*E22*H22</f>
         <v>12.5</v>
       </c>
-      <c r="O22" s="41">
+      <c r="O22" s="39">
         <f>ROUND(playerHealth/(D22*E22),1)</f>
         <v>16</v>
       </c>
@@ -2690,15 +2749,15 @@
         <f>ROUND(C22/G22,3)</f>
         <v>0.13300000000000001</v>
       </c>
-      <c r="R22" s="34" t="s">
+      <c r="R22" s="33" t="s">
         <v>31</v>
       </c>
       <c r="S22" s="23"/>
       <c r="T22" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.45</v>
       </c>
-      <c r="U22" s="42">
+      <c r="U22" s="40">
         <f>ROUND(playerHealth/(T22),2)</f>
         <v>17.78</v>
       </c>
@@ -2706,7 +2765,7 @@
         <f>D22*(E22-0.2)</f>
         <v>0.3</v>
       </c>
-      <c r="W22" s="42">
+      <c r="W22" s="40">
         <f>ROUND(playerHealth/(V22),2)</f>
         <v>26.67</v>
       </c>
@@ -2716,7 +2775,7 @@
       <c r="A23" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="68">
+      <c r="B23" s="66">
         <v>600</v>
       </c>
       <c r="C23" s="23">
@@ -2756,7 +2815,7 @@
         <f>D23*E23*H23</f>
         <v>9.5</v>
       </c>
-      <c r="O23" s="41">
+      <c r="O23" s="39">
         <f>ROUND(playerHealth/(D23*E23),1)</f>
         <v>16</v>
       </c>
@@ -2768,15 +2827,15 @@
         <f>ROUND(C23/G23,3)</f>
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="R23" s="34" t="s">
+      <c r="R23" s="33" t="s">
         <v>31</v>
       </c>
       <c r="S23" s="23"/>
       <c r="T23" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.45</v>
       </c>
-      <c r="U23" s="42">
+      <c r="U23" s="40">
         <f>ROUND(playerHealth/(T23),2)</f>
         <v>17.78</v>
       </c>
@@ -2784,7 +2843,7 @@
         <f>D23*(E23-0.2)</f>
         <v>0.3</v>
       </c>
-      <c r="W23" s="42">
+      <c r="W23" s="40">
         <f>ROUND(playerHealth/(V23),2)</f>
         <v>26.67</v>
       </c>
@@ -2794,7 +2853,7 @@
       <c r="A24" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="68">
+      <c r="B24" s="66">
         <v>650</v>
       </c>
       <c r="C24" s="23">
@@ -2834,7 +2893,7 @@
         <f>D24*E24*H24</f>
         <v>15</v>
       </c>
-      <c r="O24" s="41">
+      <c r="O24" s="39">
         <f>ROUND(playerHealth/(D24*E24),1)</f>
         <v>16</v>
       </c>
@@ -2846,7 +2905,7 @@
         <f>ROUND(C24/G24,3)</f>
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="R24" s="34" t="s">
+      <c r="R24" s="33" t="s">
         <v>31</v>
       </c>
       <c r="S24" s="23"/>
@@ -2854,7 +2913,7 @@
         <f xml:space="preserve"> D24*E24*9/10</f>
         <v>0.45</v>
       </c>
-      <c r="U24" s="42">
+      <c r="U24" s="40">
         <f>ROUND(playerHealth/(T24),2)</f>
         <v>17.78</v>
       </c>
@@ -2862,7 +2921,7 @@
         <f>D24*(E24-0.2)</f>
         <v>0.3</v>
       </c>
-      <c r="W24" s="42">
+      <c r="W24" s="40">
         <f>ROUND(playerHealth/(V24),2)</f>
         <v>26.67</v>
       </c>
@@ -2870,7 +2929,7 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A25" s="22"/>
-      <c r="B25" s="68"/>
+      <c r="B25" s="66"/>
       <c r="C25" s="23"/>
       <c r="D25" s="28"/>
       <c r="E25" s="23"/>
@@ -2886,19 +2945,19 @@
       <c r="O25" s="23"/>
       <c r="P25" s="23"/>
       <c r="Q25" s="23"/>
-      <c r="R25" s="40"/>
+      <c r="R25" s="38"/>
       <c r="S25" s="23"/>
       <c r="T25" s="23"/>
-      <c r="U25" s="42"/>
+      <c r="U25" s="40"/>
       <c r="V25" s="23"/>
-      <c r="W25" s="42"/>
+      <c r="W25" s="40"/>
       <c r="X25" s="23"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="68"/>
+      <c r="B26" s="66"/>
       <c r="C26" s="23"/>
       <c r="D26" s="24"/>
       <c r="E26" s="23"/>
@@ -2914,19 +2973,19 @@
       <c r="O26" s="23"/>
       <c r="P26" s="23"/>
       <c r="Q26" s="23"/>
-      <c r="R26" s="40"/>
+      <c r="R26" s="38"/>
       <c r="S26" s="23"/>
       <c r="T26" s="23"/>
-      <c r="U26" s="42"/>
+      <c r="U26" s="40"/>
       <c r="V26" s="23"/>
-      <c r="W26" s="42"/>
+      <c r="W26" s="40"/>
       <c r="X26" s="23"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A27" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="68">
+      <c r="B27" s="66">
         <v>24</v>
       </c>
       <c r="C27" s="23">
@@ -2967,21 +3026,21 @@
       </c>
       <c r="P27" s="23"/>
       <c r="Q27" s="23"/>
-      <c r="R27" s="40"/>
+      <c r="R27" s="38"/>
       <c r="S27" s="23"/>
       <c r="T27" s="23">
-        <f t="shared" ref="T27:T29" si="5" xml:space="preserve"> D27*E27*9/10</f>
+        <f t="shared" ref="T27:T29" si="8" xml:space="preserve"> D27*E27*9/10</f>
         <v>0.18</v>
       </c>
-      <c r="U27" s="42">
+      <c r="U27" s="40">
         <f>ROUND(playerHealth/(T27),2)</f>
         <v>44.44</v>
       </c>
       <c r="V27" s="23">
-        <f t="shared" ref="V27:V28" si="6">D27*(E27-0.2)</f>
+        <f t="shared" ref="V27:V28" si="9">D27*(E27-0.2)</f>
         <v>0</v>
       </c>
-      <c r="W27" s="42"/>
+      <c r="W27" s="40"/>
       <c r="X27" s="23"/>
       <c r="Y27" t="s">
         <v>55</v>
@@ -2991,7 +3050,7 @@
       <c r="A28" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="68">
+      <c r="B28" s="66">
         <v>32</v>
       </c>
       <c r="C28" s="23">
@@ -3032,21 +3091,21 @@
       </c>
       <c r="P28" s="23"/>
       <c r="Q28" s="23"/>
-      <c r="R28" s="40"/>
+      <c r="R28" s="38"/>
       <c r="S28" s="23"/>
       <c r="T28" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.36</v>
       </c>
-      <c r="U28" s="42">
+      <c r="U28" s="40">
         <f>ROUND(playerHealth/(T28),2)</f>
         <v>22.22</v>
       </c>
       <c r="V28" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.2</v>
       </c>
-      <c r="W28" s="42">
+      <c r="W28" s="40">
         <f>ROUND(playerHealth/(V28),2)</f>
         <v>40</v>
       </c>
@@ -3056,7 +3115,7 @@
       <c r="A29" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="68">
+      <c r="B29" s="66">
         <v>48</v>
       </c>
       <c r="C29" s="23">
@@ -3083,7 +3142,7 @@
       <c r="J29" s="23"/>
       <c r="K29" s="23"/>
       <c r="L29" s="23">
-        <f t="shared" ref="L29" si="7">ROUND(D29*E29/F29*1000,3)</f>
+        <f t="shared" ref="L29" si="10">ROUND(D29*E29/F29*1000,3)</f>
         <v>2</v>
       </c>
       <c r="M29" s="23">
@@ -3097,13 +3156,13 @@
       </c>
       <c r="P29" s="23"/>
       <c r="Q29" s="23"/>
-      <c r="R29" s="40"/>
+      <c r="R29" s="38"/>
       <c r="S29" s="23"/>
       <c r="T29" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
-      <c r="U29" s="41">
+      <c r="U29" s="39">
         <f>ROUND(playerHealth/(T29),2)</f>
         <v>8.89</v>
       </c>
@@ -3111,24 +3170,24 @@
         <f>D29*(E29-0.4)</f>
         <v>0.6</v>
       </c>
-      <c r="W29" s="41">
+      <c r="W29" s="39">
         <f>ROUND(playerHealth/(V29),2)</f>
         <v>13.33</v>
       </c>
       <c r="X29" s="23"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A30" s="44"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
+      <c r="A30" s="42"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A31" s="46" t="s">
+      <c r="A31" s="44" t="s">
         <v>58</v>
       </c>
       <c r="B31" s="9" t="s">
@@ -3149,53 +3208,53 @@
       <c r="M31" s="9"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A32" s="47" t="s">
+      <c r="A32" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="48" t="s">
+      <c r="B32" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="45"/>
-      <c r="D32" s="48" t="s">
+      <c r="C32" s="43"/>
+      <c r="D32" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49" t="s">
+      <c r="E32" s="47"/>
+      <c r="F32" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="50"/>
-      <c r="M32" s="50"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="48"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A33" s="47" t="s">
+      <c r="A33" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="48" t="s">
+      <c r="B33" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="45"/>
-      <c r="D33" s="48" t="s">
+      <c r="C33" s="43"/>
+      <c r="D33" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49" t="s">
+      <c r="E33" s="47"/>
+      <c r="F33" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="50"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="50"/>
-      <c r="M33" s="50"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="48"/>
+      <c r="M33" s="48"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A34" s="51"/>
+      <c r="A34" s="49"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
@@ -3219,171 +3278,171 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="F40" s="55" t="s">
+      <c r="F40" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="G40" s="55"/>
-      <c r="H40" s="55"/>
-      <c r="I40" s="55"/>
-      <c r="J40" s="55"/>
-      <c r="K40" s="55"/>
-      <c r="L40" s="55"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="53"/>
+      <c r="K40" s="53"/>
+      <c r="L40" s="53"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B41" s="76" t="s">
+      <c r="B41" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="G41" s="75" t="s">
+      <c r="G41" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="H41" s="75"/>
-      <c r="I41" s="75"/>
-      <c r="J41" s="75"/>
-      <c r="K41" s="75"/>
-      <c r="L41" s="75"/>
+      <c r="H41" s="73"/>
+      <c r="I41" s="73"/>
+      <c r="J41" s="73"/>
+      <c r="K41" s="73"/>
+      <c r="L41" s="73"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A42" s="52" t="s">
+      <c r="A42" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="B42" s="53">
+      <c r="B42" s="51">
         <v>-1</v>
       </c>
-      <c r="C42" s="53">
+      <c r="C42" s="51">
         <v>0</v>
       </c>
-      <c r="D42" s="53">
-        <v>1</v>
-      </c>
-      <c r="E42" s="53">
+      <c r="D42" s="51">
+        <v>1</v>
+      </c>
+      <c r="E42" s="51">
         <v>2</v>
       </c>
-      <c r="F42" s="56">
+      <c r="F42" s="54">
         <v>3</v>
       </c>
-      <c r="G42" s="56">
+      <c r="G42" s="54">
         <v>4</v>
       </c>
-      <c r="H42" s="56">
+      <c r="H42" s="54">
         <v>5</v>
       </c>
-      <c r="I42" s="56">
+      <c r="I42" s="54">
         <v>6</v>
       </c>
-      <c r="J42" s="56">
+      <c r="J42" s="54">
         <v>7</v>
       </c>
-      <c r="K42" s="56">
+      <c r="K42" s="54">
         <v>8</v>
       </c>
-      <c r="L42" s="56">
+      <c r="L42" s="54">
         <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A43" s="54" t="s">
+      <c r="A43" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="B43" s="45">
-        <f>(2+B42)*tilesize</f>
+      <c r="B43" s="43">
+        <f t="shared" ref="B43:L43" si="11">(2+B42)*tilesize</f>
         <v>128</v>
       </c>
-      <c r="C43" s="45">
-        <f>(2+C42)*tilesize</f>
+      <c r="C43" s="43">
+        <f t="shared" si="11"/>
         <v>256</v>
       </c>
-      <c r="D43" s="45">
-        <f>(2+D42)*tilesize</f>
+      <c r="D43" s="43">
+        <f t="shared" si="11"/>
         <v>384</v>
       </c>
-      <c r="E43" s="45">
-        <f>(2+E42)*tilesize</f>
+      <c r="E43" s="43">
+        <f t="shared" si="11"/>
         <v>512</v>
       </c>
-      <c r="F43" s="45">
-        <f>(2+F42)*tilesize</f>
+      <c r="F43" s="43">
+        <f t="shared" si="11"/>
         <v>640</v>
       </c>
-      <c r="G43" s="45">
-        <f>(2+G42)*tilesize</f>
+      <c r="G43" s="43">
+        <f t="shared" si="11"/>
         <v>768</v>
       </c>
-      <c r="H43" s="45">
-        <f>(2+H42)*tilesize</f>
+      <c r="H43" s="43">
+        <f t="shared" si="11"/>
         <v>896</v>
       </c>
-      <c r="I43" s="45">
-        <f>(2+I42)*tilesize</f>
+      <c r="I43" s="43">
+        <f t="shared" si="11"/>
         <v>1024</v>
       </c>
-      <c r="J43" s="45">
-        <f>(2+J42)*tilesize</f>
+      <c r="J43" s="43">
+        <f t="shared" si="11"/>
         <v>1152</v>
       </c>
-      <c r="K43" s="45">
-        <f>(2+K42)*tilesize</f>
+      <c r="K43" s="43">
+        <f t="shared" si="11"/>
         <v>1280</v>
       </c>
-      <c r="L43" s="45">
-        <f>(2+L42)*tilesize</f>
+      <c r="L43" s="43">
+        <f t="shared" si="11"/>
         <v>1408</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A44" s="54" t="s">
+      <c r="A44" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="B44" s="57">
-        <f t="shared" ref="B44:L44" si="8">(2+B42+1)*tilesize+tilesize/2</f>
+      <c r="B44" s="55">
+        <f t="shared" ref="B44:L44" si="12">(2+B42+1)*tilesize+tilesize/2</f>
         <v>320</v>
       </c>
-      <c r="C44" s="58">
-        <f t="shared" si="8"/>
+      <c r="C44" s="56">
+        <f t="shared" si="12"/>
         <v>448</v>
       </c>
-      <c r="D44" s="59">
-        <f t="shared" si="8"/>
+      <c r="D44" s="57">
+        <f t="shared" si="12"/>
         <v>576</v>
       </c>
-      <c r="E44" s="60">
-        <f t="shared" si="8"/>
+      <c r="E44" s="58">
+        <f t="shared" si="12"/>
         <v>704</v>
       </c>
-      <c r="F44" s="61">
-        <f t="shared" si="8"/>
+      <c r="F44" s="59">
+        <f t="shared" si="12"/>
         <v>832</v>
       </c>
-      <c r="G44" s="62">
-        <f t="shared" si="8"/>
+      <c r="G44" s="60">
+        <f t="shared" si="12"/>
         <v>960</v>
       </c>
-      <c r="H44" s="63">
-        <f t="shared" si="8"/>
+      <c r="H44" s="61">
+        <f t="shared" si="12"/>
         <v>1088</v>
       </c>
-      <c r="I44" s="64">
-        <f t="shared" si="8"/>
+      <c r="I44" s="62">
+        <f t="shared" si="12"/>
         <v>1216</v>
       </c>
-      <c r="J44" s="65">
-        <f t="shared" si="8"/>
+      <c r="J44" s="63">
+        <f t="shared" si="12"/>
         <v>1344</v>
       </c>
-      <c r="K44" s="66">
-        <f t="shared" si="8"/>
+      <c r="K44" s="64">
+        <f t="shared" si="12"/>
         <v>1472</v>
       </c>
-      <c r="L44" s="67">
-        <f t="shared" si="8"/>
+      <c r="L44" s="65">
+        <f t="shared" si="12"/>
         <v>1600</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="C45" s="73" t="s">
+      <c r="C45" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="D45" s="74"/>
-      <c r="E45" s="72"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="70"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/gun infos.xlsx
+++ b/gun infos.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kingc\web\blackout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B67987-2B66-4099-BCF8-3ED46E411904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE305D92-9A3F-4B13-89C7-9B03F042C848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="0" windowWidth="31240" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1260" yWindow="0" windowWidth="29870" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="fragHitNum">Sheet1!$K$3</definedName>
+    <definedName name="fraghitnum2">Sheet1!$K$5</definedName>
     <definedName name="playerHealth">Sheet1!$B$37</definedName>
     <definedName name="tilesize">Sheet1!$B$38</definedName>
   </definedNames>
@@ -1299,12 +1300,13 @@
   <dimension ref="A1:AH45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W6" sqref="W6"/>
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="20.9140625" customWidth="1"/>
+    <col min="11" max="11" width="9.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.45">
@@ -1587,7 +1589,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="23">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F5" s="23">
         <v>4000</v>
@@ -1604,22 +1606,24 @@
       <c r="J5" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="K5" s="23"/>
+      <c r="K5" s="23">
+        <v>18</v>
+      </c>
       <c r="L5" s="23">
-        <f t="shared" ref="L5" si="4">ROUND(D5*E5/F5*1000,2)</f>
-        <v>50</v>
+        <f>ROUND(D5*(E5+fraghitnum2)/F5*1000,2)</f>
+        <v>29.5</v>
       </c>
       <c r="M5" s="23">
-        <f t="shared" ref="M5" si="5">ROUND(D5*E5/(F5+I5)*1000,2)</f>
-        <v>20</v>
+        <f>ROUND(D5*(E5+fraghitnum2)/(F5+I5)*1000,2)</f>
+        <v>11.8</v>
       </c>
       <c r="N5" s="23">
-        <f t="shared" ref="N5" si="6">D5*E5*H5</f>
-        <v>200</v>
+        <f>D5*(E5+fraghitnum2)*H5</f>
+        <v>118</v>
       </c>
       <c r="O5" s="29">
-        <f>ROUND(playerHealth/(D5*E5),1)</f>
-        <v>0</v>
+        <f>ROUND(playerHealth/(D5*(E5+fraghitnum2)),1)</f>
+        <v>0.1</v>
       </c>
       <c r="P5" s="23">
         <f t="shared" si="0"/>
@@ -1634,20 +1638,20 @@
       </c>
       <c r="S5" s="23"/>
       <c r="T5" s="23">
-        <f t="shared" si="2"/>
-        <v>140</v>
+        <f xml:space="preserve"> D5*E5*7/10 +D5*fraghitnum2*9/10</f>
+        <v>86.2</v>
       </c>
       <c r="U5" s="32">
         <f>ROUND(playerHealth/(T5),2)</f>
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="V5" s="23">
-        <f t="shared" si="3"/>
-        <v>199.6</v>
+        <f>D5*((E5+fraghitnum2)-0.4)</f>
+        <v>117.6</v>
       </c>
       <c r="W5" s="32">
         <f>ROUND(playerHealth/(V5),2)</f>
-        <v>0.04</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="X5" s="23"/>
       <c r="Y5" t="s">
@@ -1806,7 +1810,7 @@
       </c>
       <c r="S8" s="23"/>
       <c r="T8" s="23">
-        <f t="shared" ref="T8:T23" si="7" xml:space="preserve"> D8*E8*9/10</f>
+        <f t="shared" ref="T8:T23" si="4" xml:space="preserve"> D8*E8*9/10</f>
         <v>2.7</v>
       </c>
       <c r="U8" s="34">
@@ -2069,7 +2073,7 @@
       </c>
       <c r="S12" s="23"/>
       <c r="T12" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
       <c r="U12" s="40">
@@ -2147,7 +2151,7 @@
       </c>
       <c r="S13" s="23"/>
       <c r="T13" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
       <c r="U13" s="40">
@@ -2228,7 +2232,7 @@
       </c>
       <c r="S14" s="23"/>
       <c r="T14" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
       <c r="U14" s="40">
@@ -2309,7 +2313,7 @@
       </c>
       <c r="S15" s="23"/>
       <c r="T15" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
       <c r="U15" s="40">
@@ -2387,7 +2391,7 @@
       </c>
       <c r="S16" s="23"/>
       <c r="T16" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
       <c r="U16" s="40">
@@ -2491,7 +2495,7 @@
       </c>
       <c r="S18" s="23"/>
       <c r="T18" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>4.5</v>
       </c>
       <c r="U18" s="31">
@@ -2572,7 +2576,7 @@
       </c>
       <c r="S19" s="23"/>
       <c r="T19" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>2.7</v>
       </c>
       <c r="U19" s="34">
@@ -2650,7 +2654,7 @@
       </c>
       <c r="S20" s="23"/>
       <c r="T20" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>1.8</v>
       </c>
       <c r="U20" s="40">
@@ -2754,7 +2758,7 @@
       </c>
       <c r="S22" s="23"/>
       <c r="T22" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0.45</v>
       </c>
       <c r="U22" s="40">
@@ -2832,7 +2836,7 @@
       </c>
       <c r="S23" s="23"/>
       <c r="T23" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0.45</v>
       </c>
       <c r="U23" s="40">
@@ -3029,7 +3033,7 @@
       <c r="R27" s="38"/>
       <c r="S27" s="23"/>
       <c r="T27" s="23">
-        <f t="shared" ref="T27:T29" si="8" xml:space="preserve"> D27*E27*9/10</f>
+        <f t="shared" ref="T27:T29" si="5" xml:space="preserve"> D27*E27*9/10</f>
         <v>0.18</v>
       </c>
       <c r="U27" s="40">
@@ -3037,7 +3041,7 @@
         <v>44.44</v>
       </c>
       <c r="V27" s="23">
-        <f t="shared" ref="V27:V28" si="9">D27*(E27-0.2)</f>
+        <f t="shared" ref="V27:V28" si="6">D27*(E27-0.2)</f>
         <v>0</v>
       </c>
       <c r="W27" s="40"/>
@@ -3094,7 +3098,7 @@
       <c r="R28" s="38"/>
       <c r="S28" s="23"/>
       <c r="T28" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0.36</v>
       </c>
       <c r="U28" s="40">
@@ -3102,7 +3106,7 @@
         <v>22.22</v>
       </c>
       <c r="V28" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0.2</v>
       </c>
       <c r="W28" s="40">
@@ -3142,7 +3146,7 @@
       <c r="J29" s="23"/>
       <c r="K29" s="23"/>
       <c r="L29" s="23">
-        <f t="shared" ref="L29" si="10">ROUND(D29*E29/F29*1000,3)</f>
+        <f t="shared" ref="L29" si="7">ROUND(D29*E29/F29*1000,3)</f>
         <v>2</v>
       </c>
       <c r="M29" s="23">
@@ -3159,7 +3163,7 @@
       <c r="R29" s="38"/>
       <c r="S29" s="23"/>
       <c r="T29" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0.9</v>
       </c>
       <c r="U29" s="39">
@@ -3344,47 +3348,47 @@
         <v>74</v>
       </c>
       <c r="B43" s="43">
-        <f t="shared" ref="B43:L43" si="11">(2+B42)*tilesize</f>
+        <f t="shared" ref="B43:L43" si="8">(2+B42)*tilesize</f>
         <v>128</v>
       </c>
       <c r="C43" s="43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>256</v>
       </c>
       <c r="D43" s="43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>384</v>
       </c>
       <c r="E43" s="43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>512</v>
       </c>
       <c r="F43" s="43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>640</v>
       </c>
       <c r="G43" s="43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>768</v>
       </c>
       <c r="H43" s="43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>896</v>
       </c>
       <c r="I43" s="43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>1024</v>
       </c>
       <c r="J43" s="43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>1152</v>
       </c>
       <c r="K43" s="43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>1280</v>
       </c>
       <c r="L43" s="43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>1408</v>
       </c>
     </row>
@@ -3393,47 +3397,47 @@
         <v>75</v>
       </c>
       <c r="B44" s="55">
-        <f t="shared" ref="B44:L44" si="12">(2+B42+1)*tilesize+tilesize/2</f>
+        <f t="shared" ref="B44:L44" si="9">(2+B42+1)*tilesize+tilesize/2</f>
         <v>320</v>
       </c>
       <c r="C44" s="56">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>448</v>
       </c>
       <c r="D44" s="57">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>576</v>
       </c>
       <c r="E44" s="58">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>704</v>
       </c>
       <c r="F44" s="59">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>832</v>
       </c>
       <c r="G44" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>960</v>
       </c>
       <c r="H44" s="61">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1088</v>
       </c>
       <c r="I44" s="62">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1216</v>
       </c>
       <c r="J44" s="63">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1344</v>
       </c>
       <c r="K44" s="64">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1472</v>
       </c>
       <c r="L44" s="65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1600</v>
       </c>
     </row>

--- a/gun infos.xlsx
+++ b/gun infos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kingc\web\blackout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE305D92-9A3F-4B13-89C7-9B03F042C848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD5569C-99C6-461E-9214-2CA20A755EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1260" yWindow="0" windowWidth="29870" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1300,7 +1300,7 @@
   <dimension ref="A1:AH45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="S4" s="28"/>
       <c r="T4" s="23">
-        <f t="shared" ref="T4:T5" si="2" xml:space="preserve"> D4*E4*7/10</f>
+        <f t="shared" ref="T4" si="2" xml:space="preserve"> D4*E4*7/10</f>
         <v>1.4</v>
       </c>
       <c r="U4" s="40">
@@ -1595,7 +1595,7 @@
         <v>4000</v>
       </c>
       <c r="G5" s="23">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H5" s="23">
         <v>1</v>
@@ -1607,19 +1607,19 @@
         <v>88</v>
       </c>
       <c r="K5" s="23">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L5" s="23">
         <f>ROUND(D5*(E5+fraghitnum2)/F5*1000,2)</f>
-        <v>29.5</v>
+        <v>28</v>
       </c>
       <c r="M5" s="23">
         <f>ROUND(D5*(E5+fraghitnum2)/(F5+I5)*1000,2)</f>
-        <v>11.8</v>
+        <v>11.2</v>
       </c>
       <c r="N5" s="23">
         <f>D5*(E5+fraghitnum2)*H5</f>
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="O5" s="29">
         <f>ROUND(playerHealth/(D5*(E5+fraghitnum2)),1)</f>
@@ -1639,15 +1639,15 @@
       <c r="S5" s="23"/>
       <c r="T5" s="23">
         <f xml:space="preserve"> D5*E5*7/10 +D5*fraghitnum2*9/10</f>
-        <v>86.2</v>
+        <v>80.8</v>
       </c>
       <c r="U5" s="32">
         <f>ROUND(playerHealth/(T5),2)</f>
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="V5" s="23">
         <f>D5*((E5+fraghitnum2)-0.4)</f>
-        <v>117.6</v>
+        <v>111.6</v>
       </c>
       <c r="W5" s="32">
         <f>ROUND(playerHealth/(V5),2)</f>

--- a/gun infos.xlsx
+++ b/gun infos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kingc\web\blackout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD5569C-99C6-461E-9214-2CA20A755EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977B0EF4-AA6A-491F-90DE-4138F6690E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="0" windowWidth="29870" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,8 @@
   <definedNames>
     <definedName name="fragHitNum">Sheet1!$K$3</definedName>
     <definedName name="fraghitnum2">Sheet1!$K$5</definedName>
-    <definedName name="playerHealth">Sheet1!$B$37</definedName>
-    <definedName name="tilesize">Sheet1!$B$38</definedName>
+    <definedName name="playerHealth">Sheet1!$B$47</definedName>
+    <definedName name="tilesize">Sheet1!$B$48</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="93">
   <si>
     <t>Weapon info</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -369,10 +369,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DPS based on direct hit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fragHitNum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -414,6 +410,22 @@
   </si>
   <si>
     <t>Designed to destroy a tank (too slow bullet for practical fights)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TURRET uses this weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APC uses this weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TANK uses this weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DPS is based on direct hit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -654,7 +666,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -775,6 +787,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -817,7 +835,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -919,9 +937,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -954,9 +969,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1005,10 +1017,6 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -1017,6 +1025,40 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1297,10 +1339,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH45"/>
+  <dimension ref="A1:AI55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="U40" sqref="U40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1309,7 +1351,7 @@
     <col min="11" max="11" width="9.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1335,7 +1377,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
@@ -1367,7 +1409,7 @@
         <v>17</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L2" s="12" t="s">
         <v>18</v>
@@ -1405,12 +1447,17 @@
       <c r="Y2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="AF2" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG2" s="50"/>
+      <c r="AH2" s="50"/>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="57">
+      <c r="B3" s="55">
         <v>576</v>
       </c>
       <c r="C3" s="24">
@@ -1488,17 +1535,18 @@
       <c r="Y3" t="s">
         <v>77</v>
       </c>
-      <c r="AF3" s="69" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG3" s="52"/>
-      <c r="AH3" s="52"/>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="AF3" s="84" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG3" s="84"/>
+      <c r="AH3" s="84"/>
+      <c r="AI3" s="84"/>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="67">
+      <c r="B4" s="64">
         <v>192</v>
       </c>
       <c r="C4" s="28">
@@ -1538,7 +1586,7 @@
         <f>D4*E4*H4</f>
         <v>10</v>
       </c>
-      <c r="O4" s="39">
+      <c r="O4" s="38">
         <f>ROUND(playerHealth/(D4*E4),1)</f>
         <v>4</v>
       </c>
@@ -1550,20 +1598,20 @@
         <f t="shared" si="1"/>
         <v>0.375</v>
       </c>
-      <c r="R4" s="38" t="s">
-        <v>80</v>
+      <c r="R4" s="37" t="s">
+        <v>79</v>
       </c>
       <c r="S4" s="28"/>
       <c r="T4" s="23">
         <f t="shared" ref="T4" si="2" xml:space="preserve"> D4*E4*7/10</f>
         <v>1.4</v>
       </c>
-      <c r="U4" s="40">
+      <c r="U4" s="39">
         <f>ROUND(playerHealth/(T4),2)</f>
         <v>5.71</v>
       </c>
       <c r="V4" s="23">
-        <f t="shared" ref="V4:V20" si="3">D4*(E4-0.4)</f>
+        <f t="shared" ref="V4" si="3">D4*(E4-0.4)</f>
         <v>1.6</v>
       </c>
       <c r="W4" s="31">
@@ -1575,38 +1623,38 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A5" s="22" t="s">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A5" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="57">
+        <v>832</v>
+      </c>
+      <c r="C5" s="28">
+        <v>0</v>
+      </c>
+      <c r="D5" s="73">
+        <v>1</v>
+      </c>
+      <c r="E5" s="28">
+        <v>100</v>
+      </c>
+      <c r="F5" s="28">
+        <v>4000</v>
+      </c>
+      <c r="G5" s="28">
+        <v>10</v>
+      </c>
+      <c r="H5" s="28">
+        <v>1</v>
+      </c>
+      <c r="I5" s="28">
+        <v>6000</v>
+      </c>
+      <c r="J5" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="59">
-        <v>832</v>
-      </c>
-      <c r="C5" s="23">
-        <v>0</v>
-      </c>
-      <c r="D5" s="24">
-        <v>1</v>
-      </c>
-      <c r="E5" s="23">
-        <v>100</v>
-      </c>
-      <c r="F5" s="23">
-        <v>4000</v>
-      </c>
-      <c r="G5" s="23">
-        <v>10</v>
-      </c>
-      <c r="H5" s="23">
-        <v>1</v>
-      </c>
-      <c r="I5" s="23">
-        <v>6000</v>
-      </c>
-      <c r="J5" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="K5" s="23">
+      <c r="K5" s="28">
         <v>12</v>
       </c>
       <c r="L5" s="23">
@@ -1634,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="R5" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S5" s="23"/>
       <c r="T5" s="23">
@@ -1655,280 +1703,111 @@
       </c>
       <c r="X5" s="23"/>
       <c r="Y5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="B6" s="68"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A6" s="27"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="23"/>
       <c r="M6" s="23"/>
       <c r="N6" s="23"/>
       <c r="O6" s="36"/>
       <c r="P6" s="23"/>
       <c r="Q6" s="23"/>
+      <c r="R6" s="72"/>
+      <c r="S6" s="72"/>
       <c r="T6" s="23"/>
-      <c r="U6" s="34"/>
+      <c r="U6" s="25"/>
       <c r="V6" s="23"/>
-      <c r="W6" s="31"/>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A7" s="22" t="s">
+      <c r="W6" s="36"/>
+      <c r="X6" s="72"/>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A7" s="27"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="72"/>
+      <c r="Q7" s="72"/>
+      <c r="R7" s="72"/>
+      <c r="S7" s="72"/>
+      <c r="T7" s="72"/>
+      <c r="U7" s="72"/>
+      <c r="V7" s="72"/>
+      <c r="W7" s="72"/>
+      <c r="X7" s="72"/>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A8" s="27"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="72"/>
+      <c r="R8" s="72"/>
+      <c r="S8" s="72"/>
+      <c r="T8" s="72"/>
+      <c r="U8" s="72"/>
+      <c r="V8" s="72"/>
+      <c r="W8" s="72"/>
+      <c r="X8" s="72"/>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="64">
+      <c r="B10" s="74">
         <v>1472</v>
-      </c>
-      <c r="C7" s="23">
-        <v>0</v>
-      </c>
-      <c r="D7" s="28">
-        <v>1</v>
-      </c>
-      <c r="E7" s="23">
-        <v>5</v>
-      </c>
-      <c r="F7" s="23">
-        <v>1600</v>
-      </c>
-      <c r="G7" s="23">
-        <v>42</v>
-      </c>
-      <c r="H7" s="23">
-        <v>5</v>
-      </c>
-      <c r="I7" s="23">
-        <v>4000</v>
-      </c>
-      <c r="J7" s="23">
-        <v>7</v>
-      </c>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23">
-        <f>ROUND(D7*E7/F7*1000,2)</f>
-        <v>3.13</v>
-      </c>
-      <c r="M7" s="23">
-        <f>ROUND(D7*E7/(F7+I7)*1000,2)</f>
-        <v>0.89</v>
-      </c>
-      <c r="N7" s="23">
-        <f>D7*E7*H7</f>
-        <v>25</v>
-      </c>
-      <c r="O7" s="36">
-        <f>ROUND(playerHealth/(D7*E7),1)</f>
-        <v>1.6</v>
-      </c>
-      <c r="P7" s="23">
-        <f>-(FLOOR(G7/6,1)-1)</f>
-        <v>-6</v>
-      </c>
-      <c r="Q7" s="23">
-        <f>ROUND(C7/G7,3)</f>
-        <v>0</v>
-      </c>
-      <c r="R7" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23">
-        <f xml:space="preserve"> D7*E7*7/10</f>
-        <v>3.5</v>
-      </c>
-      <c r="U7" s="34">
-        <f>ROUND(playerHealth/(T7),2)</f>
-        <v>2.29</v>
-      </c>
-      <c r="V7" s="23">
-        <f t="shared" si="3"/>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="W7" s="31">
-        <f>ROUND(playerHealth/(V7),2)</f>
-        <v>1.74</v>
-      </c>
-      <c r="X7" s="23"/>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A8" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="61">
-        <v>1088</v>
-      </c>
-      <c r="C8" s="23">
-        <v>1</v>
-      </c>
-      <c r="D8" s="24">
-        <v>1</v>
-      </c>
-      <c r="E8" s="23">
-        <v>3</v>
-      </c>
-      <c r="F8" s="23">
-        <v>600</v>
-      </c>
-      <c r="G8" s="23">
-        <v>32</v>
-      </c>
-      <c r="H8" s="23">
-        <v>14</v>
-      </c>
-      <c r="I8" s="23">
-        <v>3300</v>
-      </c>
-      <c r="J8" s="23">
-        <v>7</v>
-      </c>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23">
-        <f>ROUND(D8*E8/F8*1000,2)</f>
-        <v>5</v>
-      </c>
-      <c r="M8" s="23">
-        <f>ROUND(D8*E8/(F8+I8)*1000,2)</f>
-        <v>0.77</v>
-      </c>
-      <c r="N8" s="23">
-        <f>D8*E8*H8</f>
-        <v>42</v>
-      </c>
-      <c r="O8" s="25">
-        <f>ROUND(playerHealth/(D8*E8),1)</f>
-        <v>2.7</v>
-      </c>
-      <c r="P8" s="23">
-        <f>-(FLOOR(G8/6,1)-1)</f>
-        <v>-4</v>
-      </c>
-      <c r="Q8" s="23">
-        <f>ROUND(C8/G8,3)</f>
-        <v>3.1E-2</v>
-      </c>
-      <c r="R8" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23">
-        <f t="shared" ref="T8:T23" si="4" xml:space="preserve"> D8*E8*9/10</f>
-        <v>2.7</v>
-      </c>
-      <c r="U8" s="34">
-        <f>ROUND(playerHealth/(T8),2)</f>
-        <v>2.96</v>
-      </c>
-      <c r="V8" s="23">
-        <f t="shared" si="3"/>
-        <v>2.6</v>
-      </c>
-      <c r="W8" s="35">
-        <f>ROUND(playerHealth/(V8),2)</f>
-        <v>3.08</v>
-      </c>
-      <c r="X8" s="23"/>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A9" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="62">
-        <v>1216</v>
-      </c>
-      <c r="C9" s="23">
-        <v>1</v>
-      </c>
-      <c r="D9" s="28">
-        <v>1</v>
-      </c>
-      <c r="E9" s="23">
-        <v>3.5</v>
-      </c>
-      <c r="F9" s="23">
-        <v>350</v>
-      </c>
-      <c r="G9" s="23">
-        <v>36</v>
-      </c>
-      <c r="H9" s="23">
-        <v>10</v>
-      </c>
-      <c r="I9" s="23">
-        <v>2700</v>
-      </c>
-      <c r="J9" s="23">
-        <v>7</v>
-      </c>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23">
-        <f>ROUND(D9*E9/F9*1000,2)</f>
-        <v>10</v>
-      </c>
-      <c r="M9" s="23">
-        <f>ROUND(D9*E9/(F9+I9)*1000,2)</f>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="N9" s="23">
-        <f>D9*E9*H9</f>
-        <v>35</v>
-      </c>
-      <c r="O9" s="25">
-        <f>ROUND(playerHealth/(D9*E9),1)</f>
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="P9" s="23">
-        <f>-(FLOOR(G9/6,1)-1)</f>
-        <v>-5</v>
-      </c>
-      <c r="Q9" s="23">
-        <f>ROUND(C9/G9,3)</f>
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="R9" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23">
-        <f xml:space="preserve"> D9*E9*7/10</f>
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="U9" s="35">
-        <f>ROUND(playerHealth/(T9),2)</f>
-        <v>3.27</v>
-      </c>
-      <c r="V9" s="23">
-        <f t="shared" si="3"/>
-        <v>3.1</v>
-      </c>
-      <c r="W9" s="34">
-        <f>ROUND(playerHealth/(V9),2)</f>
-        <v>2.58</v>
-      </c>
-      <c r="X9" s="23"/>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A10" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="65">
-        <v>1600</v>
       </c>
       <c r="C10" s="23">
         <v>0</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="28">
         <v>1</v>
       </c>
       <c r="E10" s="23">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F10" s="23">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="G10" s="23">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H10" s="23">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I10" s="23">
         <v>4000</v>
@@ -1939,23 +1818,23 @@
       <c r="K10" s="23"/>
       <c r="L10" s="23">
         <f>ROUND(D10*E10/F10*1000,2)</f>
-        <v>4.5</v>
+        <v>3.13</v>
       </c>
       <c r="M10" s="23">
         <f>ROUND(D10*E10/(F10+I10)*1000,2)</f>
-        <v>1.5</v>
+        <v>0.89</v>
       </c>
       <c r="N10" s="23">
         <f>D10*E10*H10</f>
-        <v>63</v>
-      </c>
-      <c r="O10" s="29">
+        <v>25</v>
+      </c>
+      <c r="O10" s="36">
         <f>ROUND(playerHealth/(D10*E10),1)</f>
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="P10" s="23">
         <f>-(FLOOR(G10/6,1)-1)</f>
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="Q10" s="23">
         <f>ROUND(C10/G10,3)</f>
@@ -1967,378 +1846,320 @@
       <c r="S10" s="23"/>
       <c r="T10" s="23">
         <f xml:space="preserve"> D10*E10*7/10</f>
-        <v>6.3</v>
-      </c>
-      <c r="U10" s="31">
+        <v>3.5</v>
+      </c>
+      <c r="U10" s="34">
         <f>ROUND(playerHealth/(T10),2)</f>
-        <v>1.27</v>
+        <v>2.29</v>
       </c>
       <c r="V10" s="23">
-        <f t="shared" si="3"/>
-        <v>8.6</v>
-      </c>
-      <c r="W10" s="32">
+        <f>D10*(E10-0.4)</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="W10" s="31">
         <f>ROUND(playerHealth/(V10),2)</f>
-        <v>0.93</v>
+        <v>1.74</v>
       </c>
       <c r="X10" s="23"/>
-      <c r="Y10" t="s">
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A11" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="75">
+        <v>1088</v>
+      </c>
+      <c r="C11" s="23">
+        <v>1</v>
+      </c>
+      <c r="D11" s="24">
+        <v>1</v>
+      </c>
+      <c r="E11" s="23">
+        <v>3</v>
+      </c>
+      <c r="F11" s="23">
+        <v>600</v>
+      </c>
+      <c r="G11" s="23">
+        <v>32</v>
+      </c>
+      <c r="H11" s="23">
+        <v>14</v>
+      </c>
+      <c r="I11" s="23">
+        <v>3300</v>
+      </c>
+      <c r="J11" s="23">
+        <v>7</v>
+      </c>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23">
+        <f>ROUND(D11*E11/F11*1000,2)</f>
+        <v>5</v>
+      </c>
+      <c r="M11" s="23">
+        <f>ROUND(D11*E11/(F11+I11)*1000,2)</f>
+        <v>0.77</v>
+      </c>
+      <c r="N11" s="23">
+        <f>D11*E11*H11</f>
+        <v>42</v>
+      </c>
+      <c r="O11" s="25">
+        <f>ROUND(playerHealth/(D11*E11),1)</f>
+        <v>2.7</v>
+      </c>
+      <c r="P11" s="23">
+        <f>-(FLOOR(G11/6,1)-1)</f>
+        <v>-4</v>
+      </c>
+      <c r="Q11" s="23">
+        <f>ROUND(C11/G11,3)</f>
+        <v>3.1E-2</v>
+      </c>
+      <c r="R11" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23">
+        <f t="shared" ref="T11" si="4" xml:space="preserve"> D11*E11*9/10</f>
+        <v>2.7</v>
+      </c>
+      <c r="U11" s="34">
+        <f>ROUND(playerHealth/(T11),2)</f>
+        <v>2.96</v>
+      </c>
+      <c r="V11" s="23">
+        <f>D11*(E11-0.4)</f>
+        <v>2.6</v>
+      </c>
+      <c r="W11" s="35">
+        <f>ROUND(playerHealth/(V11),2)</f>
+        <v>3.08</v>
+      </c>
+      <c r="X11" s="23"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A12" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="76">
+        <v>1216</v>
+      </c>
+      <c r="C12" s="23">
+        <v>1</v>
+      </c>
+      <c r="D12" s="28">
+        <v>1</v>
+      </c>
+      <c r="E12" s="23">
+        <v>3.5</v>
+      </c>
+      <c r="F12" s="23">
+        <v>350</v>
+      </c>
+      <c r="G12" s="23">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A11" s="37"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="23"/>
-      <c r="W11" s="34"/>
-      <c r="X11" s="23"/>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A12" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="57">
-        <v>576</v>
-      </c>
-      <c r="C12" s="23">
-        <v>3</v>
-      </c>
-      <c r="D12" s="24">
-        <v>1</v>
-      </c>
-      <c r="E12" s="23">
-        <v>1</v>
-      </c>
-      <c r="F12" s="23">
-        <v>300</v>
-      </c>
-      <c r="G12" s="23">
-        <v>15</v>
-      </c>
       <c r="H12" s="23">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I12" s="23">
-        <v>1100</v>
+        <v>2700</v>
       </c>
       <c r="J12" s="23">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K12" s="23"/>
       <c r="L12" s="23">
         <f>ROUND(D12*E12/F12*1000,2)</f>
-        <v>3.33</v>
+        <v>10</v>
       </c>
       <c r="M12" s="23">
         <f>ROUND(D12*E12/(F12+I12)*1000,2)</f>
-        <v>0.71</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="N12" s="23">
         <f>D12*E12*H12</f>
-        <v>15</v>
-      </c>
-      <c r="O12" s="39">
+        <v>35</v>
+      </c>
+      <c r="O12" s="25">
         <f>ROUND(playerHealth/(D12*E12),1)</f>
-        <v>8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="P12" s="23">
         <f>-(FLOOR(G12/6,1)-1)</f>
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="Q12" s="23">
         <f>ROUND(C12/G12,3)</f>
-        <v>0.2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="R12" s="33" t="s">
         <v>31</v>
       </c>
       <c r="S12" s="23"/>
       <c r="T12" s="23">
-        <f t="shared" si="4"/>
-        <v>0.9</v>
-      </c>
-      <c r="U12" s="40">
+        <f xml:space="preserve"> D12*E12*7/10</f>
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="U12" s="35">
         <f>ROUND(playerHealth/(T12),2)</f>
-        <v>8.89</v>
+        <v>3.27</v>
       </c>
       <c r="V12" s="23">
-        <f t="shared" si="3"/>
-        <v>0.6</v>
-      </c>
-      <c r="W12" s="40">
+        <f>D12*(E12-0.4)</f>
+        <v>3.1</v>
+      </c>
+      <c r="W12" s="34">
         <f>ROUND(playerHealth/(V12),2)</f>
-        <v>13.33</v>
+        <v>2.58</v>
       </c>
       <c r="X12" s="23"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A13" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="59">
-        <v>832</v>
+        <v>35</v>
+      </c>
+      <c r="B13" s="64">
+        <v>1600</v>
       </c>
       <c r="C13" s="23">
+        <v>0</v>
+      </c>
+      <c r="D13" s="24">
         <v>1</v>
       </c>
-      <c r="D13" s="28">
-        <v>1</v>
-      </c>
       <c r="E13" s="23">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F13" s="23">
-        <v>75</v>
+        <v>2000</v>
       </c>
       <c r="G13" s="23">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H13" s="23">
-        <v>150</v>
+        <v>7</v>
       </c>
       <c r="I13" s="23">
-        <v>7400</v>
+        <v>4000</v>
       </c>
       <c r="J13" s="23">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K13" s="23"/>
       <c r="L13" s="23">
         <f>ROUND(D13*E13/F13*1000,2)</f>
-        <v>13.33</v>
+        <v>4.5</v>
       </c>
       <c r="M13" s="23">
         <f>ROUND(D13*E13/(F13+I13)*1000,2)</f>
-        <v>0.13</v>
+        <v>1.5</v>
       </c>
       <c r="N13" s="23">
         <f>D13*E13*H13</f>
-        <v>150</v>
-      </c>
-      <c r="O13" s="39">
+        <v>63</v>
+      </c>
+      <c r="O13" s="29">
         <f>ROUND(playerHealth/(D13*E13),1)</f>
-        <v>8</v>
+        <v>0.9</v>
       </c>
       <c r="P13" s="23">
         <f>-(FLOOR(G13/6,1)-1)</f>
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="Q13" s="23">
         <f>ROUND(C13/G13,3)</f>
-        <v>4.2999999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="R13" s="26" t="s">
         <v>30</v>
       </c>
       <c r="S13" s="23"/>
       <c r="T13" s="23">
-        <f t="shared" si="4"/>
-        <v>0.9</v>
-      </c>
-      <c r="U13" s="40">
+        <f xml:space="preserve"> D13*E13*7/10</f>
+        <v>6.3</v>
+      </c>
+      <c r="U13" s="31">
         <f>ROUND(playerHealth/(T13),2)</f>
-        <v>8.89</v>
+        <v>1.27</v>
       </c>
       <c r="V13" s="23">
-        <f t="shared" si="3"/>
-        <v>0.6</v>
-      </c>
-      <c r="W13" s="40">
+        <f>D13*(E13-0.4)</f>
+        <v>8.6</v>
+      </c>
+      <c r="W13" s="32">
         <f>ROUND(playerHealth/(V13),2)</f>
-        <v>13.33</v>
+        <v>0.93</v>
       </c>
       <c r="X13" s="23"/>
       <c r="Y13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A14" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="61">
-        <v>1088</v>
-      </c>
-      <c r="C14" s="23">
-        <v>1</v>
-      </c>
-      <c r="D14" s="24">
-        <v>1</v>
-      </c>
-      <c r="E14" s="23">
-        <v>1</v>
-      </c>
-      <c r="F14" s="23">
-        <v>100</v>
-      </c>
-      <c r="G14" s="23">
-        <v>19</v>
-      </c>
-      <c r="H14" s="23">
-        <v>10</v>
-      </c>
-      <c r="I14" s="23">
-        <v>2300</v>
-      </c>
-      <c r="J14" s="23">
-        <v>5</v>
-      </c>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23">
-        <f>ROUND(D14*E14/F14*1000,2)</f>
-        <v>10</v>
-      </c>
-      <c r="M14" s="23">
-        <f>ROUND(D14*E14/(F14+I14)*1000,2)</f>
-        <v>0.42</v>
-      </c>
-      <c r="N14" s="23">
-        <f>D14*E14*H14</f>
-        <v>10</v>
-      </c>
-      <c r="O14" s="39">
-        <f>ROUND(playerHealth/(D14*E14),1)</f>
-        <v>8</v>
-      </c>
-      <c r="P14" s="23">
-        <f>-(FLOOR(G14/6,1)-1)</f>
-        <v>-2</v>
-      </c>
-      <c r="Q14" s="23">
-        <f>ROUND(C14/G14,3)</f>
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="R14" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23">
-        <f t="shared" si="4"/>
-        <v>0.9</v>
-      </c>
-      <c r="U14" s="40">
-        <f>ROUND(playerHealth/(T14),2)</f>
-        <v>8.89</v>
-      </c>
-      <c r="V14" s="23">
-        <f t="shared" si="3"/>
-        <v>0.6</v>
-      </c>
-      <c r="W14" s="40">
-        <f>ROUND(playerHealth/(V14),2)</f>
-        <v>13.33</v>
-      </c>
-      <c r="X14" s="23"/>
-      <c r="Y14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A15" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="58">
-        <v>704</v>
-      </c>
-      <c r="C15" s="23">
-        <v>1</v>
-      </c>
-      <c r="D15" s="28">
-        <v>1</v>
-      </c>
-      <c r="E15" s="23">
-        <v>1</v>
-      </c>
-      <c r="F15" s="23">
-        <v>110</v>
-      </c>
-      <c r="G15" s="23">
-        <v>21</v>
-      </c>
-      <c r="H15" s="23">
-        <v>30</v>
-      </c>
-      <c r="I15" s="23">
-        <v>1000</v>
-      </c>
-      <c r="J15" s="23">
-        <v>5</v>
-      </c>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23">
-        <f>ROUND(D15*E15/F15*1000,2)</f>
-        <v>9.09</v>
-      </c>
-      <c r="M15" s="23">
-        <f>ROUND(D15*E15/(F15+I15)*1000,2)</f>
-        <v>0.9</v>
-      </c>
-      <c r="N15" s="23">
-        <f>D15*E15*H15</f>
-        <v>30</v>
-      </c>
-      <c r="O15" s="39">
-        <f>ROUND(playerHealth/(D15*E15),1)</f>
-        <v>8</v>
-      </c>
-      <c r="P15" s="23">
-        <f>-(FLOOR(G15/6,1)-1)</f>
-        <v>-2</v>
-      </c>
-      <c r="Q15" s="23">
-        <f>ROUND(C15/G15,3)</f>
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="R15" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23">
-        <f t="shared" si="4"/>
-        <v>0.9</v>
-      </c>
-      <c r="U15" s="40">
-        <f>ROUND(playerHealth/(T15),2)</f>
-        <v>8.89</v>
-      </c>
-      <c r="V15" s="23">
-        <f t="shared" si="3"/>
-        <v>0.6</v>
-      </c>
-      <c r="W15" s="40">
-        <f>ROUND(playerHealth/(V15),2)</f>
-        <v>13.33</v>
-      </c>
-      <c r="X15" s="23"/>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.45">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A14" s="72"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="72"/>
+      <c r="O14" s="72"/>
+      <c r="P14" s="72"/>
+      <c r="Q14" s="72"/>
+      <c r="R14" s="72"/>
+      <c r="S14" s="72"/>
+      <c r="T14" s="72"/>
+      <c r="U14" s="72"/>
+      <c r="V14" s="72"/>
+      <c r="W14" s="72"/>
+      <c r="X14" s="72"/>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A15" s="72"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="72"/>
+      <c r="O15" s="72"/>
+      <c r="P15" s="72"/>
+      <c r="Q15" s="72"/>
+      <c r="R15" s="72"/>
+      <c r="S15" s="72"/>
+      <c r="T15" s="72"/>
+      <c r="U15" s="72"/>
+      <c r="V15" s="72"/>
+      <c r="W15" s="72"/>
+      <c r="X15" s="72"/>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A16" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="57">
+        <v>37</v>
+      </c>
+      <c r="B16" s="77">
         <v>576</v>
       </c>
       <c r="C16" s="23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" s="24">
         <v>1</v>
@@ -2347,16 +2168,16 @@
         <v>1</v>
       </c>
       <c r="F16" s="23">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G16" s="23">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H16" s="23">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I16" s="23">
-        <v>3200</v>
+        <v>1100</v>
       </c>
       <c r="J16" s="23">
         <v>5</v>
@@ -2364,17 +2185,17 @@
       <c r="K16" s="23"/>
       <c r="L16" s="23">
         <f>ROUND(D16*E16/F16*1000,2)</f>
-        <v>12.5</v>
+        <v>3.33</v>
       </c>
       <c r="M16" s="23">
         <f>ROUND(D16*E16/(F16+I16)*1000,2)</f>
-        <v>0.3</v>
+        <v>0.71</v>
       </c>
       <c r="N16" s="23">
         <f>D16*E16*H16</f>
-        <v>30</v>
-      </c>
-      <c r="O16" s="39">
+        <v>15</v>
+      </c>
+      <c r="O16" s="38">
         <f>ROUND(playerHealth/(D16*E16),1)</f>
         <v>8</v>
       </c>
@@ -2384,262 +2205,323 @@
       </c>
       <c r="Q16" s="23">
         <f>ROUND(C16/G16,3)</f>
-        <v>5.8999999999999997E-2</v>
+        <v>0.2</v>
       </c>
       <c r="R16" s="33" t="s">
         <v>31</v>
       </c>
       <c r="S16" s="23"/>
       <c r="T16" s="23">
-        <f t="shared" si="4"/>
+        <f xml:space="preserve"> D16*E16*9/10</f>
         <v>0.9</v>
       </c>
-      <c r="U16" s="40">
+      <c r="U16" s="39">
         <f>ROUND(playerHealth/(T16),2)</f>
         <v>8.89</v>
       </c>
       <c r="V16" s="23">
-        <f t="shared" si="3"/>
+        <f>D16*(E16-0.4)</f>
         <v>0.6</v>
       </c>
-      <c r="W16" s="40">
+      <c r="W16" s="39">
         <f>ROUND(playerHealth/(V16),2)</f>
         <v>13.33</v>
       </c>
       <c r="X16" s="23"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A17" s="22"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A17" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="78">
+        <v>832</v>
+      </c>
+      <c r="C17" s="23">
+        <v>1</v>
+      </c>
+      <c r="D17" s="28">
+        <v>1</v>
+      </c>
+      <c r="E17" s="23">
+        <v>1</v>
+      </c>
+      <c r="F17" s="23">
+        <v>75</v>
+      </c>
+      <c r="G17" s="23">
+        <v>23</v>
+      </c>
+      <c r="H17" s="23">
+        <v>150</v>
+      </c>
+      <c r="I17" s="23">
+        <v>7400</v>
+      </c>
+      <c r="J17" s="23">
+        <v>5</v>
+      </c>
       <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="38"/>
+      <c r="L17" s="23">
+        <f>ROUND(D17*E17/F17*1000,2)</f>
+        <v>13.33</v>
+      </c>
+      <c r="M17" s="23">
+        <f>ROUND(D17*E17/(F17+I17)*1000,2)</f>
+        <v>0.13</v>
+      </c>
+      <c r="N17" s="23">
+        <f>D17*E17*H17</f>
+        <v>150</v>
+      </c>
+      <c r="O17" s="38">
+        <f>ROUND(playerHealth/(D17*E17),1)</f>
+        <v>8</v>
+      </c>
+      <c r="P17" s="23">
+        <f>-(FLOOR(G17/6,1)-1)</f>
+        <v>-2</v>
+      </c>
+      <c r="Q17" s="23">
+        <f>ROUND(C17/G17,3)</f>
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="R17" s="26" t="s">
+        <v>30</v>
+      </c>
       <c r="S17" s="23"/>
-      <c r="T17" s="23"/>
-      <c r="U17" s="34"/>
-      <c r="V17" s="23"/>
-      <c r="W17" s="34"/>
+      <c r="T17" s="23">
+        <f xml:space="preserve"> D17*E17*9/10</f>
+        <v>0.9</v>
+      </c>
+      <c r="U17" s="39">
+        <f>ROUND(playerHealth/(T17),2)</f>
+        <v>8.89</v>
+      </c>
+      <c r="V17" s="23">
+        <f>D17*(E17-0.4)</f>
+        <v>0.6</v>
+      </c>
+      <c r="W17" s="39">
+        <f>ROUND(playerHealth/(V17),2)</f>
+        <v>13.33</v>
+      </c>
       <c r="X17" s="23"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="Y17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF17" s="84" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG17" s="84"/>
+      <c r="AH17" s="84"/>
+      <c r="AI17" s="84"/>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A18" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="55">
-        <v>320</v>
+        <v>40</v>
+      </c>
+      <c r="B18" s="75">
+        <v>1088</v>
       </c>
       <c r="C18" s="23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D18" s="24">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E18" s="23">
         <v>1</v>
       </c>
       <c r="F18" s="23">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="G18" s="23">
+        <v>19</v>
+      </c>
+      <c r="H18" s="23">
         <v>10</v>
       </c>
-      <c r="H18" s="23">
-        <v>2</v>
-      </c>
       <c r="I18" s="23">
-        <v>1200</v>
+        <v>2300</v>
       </c>
       <c r="J18" s="23">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K18" s="23"/>
       <c r="L18" s="23">
         <f>ROUND(D18*E18/F18*1000,2)</f>
-        <v>27.78</v>
+        <v>10</v>
       </c>
       <c r="M18" s="23">
         <f>ROUND(D18*E18/(F18+I18)*1000,2)</f>
-        <v>3.62</v>
+        <v>0.42</v>
       </c>
       <c r="N18" s="23">
         <f>D18*E18*H18</f>
         <v>10</v>
       </c>
-      <c r="O18" s="36">
+      <c r="O18" s="38">
         <f>ROUND(playerHealth/(D18*E18),1)</f>
-        <v>1.6</v>
+        <v>8</v>
       </c>
       <c r="P18" s="23">
         <f>-(FLOOR(G18/6,1)-1)</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q18" s="23">
         <f>ROUND(C18/G18,3)</f>
-        <v>0.5</v>
-      </c>
-      <c r="R18" s="33" t="s">
-        <v>31</v>
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="R18" s="26" t="s">
+        <v>30</v>
       </c>
       <c r="S18" s="23"/>
       <c r="T18" s="23">
-        <f t="shared" si="4"/>
-        <v>4.5</v>
-      </c>
-      <c r="U18" s="31">
+        <f xml:space="preserve"> D18*E18*9/10</f>
+        <v>0.9</v>
+      </c>
+      <c r="U18" s="39">
         <f>ROUND(playerHealth/(T18),2)</f>
-        <v>1.78</v>
+        <v>8.89</v>
       </c>
       <c r="V18" s="23">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="W18" s="34">
+        <f>D18*(E18-0.4)</f>
+        <v>0.6</v>
+      </c>
+      <c r="W18" s="39">
         <f>ROUND(playerHealth/(V18),2)</f>
-        <v>2.67</v>
+        <v>13.33</v>
       </c>
       <c r="X18" s="23"/>
       <c r="Y18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.45">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A19" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="56">
-        <v>448</v>
+        <v>42</v>
+      </c>
+      <c r="B19" s="79">
+        <v>704</v>
       </c>
       <c r="C19" s="23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D19" s="28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E19" s="23">
         <v>1</v>
       </c>
       <c r="F19" s="23">
-        <v>400</v>
+        <v>110</v>
       </c>
       <c r="G19" s="23">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H19" s="23">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="I19" s="23">
-        <v>6000</v>
+        <v>1000</v>
       </c>
       <c r="J19" s="23">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K19" s="23"/>
       <c r="L19" s="23">
         <f>ROUND(D19*E19/F19*1000,2)</f>
-        <v>7.5</v>
+        <v>9.09</v>
       </c>
       <c r="M19" s="23">
         <f>ROUND(D19*E19/(F19+I19)*1000,2)</f>
-        <v>0.47</v>
+        <v>0.9</v>
       </c>
       <c r="N19" s="23">
         <f>D19*E19*H19</f>
-        <v>42</v>
-      </c>
-      <c r="O19" s="25">
+        <v>30</v>
+      </c>
+      <c r="O19" s="38">
         <f>ROUND(playerHealth/(D19*E19),1)</f>
-        <v>2.7</v>
+        <v>8</v>
       </c>
       <c r="P19" s="23">
         <f>-(FLOOR(G19/6,1)-1)</f>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="Q19" s="23">
         <f>ROUND(C19/G19,3)</f>
-        <v>0.23100000000000001</v>
-      </c>
-      <c r="R19" s="26" t="s">
-        <v>30</v>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="R19" s="33" t="s">
+        <v>31</v>
       </c>
       <c r="S19" s="23"/>
       <c r="T19" s="23">
-        <f t="shared" si="4"/>
-        <v>2.7</v>
-      </c>
-      <c r="U19" s="34">
+        <f xml:space="preserve"> D19*E19*9/10</f>
+        <v>0.9</v>
+      </c>
+      <c r="U19" s="39">
         <f>ROUND(playerHealth/(T19),2)</f>
-        <v>2.96</v>
+        <v>8.89</v>
       </c>
       <c r="V19" s="23">
-        <f t="shared" si="3"/>
-        <v>1.7999999999999998</v>
-      </c>
-      <c r="W19" s="40">
+        <f>D19*(E19-0.4)</f>
+        <v>0.6</v>
+      </c>
+      <c r="W19" s="39">
         <f>ROUND(playerHealth/(V19),2)</f>
-        <v>4.4400000000000004</v>
+        <v>13.33</v>
       </c>
       <c r="X19" s="23"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A20" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="56">
-        <v>448</v>
+        <v>43</v>
+      </c>
+      <c r="B20" s="77">
+        <v>576</v>
       </c>
       <c r="C20" s="23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D20" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" s="23">
         <v>1</v>
       </c>
       <c r="F20" s="23">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="G20" s="23">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H20" s="23">
+        <v>30</v>
+      </c>
+      <c r="I20" s="23">
+        <v>3200</v>
+      </c>
+      <c r="J20" s="23">
         <v>5</v>
-      </c>
-      <c r="I20" s="23">
-        <v>2300</v>
-      </c>
-      <c r="J20" s="23">
-        <v>12</v>
       </c>
       <c r="K20" s="23"/>
       <c r="L20" s="23">
         <f>ROUND(D20*E20/F20*1000,2)</f>
-        <v>11.11</v>
+        <v>12.5</v>
       </c>
       <c r="M20" s="23">
         <f>ROUND(D20*E20/(F20+I20)*1000,2)</f>
-        <v>0.81</v>
+        <v>0.3</v>
       </c>
       <c r="N20" s="23">
         <f>D20*E20*H20</f>
-        <v>10</v>
-      </c>
-      <c r="O20" s="39">
+        <v>30</v>
+      </c>
+      <c r="O20" s="38">
         <f>ROUND(playerHealth/(D20*E20),1)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P20" s="23">
         <f>-(FLOOR(G20/6,1)-1)</f>
@@ -2647,35 +2529,41 @@
       </c>
       <c r="Q20" s="23">
         <f>ROUND(C20/G20,3)</f>
-        <v>0.214</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="R20" s="33" t="s">
         <v>31</v>
       </c>
       <c r="S20" s="23"/>
       <c r="T20" s="23">
-        <f t="shared" si="4"/>
-        <v>1.8</v>
-      </c>
-      <c r="U20" s="40">
+        <f xml:space="preserve"> D20*E20*9/10</f>
+        <v>0.9</v>
+      </c>
+      <c r="U20" s="39">
         <f>ROUND(playerHealth/(T20),2)</f>
-        <v>4.4400000000000004</v>
+        <v>8.89</v>
       </c>
       <c r="V20" s="23">
-        <f t="shared" si="3"/>
-        <v>1.2</v>
-      </c>
-      <c r="W20" s="40">
+        <f>D20*(E20-0.4)</f>
+        <v>0.6</v>
+      </c>
+      <c r="W20" s="39">
         <f>ROUND(playerHealth/(V20),2)</f>
-        <v>6.67</v>
+        <v>13.33</v>
       </c>
       <c r="X20" s="23"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="AF20" s="84" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG20" s="84"/>
+      <c r="AH20" s="84"/>
+      <c r="AI20" s="84"/>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A21" s="22"/>
-      <c r="B21" s="66"/>
+      <c r="B21" s="64"/>
       <c r="C21" s="23"/>
-      <c r="D21" s="28"/>
+      <c r="D21" s="23"/>
       <c r="E21" s="23"/>
       <c r="F21" s="23"/>
       <c r="G21" s="23"/>
@@ -2689,281 +2577,264 @@
       <c r="O21" s="25"/>
       <c r="P21" s="23"/>
       <c r="Q21" s="23"/>
-      <c r="R21" s="38"/>
+      <c r="R21" s="37"/>
       <c r="S21" s="23"/>
       <c r="T21" s="23"/>
-      <c r="U21" s="34"/>
+      <c r="U21" s="25"/>
       <c r="V21" s="23"/>
-      <c r="W21" s="34"/>
+      <c r="W21" s="25"/>
       <c r="X21" s="23"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A22" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="66">
-        <v>700</v>
-      </c>
-      <c r="C22" s="23">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="B22" s="72"/>
+      <c r="T22" s="72"/>
+      <c r="U22" s="72"/>
+      <c r="V22" s="72"/>
+      <c r="W22" s="72"/>
+      <c r="X22" s="72"/>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A23" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="80">
+        <v>320</v>
+      </c>
+      <c r="C23" s="23">
+        <v>5</v>
+      </c>
+      <c r="D23" s="24">
+        <v>5</v>
+      </c>
+      <c r="E23" s="23">
+        <v>1</v>
+      </c>
+      <c r="F23" s="23">
+        <v>180</v>
+      </c>
+      <c r="G23" s="23">
+        <v>10</v>
+      </c>
+      <c r="H23" s="23">
         <v>2</v>
       </c>
-      <c r="D22" s="24">
-        <v>1</v>
-      </c>
-      <c r="E22" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="F22" s="23">
-        <v>90</v>
-      </c>
-      <c r="G22" s="23">
-        <v>15</v>
-      </c>
-      <c r="H22" s="23">
-        <v>25</v>
-      </c>
-      <c r="I22" s="23">
-        <v>2800</v>
-      </c>
-      <c r="J22" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23">
-        <f>ROUND(D22*E22/F22*1000,2)</f>
-        <v>5.56</v>
-      </c>
-      <c r="M22" s="23">
-        <f>ROUND(D22*E22/(F22+I22)*1000,2)</f>
-        <v>0.17</v>
-      </c>
-      <c r="N22" s="23">
-        <f>D22*E22*H22</f>
-        <v>12.5</v>
-      </c>
-      <c r="O22" s="39">
-        <f>ROUND(playerHealth/(D22*E22),1)</f>
-        <v>16</v>
-      </c>
-      <c r="P22" s="23">
-        <f>-(FLOOR(G22/6,1)-1)</f>
-        <v>-1</v>
-      </c>
-      <c r="Q22" s="23">
-        <f>ROUND(C22/G22,3)</f>
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="R22" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="S22" s="23"/>
-      <c r="T22" s="23">
-        <f t="shared" si="4"/>
-        <v>0.45</v>
-      </c>
-      <c r="U22" s="40">
-        <f>ROUND(playerHealth/(T22),2)</f>
-        <v>17.78</v>
-      </c>
-      <c r="V22" s="23">
-        <f>D22*(E22-0.2)</f>
-        <v>0.3</v>
-      </c>
-      <c r="W22" s="40">
-        <f>ROUND(playerHealth/(V22),2)</f>
-        <v>26.67</v>
-      </c>
-      <c r="X22" s="23"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A23" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="66">
-        <v>600</v>
-      </c>
-      <c r="C23" s="23">
-        <v>1</v>
-      </c>
-      <c r="D23" s="28">
-        <v>1</v>
-      </c>
-      <c r="E23" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="F23" s="23">
-        <v>40</v>
-      </c>
-      <c r="G23" s="23">
-        <v>17</v>
-      </c>
-      <c r="H23" s="23">
-        <v>19</v>
-      </c>
       <c r="I23" s="23">
-        <v>2600</v>
-      </c>
-      <c r="J23" s="23" t="s">
-        <v>49</v>
+        <v>1200</v>
+      </c>
+      <c r="J23" s="23">
+        <v>12</v>
       </c>
       <c r="K23" s="23"/>
       <c r="L23" s="23">
         <f>ROUND(D23*E23/F23*1000,2)</f>
-        <v>12.5</v>
+        <v>27.78</v>
       </c>
       <c r="M23" s="23">
         <f>ROUND(D23*E23/(F23+I23)*1000,2)</f>
-        <v>0.19</v>
+        <v>3.62</v>
       </c>
       <c r="N23" s="23">
         <f>D23*E23*H23</f>
-        <v>9.5</v>
-      </c>
-      <c r="O23" s="39">
+        <v>10</v>
+      </c>
+      <c r="O23" s="36">
         <f>ROUND(playerHealth/(D23*E23),1)</f>
-        <v>16</v>
+        <v>1.6</v>
       </c>
       <c r="P23" s="23">
         <f>-(FLOOR(G23/6,1)-1)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="23">
         <f>ROUND(C23/G23,3)</f>
-        <v>5.8999999999999997E-2</v>
+        <v>0.5</v>
       </c>
       <c r="R23" s="33" t="s">
         <v>31</v>
       </c>
       <c r="S23" s="23"/>
       <c r="T23" s="23">
-        <f t="shared" si="4"/>
-        <v>0.45</v>
-      </c>
-      <c r="U23" s="40">
+        <f xml:space="preserve"> D23*E23*9/10</f>
+        <v>4.5</v>
+      </c>
+      <c r="U23" s="31">
         <f>ROUND(playerHealth/(T23),2)</f>
-        <v>17.78</v>
+        <v>1.78</v>
       </c>
       <c r="V23" s="23">
-        <f>D23*(E23-0.2)</f>
-        <v>0.3</v>
-      </c>
-      <c r="W23" s="40">
+        <f>D23*(E23-0.4)</f>
+        <v>3</v>
+      </c>
+      <c r="W23" s="34">
         <f>ROUND(playerHealth/(V23),2)</f>
-        <v>26.67</v>
+        <v>2.67</v>
       </c>
       <c r="X23" s="23"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="Y23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A24" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="66">
-        <v>650</v>
+        <v>46</v>
+      </c>
+      <c r="B24" s="81">
+        <v>448</v>
       </c>
       <c r="C24" s="23">
+        <v>3</v>
+      </c>
+      <c r="D24" s="28">
+        <v>3</v>
+      </c>
+      <c r="E24" s="23">
         <v>1</v>
       </c>
-      <c r="D24" s="24">
-        <v>1</v>
-      </c>
-      <c r="E24" s="23">
-        <v>0.5</v>
-      </c>
       <c r="F24" s="23">
-        <v>70</v>
+        <v>400</v>
       </c>
       <c r="G24" s="23">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H24" s="23">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="I24" s="23">
-        <v>2100</v>
-      </c>
-      <c r="J24" s="23" t="s">
-        <v>49</v>
+        <v>6000</v>
+      </c>
+      <c r="J24" s="23">
+        <v>12</v>
       </c>
       <c r="K24" s="23"/>
       <c r="L24" s="23">
         <f>ROUND(D24*E24/F24*1000,2)</f>
-        <v>7.14</v>
+        <v>7.5</v>
       </c>
       <c r="M24" s="23">
         <f>ROUND(D24*E24/(F24+I24)*1000,2)</f>
-        <v>0.23</v>
+        <v>0.47</v>
       </c>
       <c r="N24" s="23">
         <f>D24*E24*H24</f>
-        <v>15</v>
-      </c>
-      <c r="O24" s="39">
+        <v>42</v>
+      </c>
+      <c r="O24" s="25">
         <f>ROUND(playerHealth/(D24*E24),1)</f>
-        <v>16</v>
+        <v>2.7</v>
       </c>
       <c r="P24" s="23">
         <f>-(FLOOR(G24/6,1)-1)</f>
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="Q24" s="23">
         <f>ROUND(C24/G24,3)</f>
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="R24" s="33" t="s">
-        <v>31</v>
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="R24" s="26" t="s">
+        <v>30</v>
       </c>
       <c r="S24" s="23"/>
       <c r="T24" s="23">
         <f xml:space="preserve"> D24*E24*9/10</f>
-        <v>0.45</v>
-      </c>
-      <c r="U24" s="40">
+        <v>2.7</v>
+      </c>
+      <c r="U24" s="34">
         <f>ROUND(playerHealth/(T24),2)</f>
-        <v>17.78</v>
+        <v>2.96</v>
       </c>
       <c r="V24" s="23">
-        <f>D24*(E24-0.2)</f>
-        <v>0.3</v>
-      </c>
-      <c r="W24" s="40">
+        <f>D24*(E24-0.4)</f>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="W24" s="39">
         <f>ROUND(playerHealth/(V24),2)</f>
-        <v>26.67</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="X24" s="23"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A25" s="22"/>
-      <c r="B25" s="66"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A25" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="81">
+        <v>448</v>
+      </c>
+      <c r="C25" s="23">
+        <v>3</v>
+      </c>
+      <c r="D25" s="24">
+        <v>2</v>
+      </c>
+      <c r="E25" s="23">
+        <v>1</v>
+      </c>
+      <c r="F25" s="23">
+        <v>180</v>
+      </c>
+      <c r="G25" s="23">
+        <v>14</v>
+      </c>
+      <c r="H25" s="23">
+        <v>5</v>
+      </c>
+      <c r="I25" s="23">
+        <v>2300</v>
+      </c>
+      <c r="J25" s="23">
+        <v>12</v>
+      </c>
       <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="38"/>
+      <c r="L25" s="23">
+        <f>ROUND(D25*E25/F25*1000,2)</f>
+        <v>11.11</v>
+      </c>
+      <c r="M25" s="23">
+        <f>ROUND(D25*E25/(F25+I25)*1000,2)</f>
+        <v>0.81</v>
+      </c>
+      <c r="N25" s="23">
+        <f>D25*E25*H25</f>
+        <v>10</v>
+      </c>
+      <c r="O25" s="38">
+        <f>ROUND(playerHealth/(D25*E25),1)</f>
+        <v>4</v>
+      </c>
+      <c r="P25" s="23">
+        <f>-(FLOOR(G25/6,1)-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="Q25" s="23">
+        <f>ROUND(C25/G25,3)</f>
+        <v>0.214</v>
+      </c>
+      <c r="R25" s="33" t="s">
+        <v>31</v>
+      </c>
       <c r="S25" s="23"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="40"/>
-      <c r="V25" s="23"/>
-      <c r="W25" s="40"/>
+      <c r="T25" s="23">
+        <f xml:space="preserve"> D25*E25*9/10</f>
+        <v>1.8</v>
+      </c>
+      <c r="U25" s="39">
+        <f>ROUND(playerHealth/(T25),2)</f>
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="V25" s="23">
+        <f>D25*(E25-0.4)</f>
+        <v>1.2</v>
+      </c>
+      <c r="W25" s="39">
+        <f>ROUND(playerHealth/(V25),2)</f>
+        <v>6.67</v>
+      </c>
       <c r="X25" s="23"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A26" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="66"/>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A26" s="22"/>
+      <c r="B26" s="64"/>
       <c r="C26" s="23"/>
-      <c r="D26" s="24"/>
+      <c r="D26" s="23"/>
       <c r="E26" s="23"/>
       <c r="F26" s="23"/>
       <c r="G26" s="23"/>
@@ -2974,479 +2845,857 @@
       <c r="L26" s="23"/>
       <c r="M26" s="23"/>
       <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
+      <c r="O26" s="25"/>
       <c r="P26" s="23"/>
       <c r="Q26" s="23"/>
-      <c r="R26" s="38"/>
+      <c r="R26" s="37"/>
       <c r="S26" s="23"/>
       <c r="T26" s="23"/>
-      <c r="U26" s="40"/>
+      <c r="U26" s="25"/>
       <c r="V26" s="23"/>
-      <c r="W26" s="40"/>
+      <c r="W26" s="25"/>
       <c r="X26" s="23"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A27" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="66">
-        <v>24</v>
-      </c>
-      <c r="C27" s="23">
-        <v>0</v>
-      </c>
-      <c r="D27" s="28">
-        <v>1</v>
-      </c>
-      <c r="E27" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="F27" s="23">
-        <v>300</v>
-      </c>
-      <c r="G27" s="23">
-        <v>6</v>
-      </c>
-      <c r="H27" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="I27" s="23">
-        <v>0</v>
-      </c>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23">
-        <f>ROUND(D27*E27/F27*1000,2)</f>
-        <v>0.67</v>
-      </c>
-      <c r="M27" s="23">
-        <f>ROUND(D27*E27/(F27+I27)*1000,2)</f>
-        <v>0.67</v>
-      </c>
-      <c r="N27" s="23"/>
-      <c r="O27" s="25">
-        <f>ROUND(8/(D27*E27),1)</f>
-        <v>40</v>
-      </c>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="38"/>
-      <c r="S27" s="23"/>
-      <c r="T27" s="23">
-        <f t="shared" ref="T27:T29" si="5" xml:space="preserve"> D27*E27*9/10</f>
-        <v>0.18</v>
-      </c>
-      <c r="U27" s="40">
-        <f>ROUND(playerHealth/(T27),2)</f>
-        <v>44.44</v>
-      </c>
-      <c r="V27" s="23">
-        <f t="shared" ref="V27:V28" si="6">D27*(E27-0.2)</f>
-        <v>0</v>
-      </c>
-      <c r="W27" s="40"/>
-      <c r="X27" s="23"/>
-      <c r="Y27" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="B27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="T27" s="72"/>
+      <c r="U27" s="72"/>
+      <c r="V27" s="72"/>
+      <c r="W27" s="72"/>
+      <c r="X27" s="72"/>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A28" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="66">
-        <v>32</v>
+        <v>48</v>
+      </c>
+      <c r="B28" s="64">
+        <v>700</v>
       </c>
       <c r="C28" s="23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D28" s="24">
         <v>1</v>
       </c>
       <c r="E28" s="23">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="F28" s="23">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="G28" s="23">
-        <v>8</v>
-      </c>
-      <c r="H28" s="23" t="s">
-        <v>54</v>
+        <v>15</v>
+      </c>
+      <c r="H28" s="23">
+        <v>25</v>
       </c>
       <c r="I28" s="23">
-        <v>0</v>
-      </c>
-      <c r="J28" s="23"/>
+        <v>2800</v>
+      </c>
+      <c r="J28" s="23" t="s">
+        <v>49</v>
+      </c>
       <c r="K28" s="23"/>
       <c r="L28" s="23">
         <f>ROUND(D28*E28/F28*1000,2)</f>
-        <v>2</v>
+        <v>5.56</v>
       </c>
       <c r="M28" s="23">
         <f>ROUND(D28*E28/(F28+I28)*1000,2)</f>
-        <v>2</v>
-      </c>
-      <c r="N28" s="23"/>
-      <c r="O28" s="25">
-        <f>ROUND(8/(D28*E28),1)</f>
-        <v>20</v>
-      </c>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="38"/>
+        <v>0.17</v>
+      </c>
+      <c r="N28" s="23">
+        <f>D28*E28*H28</f>
+        <v>12.5</v>
+      </c>
+      <c r="O28" s="38">
+        <f>ROUND(playerHealth/(D28*E28),1)</f>
+        <v>16</v>
+      </c>
+      <c r="P28" s="23">
+        <f>-(FLOOR(G28/6,1)-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="Q28" s="23">
+        <f>ROUND(C28/G28,3)</f>
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="R28" s="33" t="s">
+        <v>31</v>
+      </c>
       <c r="S28" s="23"/>
       <c r="T28" s="23">
+        <f xml:space="preserve"> D28*E28*9/10</f>
+        <v>0.45</v>
+      </c>
+      <c r="U28" s="39">
+        <f>ROUND(playerHealth/(T28),2)</f>
+        <v>17.78</v>
+      </c>
+      <c r="V28" s="23">
+        <f>D28*(E28-0.2)</f>
+        <v>0.3</v>
+      </c>
+      <c r="W28" s="39">
+        <f>ROUND(playerHealth/(V28),2)</f>
+        <v>26.67</v>
+      </c>
+      <c r="X28" s="23"/>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A29" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="64">
+        <v>600</v>
+      </c>
+      <c r="C29" s="23">
+        <v>1</v>
+      </c>
+      <c r="D29" s="28">
+        <v>1</v>
+      </c>
+      <c r="E29" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="F29" s="23">
+        <v>40</v>
+      </c>
+      <c r="G29" s="23">
+        <v>17</v>
+      </c>
+      <c r="H29" s="23">
+        <v>19</v>
+      </c>
+      <c r="I29" s="23">
+        <v>2600</v>
+      </c>
+      <c r="J29" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23">
+        <f>ROUND(D29*E29/F29*1000,2)</f>
+        <v>12.5</v>
+      </c>
+      <c r="M29" s="23">
+        <f>ROUND(D29*E29/(F29+I29)*1000,2)</f>
+        <v>0.19</v>
+      </c>
+      <c r="N29" s="23">
+        <f>D29*E29*H29</f>
+        <v>9.5</v>
+      </c>
+      <c r="O29" s="38">
+        <f>ROUND(playerHealth/(D29*E29),1)</f>
+        <v>16</v>
+      </c>
+      <c r="P29" s="23">
+        <f>-(FLOOR(G29/6,1)-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="Q29" s="23">
+        <f>ROUND(C29/G29,3)</f>
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="R29" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="S29" s="23"/>
+      <c r="T29" s="23">
+        <f xml:space="preserve"> D29*E29*9/10</f>
+        <v>0.45</v>
+      </c>
+      <c r="U29" s="39">
+        <f>ROUND(playerHealth/(T29),2)</f>
+        <v>17.78</v>
+      </c>
+      <c r="V29" s="23">
+        <f>D29*(E29-0.2)</f>
+        <v>0.3</v>
+      </c>
+      <c r="W29" s="39">
+        <f>ROUND(playerHealth/(V29),2)</f>
+        <v>26.67</v>
+      </c>
+      <c r="X29" s="23"/>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A30" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="64">
+        <v>650</v>
+      </c>
+      <c r="C30" s="23">
+        <v>1</v>
+      </c>
+      <c r="D30" s="24">
+        <v>1</v>
+      </c>
+      <c r="E30" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="F30" s="23">
+        <v>70</v>
+      </c>
+      <c r="G30" s="23">
+        <v>19</v>
+      </c>
+      <c r="H30" s="23">
+        <v>30</v>
+      </c>
+      <c r="I30" s="23">
+        <v>2100</v>
+      </c>
+      <c r="J30" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23">
+        <f>ROUND(D30*E30/F30*1000,2)</f>
+        <v>7.14</v>
+      </c>
+      <c r="M30" s="23">
+        <f>ROUND(D30*E30/(F30+I30)*1000,2)</f>
+        <v>0.23</v>
+      </c>
+      <c r="N30" s="23">
+        <f>D30*E30*H30</f>
+        <v>15</v>
+      </c>
+      <c r="O30" s="38">
+        <f>ROUND(playerHealth/(D30*E30),1)</f>
+        <v>16</v>
+      </c>
+      <c r="P30" s="23">
+        <f>-(FLOOR(G30/6,1)-1)</f>
+        <v>-2</v>
+      </c>
+      <c r="Q30" s="23">
+        <f>ROUND(C30/G30,3)</f>
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="R30" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="S30" s="23"/>
+      <c r="T30" s="23">
+        <f xml:space="preserve"> D30*E30*9/10</f>
+        <v>0.45</v>
+      </c>
+      <c r="U30" s="39">
+        <f>ROUND(playerHealth/(T30),2)</f>
+        <v>17.78</v>
+      </c>
+      <c r="V30" s="23">
+        <f>D30*(E30-0.2)</f>
+        <v>0.3</v>
+      </c>
+      <c r="W30" s="39">
+        <f>ROUND(playerHealth/(V30),2)</f>
+        <v>26.67</v>
+      </c>
+      <c r="X30" s="23"/>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A31" s="22"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="37"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="23"/>
+      <c r="U31" s="39"/>
+      <c r="V31" s="23"/>
+      <c r="W31" s="39"/>
+      <c r="X31" s="23"/>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A32" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="64"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="37"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="39"/>
+      <c r="V32" s="23"/>
+      <c r="W32" s="39"/>
+      <c r="X32" s="23"/>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A33" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="64">
+        <v>24</v>
+      </c>
+      <c r="C33" s="23">
+        <v>0</v>
+      </c>
+      <c r="D33" s="28">
+        <v>1</v>
+      </c>
+      <c r="E33" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="F33" s="23">
+        <v>300</v>
+      </c>
+      <c r="G33" s="23">
+        <v>6</v>
+      </c>
+      <c r="H33" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="I33" s="23">
+        <v>0</v>
+      </c>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23">
+        <f>ROUND(D33*E33/F33*1000,2)</f>
+        <v>0.67</v>
+      </c>
+      <c r="M33" s="23">
+        <f>ROUND(D33*E33/(F33+I33)*1000,2)</f>
+        <v>0.67</v>
+      </c>
+      <c r="N33" s="23"/>
+      <c r="O33" s="25">
+        <f>ROUND(8/(D33*E33),1)</f>
+        <v>40</v>
+      </c>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="23"/>
+      <c r="R33" s="37"/>
+      <c r="S33" s="23"/>
+      <c r="T33" s="23">
+        <f t="shared" ref="T33:T35" si="5" xml:space="preserve"> D33*E33*9/10</f>
+        <v>0.18</v>
+      </c>
+      <c r="U33" s="39">
+        <f>ROUND(playerHealth/(T33),2)</f>
+        <v>44.44</v>
+      </c>
+      <c r="V33" s="23">
+        <f t="shared" ref="V33:V34" si="6">D33*(E33-0.2)</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="39"/>
+      <c r="X33" s="23"/>
+      <c r="Y33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A34" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="64">
+        <v>32</v>
+      </c>
+      <c r="C34" s="23">
+        <v>0</v>
+      </c>
+      <c r="D34" s="24">
+        <v>1</v>
+      </c>
+      <c r="E34" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="F34" s="23">
+        <v>200</v>
+      </c>
+      <c r="G34" s="23">
+        <v>8</v>
+      </c>
+      <c r="H34" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="I34" s="23">
+        <v>0</v>
+      </c>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23">
+        <f>ROUND(D34*E34/F34*1000,2)</f>
+        <v>2</v>
+      </c>
+      <c r="M34" s="23">
+        <f>ROUND(D34*E34/(F34+I34)*1000,2)</f>
+        <v>2</v>
+      </c>
+      <c r="N34" s="23"/>
+      <c r="O34" s="25">
+        <f>ROUND(8/(D34*E34),1)</f>
+        <v>20</v>
+      </c>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="37"/>
+      <c r="S34" s="23"/>
+      <c r="T34" s="23">
         <f t="shared" si="5"/>
         <v>0.36</v>
       </c>
-      <c r="U28" s="40">
-        <f>ROUND(playerHealth/(T28),2)</f>
+      <c r="U34" s="39">
+        <f>ROUND(playerHealth/(T34),2)</f>
         <v>22.22</v>
       </c>
-      <c r="V28" s="23">
+      <c r="V34" s="23">
         <f t="shared" si="6"/>
         <v>0.2</v>
       </c>
-      <c r="W28" s="40">
-        <f>ROUND(playerHealth/(V28),2)</f>
+      <c r="W34" s="39">
+        <f>ROUND(playerHealth/(V34),2)</f>
         <v>40</v>
       </c>
-      <c r="X28" s="23"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A29" s="22" t="s">
+      <c r="X34" s="23"/>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A35" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="66">
+      <c r="B35" s="64">
         <v>48</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C35" s="23">
         <v>0</v>
       </c>
-      <c r="D29" s="23">
+      <c r="D35" s="23">
         <v>1</v>
       </c>
-      <c r="E29" s="23">
+      <c r="E35" s="23">
         <v>1</v>
       </c>
-      <c r="F29" s="23">
+      <c r="F35" s="23">
         <v>500</v>
       </c>
-      <c r="G29" s="23">
+      <c r="G35" s="23">
         <v>6</v>
       </c>
-      <c r="H29" s="23" t="s">
+      <c r="H35" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="I29" s="23">
+      <c r="I35" s="23">
         <v>0</v>
       </c>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23">
-        <f t="shared" ref="L29" si="7">ROUND(D29*E29/F29*1000,3)</f>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23">
+        <f t="shared" ref="L35" si="7">ROUND(D35*E35/F35*1000,3)</f>
         <v>2</v>
       </c>
-      <c r="M29" s="23">
-        <f>ROUND(D29*E29/(F29+I29)*1000,2)</f>
+      <c r="M35" s="23">
+        <f>ROUND(D35*E35/(F35+I35)*1000,2)</f>
         <v>2</v>
       </c>
-      <c r="N29" s="23"/>
-      <c r="O29" s="25">
-        <f>ROUND(8/(D29*E29),1)</f>
+      <c r="N35" s="23"/>
+      <c r="O35" s="25">
+        <f>ROUND(8/(D35*E35),1)</f>
         <v>8</v>
       </c>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="23"/>
-      <c r="R29" s="38"/>
-      <c r="S29" s="23"/>
-      <c r="T29" s="23">
+      <c r="P35" s="23"/>
+      <c r="Q35" s="23"/>
+      <c r="R35" s="37"/>
+      <c r="S35" s="23"/>
+      <c r="T35" s="23">
         <f t="shared" si="5"/>
         <v>0.9</v>
       </c>
-      <c r="U29" s="39">
-        <f>ROUND(playerHealth/(T29),2)</f>
+      <c r="U35" s="38">
+        <f>ROUND(playerHealth/(T35),2)</f>
         <v>8.89</v>
       </c>
-      <c r="V29" s="23">
-        <f>D29*(E29-0.4)</f>
+      <c r="V35" s="23">
+        <f>D35*(E35-0.4)</f>
         <v>0.6</v>
       </c>
-      <c r="W29" s="39">
-        <f>ROUND(playerHealth/(V29),2)</f>
+      <c r="W35" s="38">
+        <f>ROUND(playerHealth/(V35),2)</f>
         <v>13.33</v>
       </c>
-      <c r="X29" s="23"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A30" s="42"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A31" s="44" t="s">
+      <c r="X35" s="23"/>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A36" s="72"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="72"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="72"/>
+      <c r="J36" s="72"/>
+      <c r="K36" s="72"/>
+      <c r="L36" s="72"/>
+      <c r="M36" s="72"/>
+      <c r="N36" s="72"/>
+      <c r="O36" s="72"/>
+      <c r="P36" s="72"/>
+      <c r="Q36" s="72"/>
+      <c r="R36" s="72"/>
+      <c r="S36" s="72"/>
+      <c r="T36" s="72"/>
+      <c r="U36" s="72"/>
+      <c r="V36" s="72"/>
+      <c r="W36" s="72"/>
+      <c r="X36" s="72"/>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A37" s="72"/>
+      <c r="B37" s="72"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="72"/>
+      <c r="H37" s="72"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="72"/>
+      <c r="K37" s="72"/>
+      <c r="L37" s="72"/>
+      <c r="M37" s="72"/>
+      <c r="N37" s="72"/>
+      <c r="O37" s="72"/>
+      <c r="P37" s="72"/>
+      <c r="Q37" s="72"/>
+      <c r="R37" s="72"/>
+      <c r="S37" s="72"/>
+      <c r="T37" s="72"/>
+      <c r="U37" s="72"/>
+      <c r="V37" s="72"/>
+      <c r="W37" s="72"/>
+      <c r="X37" s="72"/>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A38" s="72"/>
+      <c r="B38" s="72"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="72"/>
+      <c r="H38" s="72"/>
+      <c r="I38" s="72"/>
+      <c r="J38" s="72"/>
+      <c r="K38" s="72"/>
+      <c r="L38" s="72"/>
+      <c r="M38" s="72"/>
+      <c r="N38" s="72"/>
+      <c r="O38" s="72"/>
+      <c r="P38" s="72"/>
+      <c r="Q38" s="72"/>
+      <c r="R38" s="72"/>
+      <c r="S38" s="72"/>
+      <c r="T38" s="72"/>
+      <c r="U38" s="72"/>
+      <c r="V38" s="72"/>
+      <c r="W38" s="72"/>
+      <c r="X38" s="72"/>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A39" s="41"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A40" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B40" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9" t="s">
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A32" s="45" t="s">
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A41" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="46" t="s">
+      <c r="B41" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="43"/>
-      <c r="D32" s="46" t="s">
+      <c r="C41" s="42"/>
+      <c r="D41" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47" t="s">
+      <c r="E41" s="46"/>
+      <c r="F41" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="48"/>
-      <c r="M32" s="48"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A33" s="45" t="s">
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="47"/>
+      <c r="M41" s="47"/>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A42" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="46" t="s">
+      <c r="B42" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="43"/>
-      <c r="D33" s="46" t="s">
+      <c r="C42" s="42"/>
+      <c r="D42" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47" t="s">
+      <c r="E42" s="46"/>
+      <c r="F42" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="48"/>
-      <c r="K33" s="48"/>
-      <c r="L33" s="48"/>
-      <c r="M33" s="48"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A34" s="49"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
+      <c r="G42" s="46"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="47"/>
+      <c r="J42" s="47"/>
+      <c r="K42" s="47"/>
+      <c r="L42" s="47"/>
+      <c r="M42" s="47"/>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A43" s="83"/>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A44" s="72"/>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>81</v>
+      </c>
+      <c r="B47">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="F50" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="G50" s="51"/>
+      <c r="H50" s="51"/>
+      <c r="I50" s="51"/>
+      <c r="J50" s="51"/>
+      <c r="K50" s="51"/>
+      <c r="L50" s="51"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B51" s="70" t="s">
+        <v>84</v>
+      </c>
+      <c r="G51" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="B37">
+      <c r="H51" s="69"/>
+      <c r="I51" s="69"/>
+      <c r="J51" s="69"/>
+      <c r="K51" s="69"/>
+      <c r="L51" s="69"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A52" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52" s="49">
+        <v>-1</v>
+      </c>
+      <c r="C52" s="49">
+        <v>0</v>
+      </c>
+      <c r="D52" s="49">
+        <v>1</v>
+      </c>
+      <c r="E52" s="49">
+        <v>2</v>
+      </c>
+      <c r="F52" s="52">
+        <v>3</v>
+      </c>
+      <c r="G52" s="52">
+        <v>4</v>
+      </c>
+      <c r="H52" s="52">
+        <v>5</v>
+      </c>
+      <c r="I52" s="52">
+        <v>6</v>
+      </c>
+      <c r="J52" s="52">
+        <v>7</v>
+      </c>
+      <c r="K52" s="52">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
-        <v>71</v>
-      </c>
-      <c r="B38">
+      <c r="L52" s="52">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A53" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="B53" s="42">
+        <f t="shared" ref="B53:L53" si="8">(2+B52)*tilesize</f>
         <v>128</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="F40" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="G40" s="53"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="53"/>
-      <c r="K40" s="53"/>
-      <c r="L40" s="53"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B41" s="74" t="s">
-        <v>85</v>
-      </c>
-      <c r="G41" s="73" t="s">
-        <v>83</v>
-      </c>
-      <c r="H41" s="73"/>
-      <c r="I41" s="73"/>
-      <c r="J41" s="73"/>
-      <c r="K41" s="73"/>
-      <c r="L41" s="73"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A42" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="B42" s="51">
-        <v>-1</v>
-      </c>
-      <c r="C42" s="51">
-        <v>0</v>
-      </c>
-      <c r="D42" s="51">
-        <v>1</v>
-      </c>
-      <c r="E42" s="51">
-        <v>2</v>
-      </c>
-      <c r="F42" s="54">
-        <v>3</v>
-      </c>
-      <c r="G42" s="54">
-        <v>4</v>
-      </c>
-      <c r="H42" s="54">
-        <v>5</v>
-      </c>
-      <c r="I42" s="54">
-        <v>6</v>
-      </c>
-      <c r="J42" s="54">
-        <v>7</v>
-      </c>
-      <c r="K42" s="54">
-        <v>8</v>
-      </c>
-      <c r="L42" s="54">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A43" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="B43" s="43">
-        <f t="shared" ref="B43:L43" si="8">(2+B42)*tilesize</f>
-        <v>128</v>
-      </c>
-      <c r="C43" s="43">
+      <c r="C53" s="42">
         <f t="shared" si="8"/>
         <v>256</v>
       </c>
-      <c r="D43" s="43">
+      <c r="D53" s="42">
         <f t="shared" si="8"/>
         <v>384</v>
       </c>
-      <c r="E43" s="43">
+      <c r="E53" s="42">
         <f t="shared" si="8"/>
         <v>512</v>
       </c>
-      <c r="F43" s="43">
+      <c r="F53" s="42">
         <f t="shared" si="8"/>
         <v>640</v>
       </c>
-      <c r="G43" s="43">
+      <c r="G53" s="42">
         <f t="shared" si="8"/>
         <v>768</v>
       </c>
-      <c r="H43" s="43">
+      <c r="H53" s="42">
         <f t="shared" si="8"/>
         <v>896</v>
       </c>
-      <c r="I43" s="43">
+      <c r="I53" s="42">
         <f t="shared" si="8"/>
         <v>1024</v>
       </c>
-      <c r="J43" s="43">
+      <c r="J53" s="42">
         <f t="shared" si="8"/>
         <v>1152</v>
       </c>
-      <c r="K43" s="43">
+      <c r="K53" s="42">
         <f t="shared" si="8"/>
         <v>1280</v>
       </c>
-      <c r="L43" s="43">
+      <c r="L53" s="42">
         <f t="shared" si="8"/>
         <v>1408</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A44" s="52" t="s">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A54" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="B44" s="55">
-        <f t="shared" ref="B44:L44" si="9">(2+B42+1)*tilesize+tilesize/2</f>
+      <c r="B54" s="53">
+        <f t="shared" ref="B54:L54" si="9">(2+B52+1)*tilesize+tilesize/2</f>
         <v>320</v>
       </c>
-      <c r="C44" s="56">
+      <c r="C54" s="54">
         <f t="shared" si="9"/>
         <v>448</v>
       </c>
-      <c r="D44" s="57">
+      <c r="D54" s="55">
         <f t="shared" si="9"/>
         <v>576</v>
       </c>
-      <c r="E44" s="58">
+      <c r="E54" s="56">
         <f t="shared" si="9"/>
         <v>704</v>
       </c>
-      <c r="F44" s="59">
+      <c r="F54" s="57">
         <f t="shared" si="9"/>
         <v>832</v>
       </c>
-      <c r="G44" s="60">
+      <c r="G54" s="58">
         <f t="shared" si="9"/>
         <v>960</v>
       </c>
-      <c r="H44" s="61">
+      <c r="H54" s="59">
         <f t="shared" si="9"/>
         <v>1088</v>
       </c>
-      <c r="I44" s="62">
+      <c r="I54" s="60">
         <f t="shared" si="9"/>
         <v>1216</v>
       </c>
-      <c r="J44" s="63">
+      <c r="J54" s="61">
         <f t="shared" si="9"/>
         <v>1344</v>
       </c>
-      <c r="K44" s="64">
+      <c r="K54" s="62">
         <f t="shared" si="9"/>
         <v>1472</v>
       </c>
-      <c r="L44" s="65">
+      <c r="L54" s="63">
         <f t="shared" si="9"/>
         <v>1600</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="C45" s="71" t="s">
-        <v>84</v>
-      </c>
-      <c r="D45" s="72"/>
-      <c r="E45" s="70"/>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C55" s="67" t="s">
+        <v>83</v>
+      </c>
+      <c r="D55" s="68"/>
+      <c r="E55" s="66"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/gun infos.xlsx
+++ b/gun infos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kingc\web\blackout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977B0EF4-AA6A-491F-90DE-4138F6690E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A196E5-C42D-4748-A23A-DE37F5ED3E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,7 @@
   <definedNames>
     <definedName name="fragHitNum">Sheet1!$K$3</definedName>
     <definedName name="fraghitnum2">Sheet1!$K$5</definedName>
+    <definedName name="player_radius">Sheet1!$B$58</definedName>
     <definedName name="playerHealth">Sheet1!$B$47</definedName>
     <definedName name="tilesize">Sheet1!$B$48</definedName>
   </definedNames>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="113">
   <si>
     <t>Weapon info</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -428,12 +429,92 @@
     <t>DPS is based on direct hit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Vehicles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>car</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fennek</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Radius</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Health</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turret</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>turret</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grenadeLauncher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Performance Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">no reload </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Protection radius</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">player radius </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> (for refernce)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effective</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># of guns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Piercing #</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -665,8 +746,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="22">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -793,6 +882,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -835,7 +936,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1059,6 +1160,36 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1339,16 +1470,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI55"/>
+  <dimension ref="A1:AI65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U40" sqref="U40"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O55" sqref="O55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="20.9140625" customWidth="1"/>
-    <col min="11" max="11" width="9.08203125" customWidth="1"/>
+    <col min="11" max="11" width="10.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.45">
@@ -3530,7 +3661,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.45">
       <c r="F50" s="51" t="s">
         <v>73</v>
       </c>
@@ -3541,7 +3672,7 @@
       <c r="K50" s="51"/>
       <c r="L50" s="51"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B51" s="70" t="s">
         <v>84</v>
       </c>
@@ -3554,7 +3685,7 @@
       <c r="K51" s="69"/>
       <c r="L51" s="69"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A52" s="48" t="s">
         <v>72</v>
       </c>
@@ -3592,7 +3723,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A53" s="50" t="s">
         <v>74</v>
       </c>
@@ -3641,7 +3772,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A54" s="50" t="s">
         <v>75</v>
       </c>
@@ -3690,14 +3821,286 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.45">
       <c r="C55" s="67" t="s">
         <v>83</v>
       </c>
       <c r="D55" s="68"/>
       <c r="E55" s="66"/>
     </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>108</v>
+      </c>
+      <c r="B58">
+        <v>16</v>
+      </c>
+      <c r="C58" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="H59" t="s">
+        <v>106</v>
+      </c>
+      <c r="I59" s="91" t="s">
+        <v>110</v>
+      </c>
+      <c r="J59" s="91"/>
+      <c r="K59" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A60" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="B60" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="C60" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="D60" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="E60" s="85" t="s">
+        <v>101</v>
+      </c>
+      <c r="F60" s="85"/>
+      <c r="G60" s="49"/>
+      <c r="H60" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="I60" s="85" t="s">
+        <v>107</v>
+      </c>
+      <c r="J60" s="85"/>
+      <c r="K60" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="L60" s="49"/>
+      <c r="M60" s="49"/>
+      <c r="N60" s="49"/>
+      <c r="O60" s="85" t="s">
+        <v>105</v>
+      </c>
+      <c r="P60" s="85"/>
+      <c r="Q60" s="85"/>
+      <c r="R60" s="85"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A61" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B61" s="87">
+        <v>24</v>
+      </c>
+      <c r="C61" s="92">
+        <v>30</v>
+      </c>
+      <c r="D61" s="88">
+        <v>6</v>
+      </c>
+      <c r="E61" s="86" t="s">
+        <v>104</v>
+      </c>
+      <c r="F61" s="86"/>
+      <c r="G61" s="88"/>
+      <c r="H61" s="93">
+        <v>0</v>
+      </c>
+      <c r="I61" s="90">
+        <f>(B61-player_radius)*2</f>
+        <v>16</v>
+      </c>
+      <c r="J61" s="90"/>
+      <c r="K61" s="94">
+        <f>COUNTIF(G3:G35,"&gt;16")</f>
+        <v>10</v>
+      </c>
+      <c r="L61" s="88"/>
+      <c r="M61" s="88"/>
+      <c r="N61" s="88"/>
+      <c r="O61" s="90"/>
+      <c r="P61" s="90"/>
+      <c r="Q61" s="90"/>
+      <c r="R61" s="90"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A62" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B62" s="89">
+        <v>32</v>
+      </c>
+      <c r="C62" s="92">
+        <v>60</v>
+      </c>
+      <c r="D62" s="88">
+        <v>3</v>
+      </c>
+      <c r="E62" s="86" t="s">
+        <v>104</v>
+      </c>
+      <c r="F62" s="86"/>
+      <c r="G62" s="88"/>
+      <c r="H62" s="93">
+        <v>0</v>
+      </c>
+      <c r="I62" s="90">
+        <f>(B62-player_radius)*2</f>
+        <v>32</v>
+      </c>
+      <c r="J62" s="90"/>
+      <c r="K62" s="94">
+        <f>COUNTIF(G3:G35,"&gt;32")</f>
+        <v>2</v>
+      </c>
+      <c r="L62" s="88"/>
+      <c r="M62" s="88"/>
+      <c r="N62" s="88"/>
+      <c r="O62" s="90"/>
+      <c r="P62" s="90"/>
+      <c r="Q62" s="90"/>
+      <c r="R62" s="90"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A63" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B63" s="88">
+        <v>30</v>
+      </c>
+      <c r="C63" s="92">
+        <v>50</v>
+      </c>
+      <c r="D63" s="88">
+        <v>4</v>
+      </c>
+      <c r="E63" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" s="86"/>
+      <c r="G63" s="88"/>
+      <c r="H63" s="93">
+        <v>12.5</v>
+      </c>
+      <c r="I63" s="90">
+        <f>(B63-player_radius)*2</f>
+        <v>28</v>
+      </c>
+      <c r="J63" s="90"/>
+      <c r="K63" s="94">
+        <f>COUNTIF(G3:G35,"&gt;28")</f>
+        <v>4</v>
+      </c>
+      <c r="L63" s="88"/>
+      <c r="M63" s="88"/>
+      <c r="N63" s="88"/>
+      <c r="O63" s="90"/>
+      <c r="P63" s="90"/>
+      <c r="Q63" s="90"/>
+      <c r="R63" s="90"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A64" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="B64" s="88">
+        <v>52</v>
+      </c>
+      <c r="C64" s="92">
+        <v>112</v>
+      </c>
+      <c r="D64" s="88">
+        <v>1</v>
+      </c>
+      <c r="E64" s="86" t="s">
+        <v>103</v>
+      </c>
+      <c r="F64" s="86"/>
+      <c r="G64" s="88"/>
+      <c r="H64" s="93">
+        <v>5.63</v>
+      </c>
+      <c r="I64" s="90">
+        <f>(B64-player_radius)*2</f>
+        <v>72</v>
+      </c>
+      <c r="J64" s="90"/>
+      <c r="K64" s="94">
+        <f>COUNTIF(G3:G35,"&gt;72")</f>
+        <v>0</v>
+      </c>
+      <c r="L64" s="88"/>
+      <c r="M64" s="88"/>
+      <c r="N64" s="88"/>
+      <c r="O64" s="90"/>
+      <c r="P64" s="90"/>
+      <c r="Q64" s="90"/>
+      <c r="R64" s="90"/>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A65" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B65" s="88">
+        <v>22</v>
+      </c>
+      <c r="C65" s="92">
+        <v>120</v>
+      </c>
+      <c r="D65" s="88">
+        <v>0</v>
+      </c>
+      <c r="E65" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="F65" s="86"/>
+      <c r="G65" s="88"/>
+      <c r="H65" s="93">
+        <v>13.33</v>
+      </c>
+      <c r="I65" s="90">
+        <f>(B65-player_radius)*2</f>
+        <v>12</v>
+      </c>
+      <c r="J65" s="90"/>
+      <c r="K65" s="94">
+        <f>COUNTIF(G3:G35,"&gt;12")</f>
+        <v>15</v>
+      </c>
+      <c r="L65" s="88"/>
+      <c r="M65" s="88"/>
+      <c r="N65" s="88"/>
+      <c r="O65" s="90"/>
+      <c r="P65" s="90"/>
+      <c r="Q65" s="90"/>
+      <c r="R65" s="90"/>
+    </row>
   </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="O61:R61"/>
+    <mergeCell ref="O62:R62"/>
+    <mergeCell ref="O63:R63"/>
+    <mergeCell ref="O64:R64"/>
+    <mergeCell ref="O65:R65"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="O60:R60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="I60:J60"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/gun infos.xlsx
+++ b/gun infos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kingc\web\blackout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A196E5-C42D-4748-A23A-DE37F5ED3E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2123F7A5-3FD6-4237-9CBC-B16C5E4341A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="114">
   <si>
     <t>Weapon info</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -507,6 +507,10 @@
   </si>
   <si>
     <t>Piercing #</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Protected</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -755,7 +759,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -894,6 +898,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -1160,34 +1170,34 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1470,10 +1480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI65"/>
+  <dimension ref="A1:AI66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O55" sqref="O55"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3843,12 +3853,16 @@
       <c r="H59" t="s">
         <v>106</v>
       </c>
-      <c r="I59" s="91" t="s">
+      <c r="I59" s="94" t="s">
         <v>110</v>
       </c>
-      <c r="J59" s="91"/>
+      <c r="J59" s="94"/>
       <c r="K59" t="s">
         <v>111</v>
+      </c>
+      <c r="L59" s="89">
+        <f>COUNTIF(G3:G35,"&gt;0")</f>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.45">
@@ -3864,242 +3878,303 @@
       <c r="D60" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="E60" s="85" t="s">
+      <c r="E60" s="92" t="s">
         <v>101</v>
       </c>
-      <c r="F60" s="85"/>
+      <c r="F60" s="92"/>
       <c r="G60" s="49"/>
       <c r="H60" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="I60" s="85" t="s">
+      <c r="I60" s="92" t="s">
         <v>107</v>
       </c>
-      <c r="J60" s="85"/>
+      <c r="J60" s="92"/>
       <c r="K60" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="L60" s="49"/>
+      <c r="L60" s="49" t="s">
+        <v>113</v>
+      </c>
       <c r="M60" s="49"/>
       <c r="N60" s="49"/>
-      <c r="O60" s="85" t="s">
+      <c r="O60" s="92" t="s">
         <v>105</v>
       </c>
-      <c r="P60" s="85"/>
-      <c r="Q60" s="85"/>
-      <c r="R60" s="85"/>
+      <c r="P60" s="92"/>
+      <c r="Q60" s="92"/>
+      <c r="R60" s="92"/>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A61" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B61" s="87">
+      <c r="B61" s="85">
         <v>24</v>
       </c>
-      <c r="C61" s="92">
+      <c r="C61" s="87">
         <v>30</v>
       </c>
-      <c r="D61" s="88">
+      <c r="D61" s="86">
         <v>6</v>
       </c>
-      <c r="E61" s="86" t="s">
+      <c r="E61" s="91" t="s">
         <v>104</v>
       </c>
-      <c r="F61" s="86"/>
-      <c r="G61" s="88"/>
-      <c r="H61" s="93">
+      <c r="F61" s="91"/>
+      <c r="G61" s="86"/>
+      <c r="H61" s="88">
         <v>0</v>
       </c>
-      <c r="I61" s="90">
+      <c r="I61" s="93">
         <f>(B61-player_radius)*2</f>
         <v>16</v>
       </c>
-      <c r="J61" s="90"/>
-      <c r="K61" s="94">
+      <c r="J61" s="93"/>
+      <c r="K61" s="86">
         <f>COUNTIF(G3:G35,"&gt;16")</f>
         <v>10</v>
       </c>
-      <c r="L61" s="88"/>
-      <c r="M61" s="88"/>
-      <c r="N61" s="88"/>
-      <c r="O61" s="90"/>
-      <c r="P61" s="90"/>
-      <c r="Q61" s="90"/>
-      <c r="R61" s="90"/>
+      <c r="L61" s="90">
+        <f>21-K61</f>
+        <v>11</v>
+      </c>
+      <c r="M61" s="86"/>
+      <c r="N61" s="86"/>
+      <c r="O61" s="93"/>
+      <c r="P61" s="93"/>
+      <c r="Q61" s="93"/>
+      <c r="R61" s="93"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A62" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="B62" s="89">
+      <c r="B62" s="85">
         <v>32</v>
       </c>
-      <c r="C62" s="92">
+      <c r="C62" s="87">
         <v>60</v>
       </c>
-      <c r="D62" s="88">
+      <c r="D62" s="86">
         <v>3</v>
       </c>
-      <c r="E62" s="86" t="s">
+      <c r="E62" s="91" t="s">
         <v>104</v>
       </c>
-      <c r="F62" s="86"/>
-      <c r="G62" s="88"/>
-      <c r="H62" s="93">
+      <c r="F62" s="91"/>
+      <c r="G62" s="86"/>
+      <c r="H62" s="88">
         <v>0</v>
       </c>
-      <c r="I62" s="90">
+      <c r="I62" s="93">
         <f>(B62-player_radius)*2</f>
         <v>32</v>
       </c>
-      <c r="J62" s="90"/>
-      <c r="K62" s="94">
+      <c r="J62" s="93"/>
+      <c r="K62" s="86">
         <f>COUNTIF(G3:G35,"&gt;32")</f>
         <v>2</v>
       </c>
-      <c r="L62" s="88"/>
-      <c r="M62" s="88"/>
-      <c r="N62" s="88"/>
-      <c r="O62" s="90"/>
-      <c r="P62" s="90"/>
-      <c r="Q62" s="90"/>
-      <c r="R62" s="90"/>
+      <c r="L62" s="90">
+        <f t="shared" ref="L62:L65" si="10">21-K62</f>
+        <v>19</v>
+      </c>
+      <c r="M62" s="86"/>
+      <c r="N62" s="86"/>
+      <c r="O62" s="93"/>
+      <c r="P62" s="93"/>
+      <c r="Q62" s="93"/>
+      <c r="R62" s="93"/>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A63" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="B63" s="88">
+      <c r="B63" s="86">
         <v>30</v>
       </c>
-      <c r="C63" s="92">
+      <c r="C63" s="87">
         <v>50</v>
       </c>
-      <c r="D63" s="88">
+      <c r="D63" s="86">
         <v>4</v>
       </c>
-      <c r="E63" s="86" t="s">
+      <c r="E63" s="91" t="s">
         <v>43</v>
       </c>
-      <c r="F63" s="86"/>
-      <c r="G63" s="88"/>
-      <c r="H63" s="93">
+      <c r="F63" s="91"/>
+      <c r="G63" s="86"/>
+      <c r="H63" s="88">
         <v>12.5</v>
       </c>
-      <c r="I63" s="90">
+      <c r="I63" s="93">
         <f>(B63-player_radius)*2</f>
         <v>28</v>
       </c>
-      <c r="J63" s="90"/>
-      <c r="K63" s="94">
+      <c r="J63" s="93"/>
+      <c r="K63" s="86">
         <f>COUNTIF(G3:G35,"&gt;28")</f>
         <v>4</v>
       </c>
-      <c r="L63" s="88"/>
-      <c r="M63" s="88"/>
-      <c r="N63" s="88"/>
-      <c r="O63" s="90"/>
-      <c r="P63" s="90"/>
-      <c r="Q63" s="90"/>
-      <c r="R63" s="90"/>
+      <c r="L63" s="90">
+        <f t="shared" si="10"/>
+        <v>17</v>
+      </c>
+      <c r="M63" s="86"/>
+      <c r="N63" s="86"/>
+      <c r="O63" s="93"/>
+      <c r="P63" s="93"/>
+      <c r="Q63" s="93"/>
+      <c r="R63" s="93"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A64" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="B64" s="88">
+      <c r="B64" s="86">
         <v>52</v>
       </c>
-      <c r="C64" s="92">
+      <c r="C64" s="87">
         <v>112</v>
       </c>
-      <c r="D64" s="88">
+      <c r="D64" s="86">
         <v>1</v>
       </c>
-      <c r="E64" s="86" t="s">
+      <c r="E64" s="91" t="s">
         <v>103</v>
       </c>
-      <c r="F64" s="86"/>
-      <c r="G64" s="88"/>
-      <c r="H64" s="93">
+      <c r="F64" s="91"/>
+      <c r="G64" s="86"/>
+      <c r="H64" s="88">
         <v>5.63</v>
       </c>
-      <c r="I64" s="90">
+      <c r="I64" s="93">
         <f>(B64-player_radius)*2</f>
         <v>72</v>
       </c>
-      <c r="J64" s="90"/>
-      <c r="K64" s="94">
+      <c r="J64" s="93"/>
+      <c r="K64" s="86">
         <f>COUNTIF(G3:G35,"&gt;72")</f>
         <v>0</v>
       </c>
-      <c r="L64" s="88"/>
-      <c r="M64" s="88"/>
-      <c r="N64" s="88"/>
-      <c r="O64" s="90"/>
-      <c r="P64" s="90"/>
-      <c r="Q64" s="90"/>
-      <c r="R64" s="90"/>
+      <c r="L64" s="90">
+        <f t="shared" si="10"/>
+        <v>21</v>
+      </c>
+      <c r="M64" s="86"/>
+      <c r="N64" s="86"/>
+      <c r="O64" s="93"/>
+      <c r="P64" s="93"/>
+      <c r="Q64" s="93"/>
+      <c r="R64" s="93"/>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A65" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="B65" s="88">
+      <c r="B65" s="86">
         <v>22</v>
       </c>
-      <c r="C65" s="92">
+      <c r="C65" s="87">
         <v>120</v>
       </c>
-      <c r="D65" s="88">
+      <c r="D65" s="86">
         <v>0</v>
       </c>
-      <c r="E65" s="86" t="s">
+      <c r="E65" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="F65" s="86"/>
-      <c r="G65" s="88"/>
-      <c r="H65" s="93">
+      <c r="F65" s="91"/>
+      <c r="G65" s="86"/>
+      <c r="H65" s="88">
         <v>13.33</v>
       </c>
-      <c r="I65" s="90">
+      <c r="I65" s="93">
         <f>(B65-player_radius)*2</f>
         <v>12</v>
       </c>
-      <c r="J65" s="90"/>
-      <c r="K65" s="94">
+      <c r="J65" s="93"/>
+      <c r="K65" s="86">
         <f>COUNTIF(G3:G35,"&gt;12")</f>
         <v>15</v>
       </c>
-      <c r="L65" s="88"/>
-      <c r="M65" s="88"/>
-      <c r="N65" s="88"/>
-      <c r="O65" s="90"/>
-      <c r="P65" s="90"/>
-      <c r="Q65" s="90"/>
-      <c r="R65" s="90"/>
+      <c r="L65" s="90">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="M65" s="86"/>
+      <c r="N65" s="86"/>
+      <c r="O65" s="93"/>
+      <c r="P65" s="93"/>
+      <c r="Q65" s="93"/>
+      <c r="R65" s="93"/>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A66" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B66" s="86">
+        <v>26</v>
+      </c>
+      <c r="C66" s="87">
+        <v>50</v>
+      </c>
+      <c r="D66" s="86">
+        <v>10</v>
+      </c>
+      <c r="E66" s="91" t="s">
+        <v>42</v>
+      </c>
+      <c r="F66" s="91"/>
+      <c r="G66" s="86"/>
+      <c r="H66" s="88">
+        <v>9.09</v>
+      </c>
+      <c r="I66" s="93">
+        <f>(B66-player_radius)*2</f>
+        <v>20</v>
+      </c>
+      <c r="J66" s="93"/>
+      <c r="K66" s="86">
+        <f>COUNTIF(G3:G35,"&gt;20")</f>
+        <v>6</v>
+      </c>
+      <c r="L66" s="90">
+        <f>21-K66</f>
+        <v>15</v>
+      </c>
+      <c r="M66" s="86"/>
+      <c r="N66" s="86"/>
+      <c r="O66" s="93"/>
+      <c r="P66" s="93"/>
+      <c r="Q66" s="93"/>
+      <c r="R66" s="93"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="E65:F65"/>
+  <mergeCells count="22">
+    <mergeCell ref="O60:R60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="O66:R66"/>
     <mergeCell ref="O61:R61"/>
     <mergeCell ref="O62:R62"/>
     <mergeCell ref="O63:R63"/>
     <mergeCell ref="O64:R64"/>
     <mergeCell ref="O65:R65"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="E65:F65"/>
     <mergeCell ref="I61:J61"/>
     <mergeCell ref="I62:J62"/>
     <mergeCell ref="I63:J63"/>
     <mergeCell ref="I64:J64"/>
     <mergeCell ref="E60:F60"/>
-    <mergeCell ref="O60:R60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="I60:J60"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gun infos.xlsx
+++ b/gun infos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kingc\web\blackout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2123F7A5-3FD6-4237-9CBC-B16C5E4341A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984E94AE-6874-4F1C-AA32-133CFF79DC8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,10 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="DPS_cap">Sheet1!$Q$61</definedName>
     <definedName name="fragHitNum">Sheet1!$K$3</definedName>
     <definedName name="fraghitnum2">Sheet1!$K$5</definedName>
-    <definedName name="player_radius">Sheet1!$B$58</definedName>
+    <definedName name="guns_cap">Sheet1!$O$61</definedName>
+    <definedName name="health_cap">Sheet1!$N$61</definedName>
+    <definedName name="player_radius">Sheet1!$B$60</definedName>
     <definedName name="playerHealth">Sheet1!$B$47</definedName>
+    <definedName name="speed_cap">Sheet1!$P$61</definedName>
     <definedName name="tilesize">Sheet1!$B$48</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -43,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="126">
   <si>
     <t>Weapon info</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -478,10 +482,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Performance Index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">no reload </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -511,6 +511,58 @@
   </si>
   <si>
     <t>Protected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>raptor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOBILITY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PERFORMANCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POWER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESILIENCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>health cap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed cap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DPS cap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guns cap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOTAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max rating</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tankBuster</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -518,7 +570,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -758,6 +810,32 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="25">
     <fill>
@@ -946,7 +1024,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1182,23 +1260,45 @@
     <xf numFmtId="0" fontId="28" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1480,16 +1580,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI66"/>
+  <dimension ref="A1:AI70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q35" sqref="Q35"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S63" sqref="S63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="20.9140625" customWidth="1"/>
     <col min="11" max="11" width="10.08203125" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.45">
@@ -1778,7 +1879,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="28">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="F5" s="28">
         <v>4000</v>
@@ -1800,19 +1901,19 @@
       </c>
       <c r="L5" s="23">
         <f>ROUND(D5*(E5+fraghitnum2)/F5*1000,2)</f>
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="M5" s="23">
         <f>ROUND(D5*(E5+fraghitnum2)/(F5+I5)*1000,2)</f>
-        <v>11.2</v>
+        <v>19.2</v>
       </c>
       <c r="N5" s="23">
         <f>D5*(E5+fraghitnum2)*H5</f>
-        <v>112</v>
+        <v>192</v>
       </c>
       <c r="O5" s="29">
         <f>ROUND(playerHealth/(D5*(E5+fraghitnum2)),1)</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="P5" s="23">
         <f t="shared" si="0"/>
@@ -1828,19 +1929,19 @@
       <c r="S5" s="23"/>
       <c r="T5" s="23">
         <f xml:space="preserve"> D5*E5*7/10 +D5*fraghitnum2*9/10</f>
-        <v>80.8</v>
+        <v>136.80000000000001</v>
       </c>
       <c r="U5" s="32">
         <f>ROUND(playerHealth/(T5),2)</f>
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="V5" s="23">
         <f>D5*((E5+fraghitnum2)-0.4)</f>
-        <v>111.6</v>
+        <v>191.6</v>
       </c>
       <c r="W5" s="32">
         <f>ROUND(playerHealth/(V5),2)</f>
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="X5" s="23"/>
       <c r="Y5" t="s">
@@ -2633,7 +2734,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="23">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G20" s="23">
         <v>17</v>
@@ -2650,7 +2751,7 @@
       <c r="K20" s="23"/>
       <c r="L20" s="23">
         <f>ROUND(D20*E20/F20*1000,2)</f>
-        <v>12.5</v>
+        <v>11.11</v>
       </c>
       <c r="M20" s="23">
         <f>ROUND(D20*E20/(F20+I20)*1000,2)</f>
@@ -3023,10 +3124,10 @@
         <v>0.5</v>
       </c>
       <c r="F28" s="23">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G28" s="23">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H28" s="23">
         <v>25</v>
@@ -3040,7 +3141,7 @@
       <c r="K28" s="23"/>
       <c r="L28" s="23">
         <f>ROUND(D28*E28/F28*1000,2)</f>
-        <v>5.56</v>
+        <v>5.88</v>
       </c>
       <c r="M28" s="23">
         <f>ROUND(D28*E28/(F28+I28)*1000,2)</f>
@@ -3060,7 +3161,7 @@
       </c>
       <c r="Q28" s="23">
         <f>ROUND(C28/G28,3)</f>
-        <v>0.13300000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="R28" s="33" t="s">
         <v>31</v>
@@ -3671,7 +3772,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.45">
       <c r="F50" s="51" t="s">
         <v>73</v>
       </c>
@@ -3682,7 +3783,7 @@
       <c r="K50" s="51"/>
       <c r="L50" s="51"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.45">
       <c r="B51" s="70" t="s">
         <v>84</v>
       </c>
@@ -3695,7 +3796,7 @@
       <c r="K51" s="69"/>
       <c r="L51" s="69"/>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A52" s="48" t="s">
         <v>72</v>
       </c>
@@ -3733,7 +3834,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A53" s="50" t="s">
         <v>74</v>
       </c>
@@ -3782,7 +3883,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A54" s="50" t="s">
         <v>75</v>
       </c>
@@ -3831,350 +3932,559 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.45">
       <c r="C55" s="67" t="s">
         <v>83</v>
       </c>
       <c r="D55" s="68"/>
       <c r="E55" s="66"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A58" t="s">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>107</v>
+      </c>
+      <c r="B60">
+        <v>16</v>
+      </c>
+      <c r="C60" t="s">
         <v>108</v>
       </c>
-      <c r="B58">
-        <v>16</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="N60" t="s">
+        <v>118</v>
+      </c>
+      <c r="O60" t="s">
+        <v>121</v>
+      </c>
+      <c r="P60" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>120</v>
+      </c>
+      <c r="R60" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF60" s="91"/>
+      <c r="AG60" s="91"/>
+      <c r="AH60" s="91"/>
+      <c r="AI60" s="91"/>
+    </row>
+    <row r="61" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="L61" s="101"/>
+      <c r="N61">
+        <v>200</v>
+      </c>
+      <c r="O61">
+        <v>21</v>
+      </c>
+      <c r="P61">
+        <v>10</v>
+      </c>
+      <c r="Q61">
+        <v>50</v>
+      </c>
+      <c r="R61">
+        <v>10</v>
+      </c>
+      <c r="AF61" s="92"/>
+      <c r="AG61" s="92"/>
+      <c r="AH61" s="92"/>
+      <c r="AI61" s="92"/>
+    </row>
+    <row r="62" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="H62" t="s">
+        <v>105</v>
+      </c>
+      <c r="I62" s="93" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="H59" t="s">
-        <v>106</v>
-      </c>
-      <c r="I59" s="94" t="s">
+      <c r="J62" s="93"/>
+      <c r="K62" t="s">
         <v>110</v>
       </c>
-      <c r="J59" s="94"/>
-      <c r="K59" t="s">
-        <v>111</v>
-      </c>
-      <c r="L59" s="89">
+      <c r="L62" s="100">
         <f>COUNTIF(G3:G35,"&gt;0")</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A60" s="48" t="s">
+      <c r="N62" s="96" t="s">
+        <v>115</v>
+      </c>
+      <c r="O62" s="96"/>
+      <c r="P62" s="96"/>
+      <c r="Q62" s="96"/>
+      <c r="R62" s="96"/>
+      <c r="AF62" s="92"/>
+      <c r="AG62" s="92"/>
+      <c r="AH62" s="92"/>
+      <c r="AI62" s="92"/>
+    </row>
+    <row r="63" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A63" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="B60" s="49" t="s">
+      <c r="B63" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="C60" s="49" t="s">
+      <c r="C63" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="D60" s="49" t="s">
+      <c r="D63" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="E60" s="92" t="s">
+      <c r="E63" s="90" t="s">
         <v>101</v>
       </c>
-      <c r="F60" s="92"/>
-      <c r="G60" s="49"/>
-      <c r="H60" s="49" t="s">
+      <c r="F63" s="90"/>
+      <c r="G63" s="49"/>
+      <c r="H63" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="I60" s="92" t="s">
-        <v>107</v>
-      </c>
-      <c r="J60" s="92"/>
-      <c r="K60" s="49" t="s">
+      <c r="I63" s="90" t="s">
+        <v>106</v>
+      </c>
+      <c r="J63" s="90"/>
+      <c r="K63" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="L63" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="L60" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="M60" s="49"/>
-      <c r="N60" s="49"/>
-      <c r="O60" s="92" t="s">
-        <v>105</v>
-      </c>
-      <c r="P60" s="92"/>
-      <c r="Q60" s="92"/>
-      <c r="R60" s="92"/>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A61" s="22" t="s">
+      <c r="M63" s="49"/>
+      <c r="N63" s="95" t="s">
+        <v>117</v>
+      </c>
+      <c r="O63" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="P63" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q63" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="R63" s="97" t="s">
+        <v>122</v>
+      </c>
+      <c r="AF63" s="92"/>
+      <c r="AG63" s="92"/>
+      <c r="AH63" s="92"/>
+      <c r="AI63" s="92"/>
+    </row>
+    <row r="64" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A64" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B61" s="85">
+      <c r="B64" s="85">
         <v>24</v>
       </c>
-      <c r="C61" s="87">
+      <c r="C64" s="98">
         <v>30</v>
       </c>
-      <c r="D61" s="86">
+      <c r="D64" s="98">
         <v>6</v>
       </c>
-      <c r="E61" s="91" t="s">
+      <c r="E64" s="99" t="s">
         <v>104</v>
       </c>
-      <c r="F61" s="91"/>
-      <c r="G61" s="86"/>
-      <c r="H61" s="88">
+      <c r="F64" s="99"/>
+      <c r="G64" s="98"/>
+      <c r="H64" s="98">
         <v>0</v>
       </c>
-      <c r="I61" s="93">
-        <f>(B61-player_radius)*2</f>
+      <c r="I64" s="98">
+        <f t="shared" ref="I64:I69" si="10">(B64-player_radius)*2</f>
         <v>16</v>
       </c>
-      <c r="J61" s="93"/>
-      <c r="K61" s="86">
+      <c r="J64" s="98"/>
+      <c r="K64" s="98">
         <f>COUNTIF(G3:G35,"&gt;16")</f>
         <v>10</v>
       </c>
-      <c r="L61" s="90">
-        <f>21-K61</f>
+      <c r="L64" s="98">
+        <f>21-K64</f>
         <v>11</v>
       </c>
-      <c r="M61" s="86"/>
-      <c r="N61" s="86"/>
-      <c r="O61" s="93"/>
-      <c r="P61" s="93"/>
-      <c r="Q61" s="93"/>
-      <c r="R61" s="93"/>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A62" s="22" t="s">
+      <c r="M64" s="86"/>
+      <c r="N64" s="87">
+        <f>ROUND(C64/health_cap,2)*10</f>
+        <v>1.5</v>
+      </c>
+      <c r="O64" s="89">
+        <f>ROUND(L64/guns_cap,2)*10</f>
+        <v>5.2</v>
+      </c>
+      <c r="P64" s="94">
+        <f>ROUND(D64/speed_cap,2)*10</f>
+        <v>6</v>
+      </c>
+      <c r="Q64" s="88">
+        <f>ROUND(H64/DPS_cap,2)*10</f>
+        <v>0</v>
+      </c>
+      <c r="R64" s="86">
+        <f>SUM(N64:Q64)</f>
+        <v>12.7</v>
+      </c>
+      <c r="AF64" s="92"/>
+      <c r="AG64" s="92"/>
+      <c r="AH64" s="92"/>
+      <c r="AI64" s="92"/>
+    </row>
+    <row r="65" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A65" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="B62" s="85">
+      <c r="B65" s="85">
         <v>32</v>
       </c>
-      <c r="C62" s="87">
+      <c r="C65" s="98">
         <v>60</v>
       </c>
-      <c r="D62" s="86">
+      <c r="D65" s="98">
         <v>3</v>
       </c>
-      <c r="E62" s="91" t="s">
+      <c r="E65" s="99" t="s">
         <v>104</v>
       </c>
-      <c r="F62" s="91"/>
-      <c r="G62" s="86"/>
-      <c r="H62" s="88">
+      <c r="F65" s="99"/>
+      <c r="G65" s="98"/>
+      <c r="H65" s="98">
         <v>0</v>
       </c>
-      <c r="I62" s="93">
-        <f>(B62-player_radius)*2</f>
+      <c r="I65" s="98">
+        <f t="shared" si="10"/>
         <v>32</v>
       </c>
-      <c r="J62" s="93"/>
-      <c r="K62" s="86">
+      <c r="J65" s="98"/>
+      <c r="K65" s="98">
         <f>COUNTIF(G3:G35,"&gt;32")</f>
         <v>2</v>
       </c>
-      <c r="L62" s="90">
-        <f t="shared" ref="L62:L65" si="10">21-K62</f>
+      <c r="L65" s="98">
+        <f t="shared" ref="L65:L68" si="11">21-K65</f>
         <v>19</v>
       </c>
-      <c r="M62" s="86"/>
-      <c r="N62" s="86"/>
-      <c r="O62" s="93"/>
-      <c r="P62" s="93"/>
-      <c r="Q62" s="93"/>
-      <c r="R62" s="93"/>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A63" s="22" t="s">
+      <c r="M65" s="86"/>
+      <c r="N65" s="87">
+        <f>ROUND(C65/health_cap,2)*10</f>
+        <v>3</v>
+      </c>
+      <c r="O65" s="89">
+        <f>ROUND(L65/guns_cap,2)*10</f>
+        <v>9</v>
+      </c>
+      <c r="P65" s="94">
+        <f>ROUND(D65/speed_cap,2)*10</f>
+        <v>3</v>
+      </c>
+      <c r="Q65" s="88">
+        <f>ROUND(H65/DPS_cap,2)*10</f>
+        <v>0</v>
+      </c>
+      <c r="R65" s="86">
+        <f t="shared" ref="R65:R69" si="12">SUM(N65:Q65)</f>
+        <v>15</v>
+      </c>
+      <c r="AF65" s="92"/>
+      <c r="AG65" s="92"/>
+      <c r="AH65" s="92"/>
+      <c r="AI65" s="92"/>
+    </row>
+    <row r="66" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A66" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="B63" s="86">
+      <c r="B66" s="86">
         <v>30</v>
       </c>
-      <c r="C63" s="87">
+      <c r="C66" s="98">
         <v>50</v>
       </c>
-      <c r="D63" s="86">
+      <c r="D66" s="98">
         <v>4</v>
       </c>
-      <c r="E63" s="91" t="s">
+      <c r="E66" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="F63" s="91"/>
-      <c r="G63" s="86"/>
-      <c r="H63" s="88">
-        <v>12.5</v>
-      </c>
-      <c r="I63" s="93">
-        <f>(B63-player_radius)*2</f>
+      <c r="F66" s="99"/>
+      <c r="G66" s="98"/>
+      <c r="H66" s="98">
+        <v>11.11</v>
+      </c>
+      <c r="I66" s="98">
+        <f t="shared" si="10"/>
         <v>28</v>
       </c>
-      <c r="J63" s="93"/>
-      <c r="K63" s="86">
+      <c r="J66" s="98"/>
+      <c r="K66" s="98">
         <f>COUNTIF(G3:G35,"&gt;28")</f>
         <v>4</v>
       </c>
-      <c r="L63" s="90">
+      <c r="L66" s="98">
+        <f t="shared" si="11"/>
+        <v>17</v>
+      </c>
+      <c r="M66" s="86"/>
+      <c r="N66" s="87">
+        <f>ROUND(C66/health_cap,2)*10</f>
+        <v>2.5</v>
+      </c>
+      <c r="O66" s="89">
+        <f>ROUND(L66/guns_cap,2)*10</f>
+        <v>8.1000000000000014</v>
+      </c>
+      <c r="P66" s="94">
+        <f>ROUND(D66/speed_cap,2)*10</f>
+        <v>4</v>
+      </c>
+      <c r="Q66" s="88">
+        <f>ROUND(H66/DPS_cap,2)*10</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R66" s="86">
+        <f t="shared" si="12"/>
+        <v>16.8</v>
+      </c>
+      <c r="AF66" s="92"/>
+      <c r="AG66" s="92"/>
+      <c r="AH66" s="92"/>
+      <c r="AI66" s="92"/>
+    </row>
+    <row r="67" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A67" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="B67" s="86">
+        <v>52</v>
+      </c>
+      <c r="C67" s="98">
+        <v>192</v>
+      </c>
+      <c r="D67" s="98">
+        <v>1</v>
+      </c>
+      <c r="E67" s="102" t="s">
+        <v>103</v>
+      </c>
+      <c r="F67" s="99"/>
+      <c r="G67" s="98"/>
+      <c r="H67" s="98">
+        <v>5.63</v>
+      </c>
+      <c r="I67" s="98">
         <f t="shared" si="10"/>
-        <v>17</v>
-      </c>
-      <c r="M63" s="86"/>
-      <c r="N63" s="86"/>
-      <c r="O63" s="93"/>
-      <c r="P63" s="93"/>
-      <c r="Q63" s="93"/>
-      <c r="R63" s="93"/>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A64" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="B64" s="86">
-        <v>52</v>
-      </c>
-      <c r="C64" s="87">
-        <v>112</v>
-      </c>
-      <c r="D64" s="86">
-        <v>1</v>
-      </c>
-      <c r="E64" s="91" t="s">
-        <v>103</v>
-      </c>
-      <c r="F64" s="91"/>
-      <c r="G64" s="86"/>
-      <c r="H64" s="88">
-        <v>5.63</v>
-      </c>
-      <c r="I64" s="93">
-        <f>(B64-player_radius)*2</f>
         <v>72</v>
       </c>
-      <c r="J64" s="93"/>
-      <c r="K64" s="86">
+      <c r="J67" s="98"/>
+      <c r="K67" s="98">
         <f>COUNTIF(G3:G35,"&gt;72")</f>
         <v>0</v>
       </c>
-      <c r="L64" s="90">
+      <c r="L67" s="98">
+        <f t="shared" si="11"/>
+        <v>21</v>
+      </c>
+      <c r="M67" s="86"/>
+      <c r="N67" s="87">
+        <f>ROUND(C67/health_cap,2)*10</f>
+        <v>9.6</v>
+      </c>
+      <c r="O67" s="89">
+        <f>ROUND(L67/guns_cap,2)*10</f>
+        <v>10</v>
+      </c>
+      <c r="P67" s="94">
+        <f>ROUND(D67/speed_cap,2)*10</f>
+        <v>1</v>
+      </c>
+      <c r="Q67" s="88">
+        <f>ROUND(H67/DPS_cap,2)*10</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R67" s="86">
+        <f t="shared" si="12"/>
+        <v>21.700000000000003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A68" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B68" s="86">
+        <v>22</v>
+      </c>
+      <c r="C68" s="98">
+        <v>120</v>
+      </c>
+      <c r="D68" s="98">
+        <v>0</v>
+      </c>
+      <c r="E68" s="99" t="s">
+        <v>38</v>
+      </c>
+      <c r="F68" s="99"/>
+      <c r="G68" s="98"/>
+      <c r="H68" s="98">
+        <v>13.33</v>
+      </c>
+      <c r="I68" s="98">
         <f t="shared" si="10"/>
-        <v>21</v>
-      </c>
-      <c r="M64" s="86"/>
-      <c r="N64" s="86"/>
-      <c r="O64" s="93"/>
-      <c r="P64" s="93"/>
-      <c r="Q64" s="93"/>
-      <c r="R64" s="93"/>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A65" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="B65" s="86">
-        <v>22</v>
-      </c>
-      <c r="C65" s="87">
-        <v>120</v>
-      </c>
-      <c r="D65" s="86">
-        <v>0</v>
-      </c>
-      <c r="E65" s="91" t="s">
-        <v>38</v>
-      </c>
-      <c r="F65" s="91"/>
-      <c r="G65" s="86"/>
-      <c r="H65" s="88">
-        <v>13.33</v>
-      </c>
-      <c r="I65" s="93">
-        <f>(B65-player_radius)*2</f>
         <v>12</v>
       </c>
-      <c r="J65" s="93"/>
-      <c r="K65" s="86">
+      <c r="J68" s="98"/>
+      <c r="K68" s="98">
         <f>COUNTIF(G3:G35,"&gt;12")</f>
         <v>15</v>
       </c>
-      <c r="L65" s="90">
+      <c r="L68" s="98">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="M68" s="86"/>
+      <c r="N68" s="87">
+        <f>ROUND(C68/health_cap,2)*10</f>
+        <v>6</v>
+      </c>
+      <c r="O68" s="89">
+        <f>ROUND(L68/guns_cap,2)*10</f>
+        <v>2.9</v>
+      </c>
+      <c r="P68" s="94">
+        <f>ROUND(D68/speed_cap,2)*10</f>
+        <v>0</v>
+      </c>
+      <c r="Q68" s="88">
+        <f>ROUND(H68/DPS_cap,2)*10</f>
+        <v>2.7</v>
+      </c>
+      <c r="R68" s="86">
+        <f t="shared" si="12"/>
+        <v>11.600000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A69" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B69" s="86">
+        <v>26</v>
+      </c>
+      <c r="C69" s="98">
+        <v>40</v>
+      </c>
+      <c r="D69" s="98">
+        <v>10</v>
+      </c>
+      <c r="E69" s="99" t="s">
+        <v>42</v>
+      </c>
+      <c r="F69" s="99"/>
+      <c r="G69" s="98"/>
+      <c r="H69" s="98">
+        <v>9.09</v>
+      </c>
+      <c r="I69" s="98">
         <f t="shared" si="10"/>
-        <v>6</v>
-      </c>
-      <c r="M65" s="86"/>
-      <c r="N65" s="86"/>
-      <c r="O65" s="93"/>
-      <c r="P65" s="93"/>
-      <c r="Q65" s="93"/>
-      <c r="R65" s="93"/>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A66" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="B66" s="86">
-        <v>26</v>
-      </c>
-      <c r="C66" s="87">
-        <v>50</v>
-      </c>
-      <c r="D66" s="86">
-        <v>10</v>
-      </c>
-      <c r="E66" s="91" t="s">
-        <v>42</v>
-      </c>
-      <c r="F66" s="91"/>
-      <c r="G66" s="86"/>
-      <c r="H66" s="88">
-        <v>9.09</v>
-      </c>
-      <c r="I66" s="93">
-        <f>(B66-player_radius)*2</f>
         <v>20</v>
       </c>
-      <c r="J66" s="93"/>
-      <c r="K66" s="86">
+      <c r="J69" s="98"/>
+      <c r="K69" s="98">
         <f>COUNTIF(G3:G35,"&gt;20")</f>
         <v>6</v>
       </c>
-      <c r="L66" s="90">
-        <f>21-K66</f>
+      <c r="L69" s="98">
+        <f>21-K69</f>
         <v>15</v>
       </c>
-      <c r="M66" s="86"/>
-      <c r="N66" s="86"/>
-      <c r="O66" s="93"/>
-      <c r="P66" s="93"/>
-      <c r="Q66" s="93"/>
-      <c r="R66" s="93"/>
+      <c r="M69" s="86"/>
+      <c r="N69" s="87">
+        <f>ROUND(C69/health_cap,2)*10</f>
+        <v>2</v>
+      </c>
+      <c r="O69" s="89">
+        <f>ROUND(L69/guns_cap,2)*10</f>
+        <v>7.1</v>
+      </c>
+      <c r="P69" s="94">
+        <f>ROUND(D69/speed_cap,2)*10</f>
+        <v>10</v>
+      </c>
+      <c r="Q69" s="88">
+        <f>ROUND(H69/DPS_cap,2)*10</f>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="R69" s="86">
+        <f t="shared" si="12"/>
+        <v>20.900000000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A70" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="B70" s="86">
+        <v>28</v>
+      </c>
+      <c r="C70" s="98">
+        <v>50</v>
+      </c>
+      <c r="D70" s="98">
+        <v>8</v>
+      </c>
+      <c r="E70" s="102" t="s">
+        <v>125</v>
+      </c>
+      <c r="F70" s="99"/>
+      <c r="G70" s="98"/>
+      <c r="H70" s="98">
+        <v>48</v>
+      </c>
+      <c r="I70" s="98">
+        <f t="shared" ref="I70" si="13">(B70-player_radius)*2</f>
+        <v>24</v>
+      </c>
+      <c r="J70" s="98"/>
+      <c r="K70" s="98">
+        <f>COUNTIF(G3:G35,"&gt;24")</f>
+        <v>4</v>
+      </c>
+      <c r="L70" s="98">
+        <f>21-K70</f>
+        <v>17</v>
+      </c>
+      <c r="M70" s="86"/>
+      <c r="N70" s="87">
+        <f>ROUND(C70/health_cap,2)*10</f>
+        <v>2.5</v>
+      </c>
+      <c r="O70" s="89">
+        <f>ROUND(L70/guns_cap,2)*10</f>
+        <v>8.1000000000000014</v>
+      </c>
+      <c r="P70" s="94">
+        <f>ROUND(D70/speed_cap,2)*10</f>
+        <v>8</v>
+      </c>
+      <c r="Q70" s="88">
+        <f>ROUND(H70/DPS_cap,2)*10</f>
+        <v>9.6</v>
+      </c>
+      <c r="R70" s="86">
+        <f t="shared" ref="R70" si="14">SUM(N70:Q70)</f>
+        <v>28.200000000000003</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="O60:R60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="O66:R66"/>
-    <mergeCell ref="O61:R61"/>
-    <mergeCell ref="O62:R62"/>
-    <mergeCell ref="O63:R63"/>
-    <mergeCell ref="O64:R64"/>
-    <mergeCell ref="O65:R65"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="I61:J61"/>
+  <mergeCells count="9">
+    <mergeCell ref="N62:R62"/>
     <mergeCell ref="I62:J62"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="AF60:AI60"/>
+    <mergeCell ref="AF66:AI66"/>
+    <mergeCell ref="AF61:AI61"/>
+    <mergeCell ref="AF62:AI62"/>
+    <mergeCell ref="AF63:AI63"/>
+    <mergeCell ref="AF64:AI64"/>
+    <mergeCell ref="AF65:AI65"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gun infos.xlsx
+++ b/gun infos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kingc\web\blackout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984E94AE-6874-4F1C-AA32-133CFF79DC8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9A6411-870A-4B20-B049-5CA3C100605A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="127">
   <si>
     <t>Weapon info</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -563,6 +563,10 @@
   </si>
   <si>
     <t>tankBuster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stopping power</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1024,7 +1028,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1266,39 +1270,38 @@
     <xf numFmtId="0" fontId="16" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1582,8 +1585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S63" sqref="S63"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC49" sqref="AC49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1879,7 +1882,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="28">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="F5" s="28">
         <v>4000</v>
@@ -1901,19 +1904,19 @@
       </c>
       <c r="L5" s="23">
         <f>ROUND(D5*(E5+fraghitnum2)/F5*1000,2)</f>
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="M5" s="23">
         <f>ROUND(D5*(E5+fraghitnum2)/(F5+I5)*1000,2)</f>
-        <v>19.2</v>
+        <v>11.2</v>
       </c>
       <c r="N5" s="23">
         <f>D5*(E5+fraghitnum2)*H5</f>
-        <v>192</v>
+        <v>112</v>
       </c>
       <c r="O5" s="29">
         <f>ROUND(playerHealth/(D5*(E5+fraghitnum2)),1)</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P5" s="23">
         <f t="shared" si="0"/>
@@ -1929,19 +1932,19 @@
       <c r="S5" s="23"/>
       <c r="T5" s="23">
         <f xml:space="preserve"> D5*E5*7/10 +D5*fraghitnum2*9/10</f>
-        <v>136.80000000000001</v>
+        <v>80.8</v>
       </c>
       <c r="U5" s="32">
         <f>ROUND(playerHealth/(T5),2)</f>
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="V5" s="23">
         <f>D5*((E5+fraghitnum2)-0.4)</f>
-        <v>191.6</v>
+        <v>111.6</v>
       </c>
       <c r="W5" s="32">
         <f>ROUND(playerHealth/(V5),2)</f>
-        <v>0.04</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="X5" s="23"/>
       <c r="Y5" t="s">
@@ -3964,18 +3967,17 @@
       <c r="R60" t="s">
         <v>123</v>
       </c>
-      <c r="AF60" s="91"/>
-      <c r="AG60" s="91"/>
-      <c r="AH60" s="91"/>
-      <c r="AI60" s="91"/>
+      <c r="AF60" s="98"/>
+      <c r="AG60" s="98"/>
+      <c r="AH60" s="98"/>
+      <c r="AI60" s="98"/>
     </row>
     <row r="61" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="L61" s="101"/>
       <c r="N61">
         <v>200</v>
       </c>
       <c r="O61">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P61">
         <v>10</v>
@@ -3986,23 +3988,23 @@
       <c r="R61">
         <v>10</v>
       </c>
-      <c r="AF61" s="92"/>
-      <c r="AG61" s="92"/>
-      <c r="AH61" s="92"/>
-      <c r="AI61" s="92"/>
+      <c r="AF61" s="99"/>
+      <c r="AG61" s="99"/>
+      <c r="AH61" s="99"/>
+      <c r="AI61" s="99"/>
     </row>
     <row r="62" spans="1:35" x14ac:dyDescent="0.45">
       <c r="H62" t="s">
         <v>105</v>
       </c>
-      <c r="I62" s="93" t="s">
+      <c r="I62" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="J62" s="93"/>
+      <c r="J62" s="97"/>
       <c r="K62" t="s">
         <v>110</v>
       </c>
-      <c r="L62" s="100">
+      <c r="L62" s="94">
         <f>COUNTIF(G3:G35,"&gt;0")</f>
         <v>21</v>
       </c>
@@ -4013,10 +4015,10 @@
       <c r="P62" s="96"/>
       <c r="Q62" s="96"/>
       <c r="R62" s="96"/>
-      <c r="AF62" s="92"/>
-      <c r="AG62" s="92"/>
-      <c r="AH62" s="92"/>
-      <c r="AI62" s="92"/>
+      <c r="AF62" s="99"/>
+      <c r="AG62" s="99"/>
+      <c r="AH62" s="99"/>
+      <c r="AI62" s="99"/>
     </row>
     <row r="63" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A63" s="48" t="s">
@@ -4050,7 +4052,7 @@
         <v>112</v>
       </c>
       <c r="M63" s="49"/>
-      <c r="N63" s="95" t="s">
+      <c r="N63" s="92" t="s">
         <v>117</v>
       </c>
       <c r="O63" s="49" t="s">
@@ -4062,13 +4064,18 @@
       <c r="Q63" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="R63" s="97" t="s">
+      <c r="R63" s="93" t="s">
         <v>122</v>
       </c>
-      <c r="AF63" s="92"/>
-      <c r="AG63" s="92"/>
-      <c r="AH63" s="92"/>
-      <c r="AI63" s="92"/>
+      <c r="S63" s="49"/>
+      <c r="T63" s="98" t="s">
+        <v>126</v>
+      </c>
+      <c r="U63" s="98"/>
+      <c r="AF63" s="99"/>
+      <c r="AG63" s="99"/>
+      <c r="AH63" s="99"/>
+      <c r="AI63" s="99"/>
     </row>
     <row r="64" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A64" s="22" t="s">
@@ -4077,58 +4084,64 @@
       <c r="B64" s="85">
         <v>24</v>
       </c>
-      <c r="C64" s="98">
-        <v>30</v>
-      </c>
-      <c r="D64" s="98">
+      <c r="C64" s="86">
+        <v>15</v>
+      </c>
+      <c r="D64" s="86">
         <v>6</v>
       </c>
-      <c r="E64" s="99" t="s">
+      <c r="E64" s="83" t="s">
         <v>104</v>
       </c>
-      <c r="F64" s="99"/>
-      <c r="G64" s="98"/>
-      <c r="H64" s="98">
+      <c r="F64" s="83"/>
+      <c r="G64" s="86"/>
+      <c r="H64" s="86">
         <v>0</v>
       </c>
-      <c r="I64" s="98">
+      <c r="I64" s="86">
         <f t="shared" ref="I64:I69" si="10">(B64-player_radius)*2</f>
         <v>16</v>
       </c>
-      <c r="J64" s="98"/>
-      <c r="K64" s="98">
+      <c r="J64" s="86"/>
+      <c r="K64" s="86">
         <f>COUNTIF(G3:G35,"&gt;16")</f>
         <v>10</v>
       </c>
-      <c r="L64" s="98">
+      <c r="L64" s="86">
         <f>21-K64</f>
         <v>11</v>
       </c>
       <c r="M64" s="86"/>
       <c r="N64" s="87">
-        <f>ROUND(C64/health_cap,2)*10</f>
-        <v>1.5</v>
+        <f t="shared" ref="N64:N70" si="11">ROUND(C64/health_cap,2)*10</f>
+        <v>0.8</v>
       </c>
       <c r="O64" s="89">
-        <f>ROUND(L64/guns_cap,2)*10</f>
-        <v>5.2</v>
-      </c>
-      <c r="P64" s="94">
-        <f>ROUND(D64/speed_cap,2)*10</f>
+        <f t="shared" ref="O64:O70" si="12">ROUND(L64/guns_cap,2)*10</f>
+        <v>3.7</v>
+      </c>
+      <c r="P64" s="91">
+        <f t="shared" ref="P64:P70" si="13">ROUND(D64/speed_cap,2)*10</f>
         <v>6</v>
       </c>
       <c r="Q64" s="88">
-        <f>ROUND(H64/DPS_cap,2)*10</f>
+        <f t="shared" ref="Q64:Q70" si="14">ROUND(H64/DPS_cap,2)*10</f>
         <v>0</v>
       </c>
-      <c r="R64" s="86">
+      <c r="R64" s="100">
         <f>SUM(N64:Q64)</f>
-        <v>12.7</v>
-      </c>
-      <c r="AF64" s="92"/>
-      <c r="AG64" s="92"/>
-      <c r="AH64" s="92"/>
-      <c r="AI64" s="92"/>
+        <v>10.5</v>
+      </c>
+      <c r="S64" s="86"/>
+      <c r="T64" s="101">
+        <f>Q64+N64+O64</f>
+        <v>4.5</v>
+      </c>
+      <c r="U64" s="101"/>
+      <c r="AF64" s="99"/>
+      <c r="AG64" s="99"/>
+      <c r="AH64" s="99"/>
+      <c r="AI64" s="99"/>
     </row>
     <row r="65" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A65" s="22" t="s">
@@ -4137,58 +4150,64 @@
       <c r="B65" s="85">
         <v>32</v>
       </c>
-      <c r="C65" s="98">
+      <c r="C65" s="86">
         <v>60</v>
       </c>
-      <c r="D65" s="98">
+      <c r="D65" s="86">
         <v>3</v>
       </c>
-      <c r="E65" s="99" t="s">
+      <c r="E65" s="83" t="s">
         <v>104</v>
       </c>
-      <c r="F65" s="99"/>
-      <c r="G65" s="98"/>
-      <c r="H65" s="98">
+      <c r="F65" s="83"/>
+      <c r="G65" s="86"/>
+      <c r="H65" s="86">
         <v>0</v>
       </c>
-      <c r="I65" s="98">
+      <c r="I65" s="86">
         <f t="shared" si="10"/>
         <v>32</v>
       </c>
-      <c r="J65" s="98"/>
-      <c r="K65" s="98">
+      <c r="J65" s="86"/>
+      <c r="K65" s="86">
         <f>COUNTIF(G3:G35,"&gt;32")</f>
         <v>2</v>
       </c>
-      <c r="L65" s="98">
-        <f t="shared" ref="L65:L68" si="11">21-K65</f>
+      <c r="L65" s="86">
+        <f t="shared" ref="L65:L68" si="15">21-K65</f>
         <v>19</v>
       </c>
       <c r="M65" s="86"/>
       <c r="N65" s="87">
-        <f>ROUND(C65/health_cap,2)*10</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="O65" s="89">
-        <f>ROUND(L65/guns_cap,2)*10</f>
-        <v>9</v>
-      </c>
-      <c r="P65" s="94">
-        <f>ROUND(D65/speed_cap,2)*10</f>
+        <f t="shared" si="12"/>
+        <v>6.3</v>
+      </c>
+      <c r="P65" s="91">
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="Q65" s="88">
-        <f>ROUND(H65/DPS_cap,2)*10</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="R65" s="86">
-        <f t="shared" ref="R65:R69" si="12">SUM(N65:Q65)</f>
-        <v>15</v>
-      </c>
-      <c r="AF65" s="92"/>
-      <c r="AG65" s="92"/>
-      <c r="AH65" s="92"/>
-      <c r="AI65" s="92"/>
+      <c r="R65" s="100">
+        <f t="shared" ref="R65:R69" si="16">SUM(N65:Q65)</f>
+        <v>12.3</v>
+      </c>
+      <c r="S65" s="86"/>
+      <c r="T65" s="101">
+        <f t="shared" ref="T65:T70" si="17">Q65+N65+O65</f>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="U65" s="101"/>
+      <c r="AF65" s="99"/>
+      <c r="AG65" s="99"/>
+      <c r="AH65" s="99"/>
+      <c r="AI65" s="99"/>
     </row>
     <row r="66" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A66" s="22" t="s">
@@ -4197,170 +4216,188 @@
       <c r="B66" s="86">
         <v>30</v>
       </c>
-      <c r="C66" s="98">
+      <c r="C66" s="86">
         <v>50</v>
       </c>
-      <c r="D66" s="98">
+      <c r="D66" s="86">
         <v>4</v>
       </c>
-      <c r="E66" s="99" t="s">
+      <c r="E66" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="F66" s="99"/>
-      <c r="G66" s="98"/>
-      <c r="H66" s="98">
+      <c r="F66" s="83"/>
+      <c r="G66" s="86"/>
+      <c r="H66" s="86">
         <v>11.11</v>
       </c>
-      <c r="I66" s="98">
+      <c r="I66" s="86">
         <f t="shared" si="10"/>
         <v>28</v>
       </c>
-      <c r="J66" s="98"/>
-      <c r="K66" s="98">
+      <c r="J66" s="86"/>
+      <c r="K66" s="86">
         <f>COUNTIF(G3:G35,"&gt;28")</f>
         <v>4</v>
       </c>
-      <c r="L66" s="98">
-        <f t="shared" si="11"/>
+      <c r="L66" s="86">
+        <f t="shared" si="15"/>
         <v>17</v>
       </c>
       <c r="M66" s="86"/>
       <c r="N66" s="87">
-        <f>ROUND(C66/health_cap,2)*10</f>
+        <f t="shared" si="11"/>
         <v>2.5</v>
       </c>
       <c r="O66" s="89">
-        <f>ROUND(L66/guns_cap,2)*10</f>
-        <v>8.1000000000000014</v>
-      </c>
-      <c r="P66" s="94">
-        <f>ROUND(D66/speed_cap,2)*10</f>
+        <f t="shared" si="12"/>
+        <v>5.6999999999999993</v>
+      </c>
+      <c r="P66" s="91">
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="Q66" s="88">
-        <f>ROUND(H66/DPS_cap,2)*10</f>
+        <f t="shared" si="14"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="R66" s="86">
-        <f t="shared" si="12"/>
-        <v>16.8</v>
-      </c>
-      <c r="AF66" s="92"/>
-      <c r="AG66" s="92"/>
-      <c r="AH66" s="92"/>
-      <c r="AI66" s="92"/>
+      <c r="R66" s="100">
+        <f t="shared" si="16"/>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="S66" s="86"/>
+      <c r="T66" s="101">
+        <f t="shared" si="17"/>
+        <v>10.399999999999999</v>
+      </c>
+      <c r="U66" s="101"/>
+      <c r="AF66" s="99"/>
+      <c r="AG66" s="99"/>
+      <c r="AH66" s="99"/>
+      <c r="AI66" s="99"/>
     </row>
     <row r="67" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A67" s="22" t="s">
         <v>97</v>
       </c>
       <c r="B67" s="86">
-        <v>52</v>
-      </c>
-      <c r="C67" s="98">
+        <v>40</v>
+      </c>
+      <c r="C67" s="86">
         <v>192</v>
       </c>
-      <c r="D67" s="98">
+      <c r="D67" s="86">
         <v>1</v>
       </c>
-      <c r="E67" s="102" t="s">
+      <c r="E67" s="95" t="s">
         <v>103</v>
       </c>
-      <c r="F67" s="99"/>
-      <c r="G67" s="98"/>
-      <c r="H67" s="98">
+      <c r="F67" s="83"/>
+      <c r="G67" s="86"/>
+      <c r="H67" s="86">
         <v>5.63</v>
       </c>
-      <c r="I67" s="98">
+      <c r="I67" s="86">
         <f t="shared" si="10"/>
-        <v>72</v>
-      </c>
-      <c r="J67" s="98"/>
-      <c r="K67" s="98">
-        <f>COUNTIF(G3:G35,"&gt;72")</f>
+        <v>48</v>
+      </c>
+      <c r="J67" s="86"/>
+      <c r="K67" s="86">
+        <f>COUNTIF(G3:G35,"&gt;48")</f>
         <v>0</v>
       </c>
-      <c r="L67" s="98">
-        <f t="shared" si="11"/>
+      <c r="L67" s="86">
+        <f t="shared" si="15"/>
         <v>21</v>
       </c>
       <c r="M67" s="86"/>
       <c r="N67" s="87">
-        <f>ROUND(C67/health_cap,2)*10</f>
+        <f t="shared" si="11"/>
         <v>9.6</v>
       </c>
       <c r="O67" s="89">
-        <f>ROUND(L67/guns_cap,2)*10</f>
-        <v>10</v>
-      </c>
-      <c r="P67" s="94">
-        <f>ROUND(D67/speed_cap,2)*10</f>
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="P67" s="91">
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="Q67" s="88">
-        <f>ROUND(H67/DPS_cap,2)*10</f>
+        <f t="shared" si="14"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="R67" s="86">
-        <f t="shared" si="12"/>
-        <v>21.700000000000003</v>
-      </c>
+      <c r="R67" s="100">
+        <f t="shared" si="16"/>
+        <v>18.700000000000003</v>
+      </c>
+      <c r="S67" s="86"/>
+      <c r="T67" s="101">
+        <f t="shared" si="17"/>
+        <v>17.7</v>
+      </c>
+      <c r="U67" s="101"/>
     </row>
     <row r="68" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A68" s="22" t="s">
         <v>102</v>
       </c>
       <c r="B68" s="86">
-        <v>22</v>
-      </c>
-      <c r="C68" s="98">
-        <v>120</v>
-      </c>
-      <c r="D68" s="98">
+        <v>52</v>
+      </c>
+      <c r="C68" s="86">
+        <v>124</v>
+      </c>
+      <c r="D68" s="86">
         <v>0</v>
       </c>
-      <c r="E68" s="99" t="s">
+      <c r="E68" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="F68" s="99"/>
-      <c r="G68" s="98"/>
-      <c r="H68" s="98">
+      <c r="F68" s="83"/>
+      <c r="G68" s="86"/>
+      <c r="H68" s="86">
         <v>13.33</v>
       </c>
-      <c r="I68" s="98">
+      <c r="I68" s="86">
         <f t="shared" si="10"/>
-        <v>12</v>
-      </c>
-      <c r="J68" s="98"/>
-      <c r="K68" s="98">
-        <f>COUNTIF(G3:G35,"&gt;12")</f>
-        <v>15</v>
-      </c>
-      <c r="L68" s="98">
-        <f t="shared" si="11"/>
-        <v>6</v>
+        <v>72</v>
+      </c>
+      <c r="J68" s="86"/>
+      <c r="K68" s="86">
+        <f>COUNTIF(G3:G35,"&gt;72")</f>
+        <v>0</v>
+      </c>
+      <c r="L68" s="86">
+        <f t="shared" si="15"/>
+        <v>21</v>
       </c>
       <c r="M68" s="86"/>
       <c r="N68" s="87">
-        <f>ROUND(C68/health_cap,2)*10</f>
-        <v>6</v>
+        <f t="shared" si="11"/>
+        <v>6.2</v>
       </c>
       <c r="O68" s="89">
-        <f>ROUND(L68/guns_cap,2)*10</f>
-        <v>2.9</v>
-      </c>
-      <c r="P68" s="94">
-        <f>ROUND(D68/speed_cap,2)*10</f>
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="P68" s="91">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q68" s="88">
-        <f>ROUND(H68/DPS_cap,2)*10</f>
+        <f t="shared" si="14"/>
         <v>2.7</v>
       </c>
-      <c r="R68" s="86">
-        <f t="shared" si="12"/>
-        <v>11.600000000000001</v>
-      </c>
+      <c r="R68" s="100">
+        <f t="shared" si="16"/>
+        <v>15.899999999999999</v>
+      </c>
+      <c r="S68" s="86"/>
+      <c r="T68" s="101">
+        <f t="shared" si="17"/>
+        <v>15.9</v>
+      </c>
+      <c r="U68" s="101"/>
     </row>
     <row r="69" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A69" s="22" t="s">
@@ -4369,54 +4406,60 @@
       <c r="B69" s="86">
         <v>26</v>
       </c>
-      <c r="C69" s="98">
+      <c r="C69" s="86">
         <v>40</v>
       </c>
-      <c r="D69" s="98">
+      <c r="D69" s="86">
         <v>10</v>
       </c>
-      <c r="E69" s="99" t="s">
+      <c r="E69" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="F69" s="99"/>
-      <c r="G69" s="98"/>
-      <c r="H69" s="98">
+      <c r="F69" s="83"/>
+      <c r="G69" s="86"/>
+      <c r="H69" s="86">
         <v>9.09</v>
       </c>
-      <c r="I69" s="98">
+      <c r="I69" s="86">
         <f t="shared" si="10"/>
         <v>20</v>
       </c>
-      <c r="J69" s="98"/>
-      <c r="K69" s="98">
+      <c r="J69" s="86"/>
+      <c r="K69" s="86">
         <f>COUNTIF(G3:G35,"&gt;20")</f>
         <v>6</v>
       </c>
-      <c r="L69" s="98">
+      <c r="L69" s="86">
         <f>21-K69</f>
         <v>15</v>
       </c>
       <c r="M69" s="86"/>
       <c r="N69" s="87">
-        <f>ROUND(C69/health_cap,2)*10</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="O69" s="89">
-        <f>ROUND(L69/guns_cap,2)*10</f>
-        <v>7.1</v>
-      </c>
-      <c r="P69" s="94">
-        <f>ROUND(D69/speed_cap,2)*10</f>
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="P69" s="91">
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="Q69" s="88">
-        <f>ROUND(H69/DPS_cap,2)*10</f>
+        <f t="shared" si="14"/>
         <v>1.7999999999999998</v>
       </c>
-      <c r="R69" s="86">
-        <f t="shared" si="12"/>
-        <v>20.900000000000002</v>
-      </c>
+      <c r="R69" s="100">
+        <f t="shared" si="16"/>
+        <v>18.8</v>
+      </c>
+      <c r="S69" s="86"/>
+      <c r="T69" s="101">
+        <f t="shared" si="17"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="U69" s="101"/>
     </row>
     <row r="70" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A70" s="22" t="s">
@@ -4425,57 +4468,68 @@
       <c r="B70" s="86">
         <v>28</v>
       </c>
-      <c r="C70" s="98">
+      <c r="C70" s="86">
         <v>50</v>
       </c>
-      <c r="D70" s="98">
+      <c r="D70" s="86">
         <v>8</v>
       </c>
-      <c r="E70" s="102" t="s">
+      <c r="E70" s="95" t="s">
         <v>125</v>
       </c>
-      <c r="F70" s="99"/>
-      <c r="G70" s="98"/>
-      <c r="H70" s="98">
+      <c r="F70" s="83"/>
+      <c r="G70" s="86"/>
+      <c r="H70" s="86">
         <v>48</v>
       </c>
-      <c r="I70" s="98">
-        <f t="shared" ref="I70" si="13">(B70-player_radius)*2</f>
+      <c r="I70" s="86">
+        <f t="shared" ref="I70" si="18">(B70-player_radius)*2</f>
         <v>24</v>
       </c>
-      <c r="J70" s="98"/>
-      <c r="K70" s="98">
+      <c r="J70" s="86"/>
+      <c r="K70" s="86">
         <f>COUNTIF(G3:G35,"&gt;24")</f>
         <v>4</v>
       </c>
-      <c r="L70" s="98">
+      <c r="L70" s="86">
         <f>21-K70</f>
         <v>17</v>
       </c>
       <c r="M70" s="86"/>
       <c r="N70" s="87">
-        <f>ROUND(C70/health_cap,2)*10</f>
+        <f t="shared" si="11"/>
         <v>2.5</v>
       </c>
       <c r="O70" s="89">
-        <f>ROUND(L70/guns_cap,2)*10</f>
-        <v>8.1000000000000014</v>
-      </c>
-      <c r="P70" s="94">
-        <f>ROUND(D70/speed_cap,2)*10</f>
+        <f t="shared" si="12"/>
+        <v>5.6999999999999993</v>
+      </c>
+      <c r="P70" s="91">
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="Q70" s="88">
-        <f>ROUND(H70/DPS_cap,2)*10</f>
+        <f t="shared" si="14"/>
         <v>9.6</v>
       </c>
-      <c r="R70" s="86">
-        <f t="shared" ref="R70" si="14">SUM(N70:Q70)</f>
-        <v>28.200000000000003</v>
-      </c>
+      <c r="R70" s="100">
+        <f t="shared" ref="R70" si="19">SUM(N70:Q70)</f>
+        <v>25.799999999999997</v>
+      </c>
+      <c r="S70" s="86"/>
+      <c r="T70" s="101">
+        <f t="shared" si="17"/>
+        <v>17.799999999999997</v>
+      </c>
+      <c r="U70" s="101"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="17">
+    <mergeCell ref="T67:U67"/>
+    <mergeCell ref="T68:U68"/>
+    <mergeCell ref="T66:U66"/>
+    <mergeCell ref="T69:U69"/>
+    <mergeCell ref="T70:U70"/>
     <mergeCell ref="N62:R62"/>
     <mergeCell ref="I62:J62"/>
     <mergeCell ref="AF60:AI60"/>
@@ -4485,6 +4539,9 @@
     <mergeCell ref="AF63:AI63"/>
     <mergeCell ref="AF64:AI64"/>
     <mergeCell ref="AF65:AI65"/>
+    <mergeCell ref="T63:U63"/>
+    <mergeCell ref="T64:U64"/>
+    <mergeCell ref="T65:U65"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gun infos.xlsx
+++ b/gun infos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kingc\web\blackout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9A6411-870A-4B20-B049-5CA3C100605A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7992B604-F366-4F3F-8139-304E8F1D4F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="DPS_cap">Sheet1!$Q$61</definedName>
+    <definedName name="frag_damage">Sheet1!$E$4</definedName>
     <definedName name="fragHitNum">Sheet1!$K$3</definedName>
     <definedName name="fraghitnum2">Sheet1!$K$5</definedName>
     <definedName name="guns_cap">Sheet1!$O$61</definedName>
@@ -1285,6 +1286,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1295,12 +1302,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1585,8 +1586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC49" sqref="AC49"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1733,20 +1734,20 @@
         <v>6</v>
       </c>
       <c r="L3" s="23">
-        <f>ROUND(D3*(E3+fragHitNum)/F3*1000,2)</f>
-        <v>5.63</v>
+        <f>ROUND(D3*(E3+fragHitNum*frag_damage)/F3*1000,2)</f>
+        <v>9.3800000000000008</v>
       </c>
       <c r="M3" s="23">
-        <f>ROUND(D3*(E3+fragHitNum)/(F3+I3)*1000,2)</f>
-        <v>2.65</v>
+        <f>ROUND(D3*(E3+fragHitNum*frag_damage)/(F3+I3)*1000,2)</f>
+        <v>4.41</v>
       </c>
       <c r="N3" s="23">
-        <f>D3*(E3+fragHitNum)*H3</f>
-        <v>27</v>
+        <f>D3*(E3+fragHitNum*frag_damage)*H3</f>
+        <v>45</v>
       </c>
       <c r="O3" s="29">
-        <f>ROUND(playerHealth/(D3*(E3+fragHitNum)),1)</f>
-        <v>0.9</v>
+        <f>ROUND(playerHealth/(D3*(E3+fragHitNum*frag_damage)),1)</f>
+        <v>0.5</v>
       </c>
       <c r="P3" s="23">
         <f t="shared" ref="P3:P5" si="0">-(FLOOR(G3/6,1)-1)</f>
@@ -1761,20 +1762,20 @@
       </c>
       <c r="S3" s="23"/>
       <c r="T3" s="23">
-        <f xml:space="preserve"> D3*(E3+fragHitNum)*9/10</f>
-        <v>8.1</v>
+        <f xml:space="preserve"> D3*(E3+fragHitNum*frag_damage)*9/10</f>
+        <v>13.5</v>
       </c>
       <c r="U3" s="32">
         <f>ROUND(playerHealth/(T3),2)</f>
-        <v>0.99</v>
+        <v>0.59</v>
       </c>
       <c r="V3" s="23">
-        <f>D3*((E3+fragHitNum)-0.4)</f>
-        <v>8.6</v>
+        <f>D3*((E3+fragHitNum*frag_damage)-0.4)</f>
+        <v>14.6</v>
       </c>
       <c r="W3" s="32">
         <f>ROUND(playerHealth/(V3),2)</f>
-        <v>0.93</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="X3" s="23"/>
       <c r="Y3" t="s">
@@ -1903,19 +1904,19 @@
         <v>12</v>
       </c>
       <c r="L5" s="23">
-        <f>ROUND(D5*(E5+fraghitnum2)/F5*1000,2)</f>
-        <v>28</v>
+        <f>ROUND(D5*(E5+fraghitnum2*frag_damage)/F5*1000,2)</f>
+        <v>31</v>
       </c>
       <c r="M5" s="23">
-        <f>ROUND(D5*(E5+fraghitnum2)/(F5+I5)*1000,2)</f>
-        <v>11.2</v>
+        <f>ROUND(D5*(E5+fraghitnum2*frag_damage)/(F5+I5)*1000,2)</f>
+        <v>12.4</v>
       </c>
       <c r="N5" s="23">
-        <f>D5*(E5+fraghitnum2)*H5</f>
-        <v>112</v>
+        <f>D5*(E5+fraghitnum2*frag_damage)*H5</f>
+        <v>124</v>
       </c>
       <c r="O5" s="29">
-        <f>ROUND(playerHealth/(D5*(E5+fraghitnum2)),1)</f>
+        <f>ROUND(playerHealth/(D5*(E5+fraghitnum2*frag_damage)),1)</f>
         <v>0.1</v>
       </c>
       <c r="P5" s="23">
@@ -1931,20 +1932,20 @@
       </c>
       <c r="S5" s="23"/>
       <c r="T5" s="23">
-        <f xml:space="preserve"> D5*E5*7/10 +D5*fraghitnum2*9/10</f>
-        <v>80.8</v>
+        <f xml:space="preserve"> D5*E5*7/10 +D5*fraghitnum2*frag_damage*9/10</f>
+        <v>91.6</v>
       </c>
       <c r="U5" s="32">
         <f>ROUND(playerHealth/(T5),2)</f>
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="V5" s="23">
-        <f>D5*((E5+fraghitnum2)-0.4)</f>
-        <v>111.6</v>
+        <f>D5*((E5+fraghitnum2*frag_damage)-0.4)</f>
+        <v>123.6</v>
       </c>
       <c r="W5" s="32">
         <f>ROUND(playerHealth/(V5),2)</f>
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="X5" s="23"/>
       <c r="Y5" t="s">
@@ -3967,10 +3968,10 @@
       <c r="R60" t="s">
         <v>123</v>
       </c>
-      <c r="AF60" s="98"/>
-      <c r="AG60" s="98"/>
-      <c r="AH60" s="98"/>
-      <c r="AI60" s="98"/>
+      <c r="AF60" s="100"/>
+      <c r="AG60" s="100"/>
+      <c r="AH60" s="100"/>
+      <c r="AI60" s="100"/>
     </row>
     <row r="61" spans="1:35" x14ac:dyDescent="0.45">
       <c r="N61">
@@ -3988,19 +3989,19 @@
       <c r="R61">
         <v>10</v>
       </c>
-      <c r="AF61" s="99"/>
-      <c r="AG61" s="99"/>
-      <c r="AH61" s="99"/>
-      <c r="AI61" s="99"/>
+      <c r="AF61" s="101"/>
+      <c r="AG61" s="101"/>
+      <c r="AH61" s="101"/>
+      <c r="AI61" s="101"/>
     </row>
     <row r="62" spans="1:35" x14ac:dyDescent="0.45">
       <c r="H62" t="s">
         <v>105</v>
       </c>
-      <c r="I62" s="97" t="s">
+      <c r="I62" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="J62" s="97"/>
+      <c r="J62" s="99"/>
       <c r="K62" t="s">
         <v>110</v>
       </c>
@@ -4008,17 +4009,17 @@
         <f>COUNTIF(G3:G35,"&gt;0")</f>
         <v>21</v>
       </c>
-      <c r="N62" s="96" t="s">
+      <c r="N62" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="O62" s="96"/>
-      <c r="P62" s="96"/>
-      <c r="Q62" s="96"/>
-      <c r="R62" s="96"/>
-      <c r="AF62" s="99"/>
-      <c r="AG62" s="99"/>
-      <c r="AH62" s="99"/>
-      <c r="AI62" s="99"/>
+      <c r="O62" s="98"/>
+      <c r="P62" s="98"/>
+      <c r="Q62" s="98"/>
+      <c r="R62" s="98"/>
+      <c r="AF62" s="101"/>
+      <c r="AG62" s="101"/>
+      <c r="AH62" s="101"/>
+      <c r="AI62" s="101"/>
     </row>
     <row r="63" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A63" s="48" t="s">
@@ -4068,14 +4069,14 @@
         <v>122</v>
       </c>
       <c r="S63" s="49"/>
-      <c r="T63" s="98" t="s">
+      <c r="T63" s="100" t="s">
         <v>126</v>
       </c>
-      <c r="U63" s="98"/>
-      <c r="AF63" s="99"/>
-      <c r="AG63" s="99"/>
-      <c r="AH63" s="99"/>
-      <c r="AI63" s="99"/>
+      <c r="U63" s="100"/>
+      <c r="AF63" s="101"/>
+      <c r="AG63" s="101"/>
+      <c r="AH63" s="101"/>
+      <c r="AI63" s="101"/>
     </row>
     <row r="64" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A64" s="22" t="s">
@@ -4128,20 +4129,20 @@
         <f t="shared" ref="Q64:Q70" si="14">ROUND(H64/DPS_cap,2)*10</f>
         <v>0</v>
       </c>
-      <c r="R64" s="100">
+      <c r="R64" s="96">
         <f>SUM(N64:Q64)</f>
         <v>10.5</v>
       </c>
       <c r="S64" s="86"/>
-      <c r="T64" s="101">
+      <c r="T64" s="97">
         <f>Q64+N64+O64</f>
         <v>4.5</v>
       </c>
-      <c r="U64" s="101"/>
-      <c r="AF64" s="99"/>
-      <c r="AG64" s="99"/>
-      <c r="AH64" s="99"/>
-      <c r="AI64" s="99"/>
+      <c r="U64" s="97"/>
+      <c r="AF64" s="101"/>
+      <c r="AG64" s="101"/>
+      <c r="AH64" s="101"/>
+      <c r="AI64" s="101"/>
     </row>
     <row r="65" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A65" s="22" t="s">
@@ -4194,20 +4195,20 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="R65" s="100">
+      <c r="R65" s="96">
         <f t="shared" ref="R65:R69" si="16">SUM(N65:Q65)</f>
         <v>12.3</v>
       </c>
       <c r="S65" s="86"/>
-      <c r="T65" s="101">
+      <c r="T65" s="97">
         <f t="shared" ref="T65:T70" si="17">Q65+N65+O65</f>
         <v>9.3000000000000007</v>
       </c>
-      <c r="U65" s="101"/>
-      <c r="AF65" s="99"/>
-      <c r="AG65" s="99"/>
-      <c r="AH65" s="99"/>
-      <c r="AI65" s="99"/>
+      <c r="U65" s="97"/>
+      <c r="AF65" s="101"/>
+      <c r="AG65" s="101"/>
+      <c r="AH65" s="101"/>
+      <c r="AI65" s="101"/>
     </row>
     <row r="66" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A66" s="22" t="s">
@@ -4260,20 +4261,20 @@
         <f t="shared" si="14"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="R66" s="100">
+      <c r="R66" s="96">
         <f t="shared" si="16"/>
         <v>14.399999999999999</v>
       </c>
       <c r="S66" s="86"/>
-      <c r="T66" s="101">
+      <c r="T66" s="97">
         <f t="shared" si="17"/>
         <v>10.399999999999999</v>
       </c>
-      <c r="U66" s="101"/>
-      <c r="AF66" s="99"/>
-      <c r="AG66" s="99"/>
-      <c r="AH66" s="99"/>
-      <c r="AI66" s="99"/>
+      <c r="U66" s="97"/>
+      <c r="AF66" s="101"/>
+      <c r="AG66" s="101"/>
+      <c r="AH66" s="101"/>
+      <c r="AI66" s="101"/>
     </row>
     <row r="67" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A67" s="22" t="s">
@@ -4326,16 +4327,16 @@
         <f t="shared" si="14"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="R67" s="100">
+      <c r="R67" s="96">
         <f t="shared" si="16"/>
         <v>18.700000000000003</v>
       </c>
       <c r="S67" s="86"/>
-      <c r="T67" s="101">
+      <c r="T67" s="97">
         <f t="shared" si="17"/>
         <v>17.7</v>
       </c>
-      <c r="U67" s="101"/>
+      <c r="U67" s="97"/>
     </row>
     <row r="68" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A68" s="22" t="s">
@@ -4345,7 +4346,7 @@
         <v>52</v>
       </c>
       <c r="C68" s="86">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="D68" s="86">
         <v>0</v>
@@ -4374,7 +4375,7 @@
       <c r="M68" s="86"/>
       <c r="N68" s="87">
         <f t="shared" si="11"/>
-        <v>6.2</v>
+        <v>7.4</v>
       </c>
       <c r="O68" s="89">
         <f t="shared" si="12"/>
@@ -4388,16 +4389,16 @@
         <f t="shared" si="14"/>
         <v>2.7</v>
       </c>
-      <c r="R68" s="100">
+      <c r="R68" s="96">
         <f t="shared" si="16"/>
-        <v>15.899999999999999</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="S68" s="86"/>
-      <c r="T68" s="101">
+      <c r="T68" s="97">
         <f t="shared" si="17"/>
-        <v>15.9</v>
-      </c>
-      <c r="U68" s="101"/>
+        <v>17.100000000000001</v>
+      </c>
+      <c r="U68" s="97"/>
     </row>
     <row r="69" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A69" s="22" t="s">
@@ -4450,16 +4451,16 @@
         <f t="shared" si="14"/>
         <v>1.7999999999999998</v>
       </c>
-      <c r="R69" s="100">
+      <c r="R69" s="96">
         <f t="shared" si="16"/>
         <v>18.8</v>
       </c>
       <c r="S69" s="86"/>
-      <c r="T69" s="101">
+      <c r="T69" s="97">
         <f t="shared" si="17"/>
         <v>8.8000000000000007</v>
       </c>
-      <c r="U69" s="101"/>
+      <c r="U69" s="97"/>
     </row>
     <row r="70" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A70" s="22" t="s">
@@ -4512,24 +4513,19 @@
         <f t="shared" si="14"/>
         <v>9.6</v>
       </c>
-      <c r="R70" s="100">
+      <c r="R70" s="96">
         <f t="shared" ref="R70" si="19">SUM(N70:Q70)</f>
         <v>25.799999999999997</v>
       </c>
       <c r="S70" s="86"/>
-      <c r="T70" s="101">
+      <c r="T70" s="97">
         <f t="shared" si="17"/>
         <v>17.799999999999997</v>
       </c>
-      <c r="U70" s="101"/>
+      <c r="U70" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="T67:U67"/>
-    <mergeCell ref="T68:U68"/>
-    <mergeCell ref="T66:U66"/>
-    <mergeCell ref="T69:U69"/>
-    <mergeCell ref="T70:U70"/>
     <mergeCell ref="N62:R62"/>
     <mergeCell ref="I62:J62"/>
     <mergeCell ref="AF60:AI60"/>
@@ -4542,6 +4538,11 @@
     <mergeCell ref="T63:U63"/>
     <mergeCell ref="T64:U64"/>
     <mergeCell ref="T65:U65"/>
+    <mergeCell ref="T67:U67"/>
+    <mergeCell ref="T68:U68"/>
+    <mergeCell ref="T66:U66"/>
+    <mergeCell ref="T69:U69"/>
+    <mergeCell ref="T70:U70"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gun infos.xlsx
+++ b/gun infos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kingc\web\blackout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7992B604-F366-4F3F-8139-304E8F1D4F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F81B20-76D3-433C-9FC2-C54FBD501EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="0" windowWidth="33240" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="135">
   <si>
     <t>Weapon info</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -568,6 +568,38 @@
   </si>
   <si>
     <t>Stopping power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Becareful not to shoot yourself!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Words</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannot Move…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fastest Vehicle in the game!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slowest moving thing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannot shoot…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weakest, but pretty fast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Has a powerful machine gun attached to it</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1289,9 +1321,6 @@
     <xf numFmtId="0" fontId="28" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1302,6 +1331,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1586,8 +1618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P33" sqref="P33"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P53" sqref="P53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3968,10 +4000,10 @@
       <c r="R60" t="s">
         <v>123</v>
       </c>
-      <c r="AF60" s="100"/>
-      <c r="AG60" s="100"/>
-      <c r="AH60" s="100"/>
-      <c r="AI60" s="100"/>
+      <c r="AF60" s="99"/>
+      <c r="AG60" s="99"/>
+      <c r="AH60" s="99"/>
+      <c r="AI60" s="99"/>
     </row>
     <row r="61" spans="1:35" x14ac:dyDescent="0.45">
       <c r="N61">
@@ -3989,19 +4021,19 @@
       <c r="R61">
         <v>10</v>
       </c>
-      <c r="AF61" s="101"/>
-      <c r="AG61" s="101"/>
-      <c r="AH61" s="101"/>
-      <c r="AI61" s="101"/>
+      <c r="AF61" s="100"/>
+      <c r="AG61" s="100"/>
+      <c r="AH61" s="100"/>
+      <c r="AI61" s="100"/>
     </row>
     <row r="62" spans="1:35" x14ac:dyDescent="0.45">
       <c r="H62" t="s">
         <v>105</v>
       </c>
-      <c r="I62" s="99" t="s">
+      <c r="I62" s="98" t="s">
         <v>109</v>
       </c>
-      <c r="J62" s="99"/>
+      <c r="J62" s="98"/>
       <c r="K62" t="s">
         <v>110</v>
       </c>
@@ -4009,17 +4041,17 @@
         <f>COUNTIF(G3:G35,"&gt;0")</f>
         <v>21</v>
       </c>
-      <c r="N62" s="98" t="s">
+      <c r="N62" s="97" t="s">
         <v>115</v>
       </c>
-      <c r="O62" s="98"/>
-      <c r="P62" s="98"/>
-      <c r="Q62" s="98"/>
-      <c r="R62" s="98"/>
-      <c r="AF62" s="101"/>
-      <c r="AG62" s="101"/>
-      <c r="AH62" s="101"/>
-      <c r="AI62" s="101"/>
+      <c r="O62" s="97"/>
+      <c r="P62" s="97"/>
+      <c r="Q62" s="97"/>
+      <c r="R62" s="97"/>
+      <c r="AF62" s="100"/>
+      <c r="AG62" s="100"/>
+      <c r="AH62" s="100"/>
+      <c r="AI62" s="100"/>
     </row>
     <row r="63" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A63" s="48" t="s">
@@ -4069,14 +4101,20 @@
         <v>122</v>
       </c>
       <c r="S63" s="49"/>
-      <c r="T63" s="100" t="s">
+      <c r="T63" s="99" t="s">
         <v>126</v>
       </c>
-      <c r="U63" s="100"/>
-      <c r="AF63" s="101"/>
-      <c r="AG63" s="101"/>
-      <c r="AH63" s="101"/>
-      <c r="AI63" s="101"/>
+      <c r="U63" s="99"/>
+      <c r="V63" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="W63" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF63" s="100"/>
+      <c r="AG63" s="100"/>
+      <c r="AH63" s="100"/>
+      <c r="AI63" s="100"/>
     </row>
     <row r="64" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A64" s="22" t="s">
@@ -4134,15 +4172,21 @@
         <v>10.5</v>
       </c>
       <c r="S64" s="86"/>
-      <c r="T64" s="97">
+      <c r="T64" s="101">
         <f>Q64+N64+O64</f>
         <v>4.5</v>
       </c>
-      <c r="U64" s="97"/>
-      <c r="AF64" s="101"/>
-      <c r="AG64" s="101"/>
-      <c r="AH64" s="101"/>
-      <c r="AI64" s="101"/>
+      <c r="U64" s="101"/>
+      <c r="V64" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="W64" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF64" s="100"/>
+      <c r="AG64" s="100"/>
+      <c r="AH64" s="100"/>
+      <c r="AI64" s="100"/>
     </row>
     <row r="65" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A65" s="22" t="s">
@@ -4200,15 +4244,21 @@
         <v>12.3</v>
       </c>
       <c r="S65" s="86"/>
-      <c r="T65" s="97">
+      <c r="T65" s="101">
         <f t="shared" ref="T65:T70" si="17">Q65+N65+O65</f>
         <v>9.3000000000000007</v>
       </c>
-      <c r="U65" s="97"/>
-      <c r="AF65" s="101"/>
-      <c r="AG65" s="101"/>
-      <c r="AH65" s="101"/>
-      <c r="AI65" s="101"/>
+      <c r="U65" s="101"/>
+      <c r="V65" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="W65" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF65" s="100"/>
+      <c r="AG65" s="100"/>
+      <c r="AH65" s="100"/>
+      <c r="AI65" s="100"/>
     </row>
     <row r="66" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A66" s="22" t="s">
@@ -4266,15 +4316,21 @@
         <v>14.399999999999999</v>
       </c>
       <c r="S66" s="86"/>
-      <c r="T66" s="97">
+      <c r="T66" s="101">
         <f t="shared" si="17"/>
         <v>10.399999999999999</v>
       </c>
-      <c r="U66" s="97"/>
-      <c r="AF66" s="101"/>
-      <c r="AG66" s="101"/>
-      <c r="AH66" s="101"/>
-      <c r="AI66" s="101"/>
+      <c r="U66" s="101"/>
+      <c r="V66" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="W66" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF66" s="100"/>
+      <c r="AG66" s="100"/>
+      <c r="AH66" s="100"/>
+      <c r="AI66" s="100"/>
     </row>
     <row r="67" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A67" s="22" t="s">
@@ -4332,11 +4388,17 @@
         <v>18.700000000000003</v>
       </c>
       <c r="S67" s="86"/>
-      <c r="T67" s="97">
+      <c r="T67" s="101">
         <f t="shared" si="17"/>
         <v>17.7</v>
       </c>
-      <c r="U67" s="97"/>
+      <c r="U67" s="101"/>
+      <c r="V67" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="W67" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="68" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A68" s="22" t="s">
@@ -4394,11 +4456,17 @@
         <v>17.100000000000001</v>
       </c>
       <c r="S68" s="86"/>
-      <c r="T68" s="97">
+      <c r="T68" s="101">
         <f t="shared" si="17"/>
         <v>17.100000000000001</v>
       </c>
-      <c r="U68" s="97"/>
+      <c r="U68" s="101"/>
+      <c r="V68" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="W68" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="69" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A69" s="22" t="s">
@@ -4456,11 +4524,17 @@
         <v>18.8</v>
       </c>
       <c r="S69" s="86"/>
-      <c r="T69" s="97">
+      <c r="T69" s="101">
         <f t="shared" si="17"/>
         <v>8.8000000000000007</v>
       </c>
-      <c r="U69" s="97"/>
+      <c r="U69" s="101"/>
+      <c r="V69" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="W69" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="70" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A70" s="22" t="s">
@@ -4518,14 +4592,25 @@
         <v>25.799999999999997</v>
       </c>
       <c r="S70" s="86"/>
-      <c r="T70" s="97">
+      <c r="T70" s="101">
         <f t="shared" si="17"/>
         <v>17.799999999999997</v>
       </c>
-      <c r="U70" s="97"/>
+      <c r="U70" s="101"/>
+      <c r="V70" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="W70" t="s">
+        <v>127</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="T67:U67"/>
+    <mergeCell ref="T68:U68"/>
+    <mergeCell ref="T66:U66"/>
+    <mergeCell ref="T69:U69"/>
+    <mergeCell ref="T70:U70"/>
     <mergeCell ref="N62:R62"/>
     <mergeCell ref="I62:J62"/>
     <mergeCell ref="AF60:AI60"/>
@@ -4538,11 +4623,6 @@
     <mergeCell ref="T63:U63"/>
     <mergeCell ref="T64:U64"/>
     <mergeCell ref="T65:U65"/>
-    <mergeCell ref="T67:U67"/>
-    <mergeCell ref="T68:U68"/>
-    <mergeCell ref="T66:U66"/>
-    <mergeCell ref="T69:U69"/>
-    <mergeCell ref="T70:U70"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gun infos.xlsx
+++ b/gun infos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kingc\web\blackout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F81B20-76D3-433C-9FC2-C54FBD501EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAA2DAC-EE74-4C24-94B7-612B95AD999E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="0" windowWidth="33240" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,6 +24,7 @@
     <definedName name="health_cap">Sheet1!$N$61</definedName>
     <definedName name="player_radius">Sheet1!$B$60</definedName>
     <definedName name="playerHealth">Sheet1!$B$47</definedName>
+    <definedName name="shockWave_damage">Sheet1!$E$6</definedName>
     <definedName name="speed_cap">Sheet1!$P$61</definedName>
     <definedName name="tilesize">Sheet1!$B$48</definedName>
   </definedNames>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="136">
   <si>
     <t>Weapon info</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -600,6 +601,10 @@
   </si>
   <si>
     <t>Has a powerful machine gun attached to it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shockWave</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1321,6 +1326,9 @@
     <xf numFmtId="0" fontId="28" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1331,9 +1339,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1618,8 +1623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P53" sqref="P53"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1915,7 +1920,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="28">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F5" s="28">
         <v>4000</v>
@@ -1933,22 +1938,22 @@
         <v>87</v>
       </c>
       <c r="K5" s="28">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L5" s="23">
-        <f>ROUND(D5*(E5+fraghitnum2*frag_damage)/F5*1000,2)</f>
-        <v>31</v>
+        <f>ROUND(D5*(E5+fraghitnum2*shockWave_damage)/F5*1000,2)</f>
+        <v>35</v>
       </c>
       <c r="M5" s="23">
-        <f>ROUND(D5*(E5+fraghitnum2*frag_damage)/(F5+I5)*1000,2)</f>
-        <v>12.4</v>
+        <f>ROUND(D5*(E5+fraghitnum2*shockWave_damage)/(F5+I5)*1000,2)</f>
+        <v>14</v>
       </c>
       <c r="N5" s="23">
-        <f>D5*(E5+fraghitnum2*frag_damage)*H5</f>
-        <v>124</v>
+        <f>D5*(E5+fraghitnum2*shockWave_damage)*H5</f>
+        <v>140</v>
       </c>
       <c r="O5" s="29">
-        <f>ROUND(playerHealth/(D5*(E5+fraghitnum2*frag_damage)),1)</f>
+        <f>ROUND(playerHealth/(D5*(E5+fraghitnum2*shockWave_damage)),1)</f>
         <v>0.1</v>
       </c>
       <c r="P5" s="23">
@@ -1964,16 +1969,16 @@
       </c>
       <c r="S5" s="23"/>
       <c r="T5" s="23">
-        <f xml:space="preserve"> D5*E5*7/10 +D5*fraghitnum2*frag_damage*9/10</f>
-        <v>91.6</v>
+        <f xml:space="preserve"> D5*E5*7/10 +D5*fraghitnum2*shockWave_damage*7/10</f>
+        <v>98</v>
       </c>
       <c r="U5" s="32">
         <f>ROUND(playerHealth/(T5),2)</f>
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="V5" s="23">
-        <f>D5*((E5+fraghitnum2*frag_damage)-0.4)</f>
-        <v>123.6</v>
+        <f>D5*((E5+fraghitnum2*shockWave_damage)-0.4)</f>
+        <v>139.6</v>
       </c>
       <c r="W5" s="32">
         <f>ROUND(playerHealth/(V5),2)</f>
@@ -1985,11 +1990,15 @@
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A6" s="27"/>
+      <c r="A6" s="27" t="s">
+        <v>135</v>
+      </c>
       <c r="B6" s="82"/>
       <c r="C6" s="72"/>
       <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
+      <c r="E6" s="72">
+        <v>15</v>
+      </c>
       <c r="F6" s="72"/>
       <c r="G6" s="72"/>
       <c r="H6" s="72"/>
@@ -4000,10 +4009,10 @@
       <c r="R60" t="s">
         <v>123</v>
       </c>
-      <c r="AF60" s="99"/>
-      <c r="AG60" s="99"/>
-      <c r="AH60" s="99"/>
-      <c r="AI60" s="99"/>
+      <c r="AF60" s="100"/>
+      <c r="AG60" s="100"/>
+      <c r="AH60" s="100"/>
+      <c r="AI60" s="100"/>
     </row>
     <row r="61" spans="1:35" x14ac:dyDescent="0.45">
       <c r="N61">
@@ -4021,19 +4030,19 @@
       <c r="R61">
         <v>10</v>
       </c>
-      <c r="AF61" s="100"/>
-      <c r="AG61" s="100"/>
-      <c r="AH61" s="100"/>
-      <c r="AI61" s="100"/>
+      <c r="AF61" s="101"/>
+      <c r="AG61" s="101"/>
+      <c r="AH61" s="101"/>
+      <c r="AI61" s="101"/>
     </row>
     <row r="62" spans="1:35" x14ac:dyDescent="0.45">
       <c r="H62" t="s">
         <v>105</v>
       </c>
-      <c r="I62" s="98" t="s">
+      <c r="I62" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="J62" s="98"/>
+      <c r="J62" s="99"/>
       <c r="K62" t="s">
         <v>110</v>
       </c>
@@ -4041,17 +4050,17 @@
         <f>COUNTIF(G3:G35,"&gt;0")</f>
         <v>21</v>
       </c>
-      <c r="N62" s="97" t="s">
+      <c r="N62" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="O62" s="97"/>
-      <c r="P62" s="97"/>
-      <c r="Q62" s="97"/>
-      <c r="R62" s="97"/>
-      <c r="AF62" s="100"/>
-      <c r="AG62" s="100"/>
-      <c r="AH62" s="100"/>
-      <c r="AI62" s="100"/>
+      <c r="O62" s="98"/>
+      <c r="P62" s="98"/>
+      <c r="Q62" s="98"/>
+      <c r="R62" s="98"/>
+      <c r="AF62" s="101"/>
+      <c r="AG62" s="101"/>
+      <c r="AH62" s="101"/>
+      <c r="AI62" s="101"/>
     </row>
     <row r="63" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A63" s="48" t="s">
@@ -4101,20 +4110,20 @@
         <v>122</v>
       </c>
       <c r="S63" s="49"/>
-      <c r="T63" s="99" t="s">
+      <c r="T63" s="100" t="s">
         <v>126</v>
       </c>
-      <c r="U63" s="99"/>
+      <c r="U63" s="100"/>
       <c r="V63" s="49" t="s">
         <v>24</v>
       </c>
       <c r="W63" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="AF63" s="100"/>
-      <c r="AG63" s="100"/>
-      <c r="AH63" s="100"/>
-      <c r="AI63" s="100"/>
+      <c r="AF63" s="101"/>
+      <c r="AG63" s="101"/>
+      <c r="AH63" s="101"/>
+      <c r="AI63" s="101"/>
     </row>
     <row r="64" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A64" s="22" t="s">
@@ -4172,21 +4181,21 @@
         <v>10.5</v>
       </c>
       <c r="S64" s="86"/>
-      <c r="T64" s="101">
+      <c r="T64" s="97">
         <f>Q64+N64+O64</f>
         <v>4.5</v>
       </c>
-      <c r="U64" s="101"/>
+      <c r="U64" s="97"/>
       <c r="V64" s="33" t="s">
         <v>31</v>
       </c>
       <c r="W64" t="s">
         <v>133</v>
       </c>
-      <c r="AF64" s="100"/>
-      <c r="AG64" s="100"/>
-      <c r="AH64" s="100"/>
-      <c r="AI64" s="100"/>
+      <c r="AF64" s="101"/>
+      <c r="AG64" s="101"/>
+      <c r="AH64" s="101"/>
+      <c r="AI64" s="101"/>
     </row>
     <row r="65" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A65" s="22" t="s">
@@ -4244,21 +4253,21 @@
         <v>12.3</v>
       </c>
       <c r="S65" s="86"/>
-      <c r="T65" s="101">
+      <c r="T65" s="97">
         <f t="shared" ref="T65:T70" si="17">Q65+N65+O65</f>
         <v>9.3000000000000007</v>
       </c>
-      <c r="U65" s="101"/>
+      <c r="U65" s="97"/>
       <c r="V65" s="33" t="s">
         <v>31</v>
       </c>
       <c r="W65" t="s">
         <v>132</v>
       </c>
-      <c r="AF65" s="100"/>
-      <c r="AG65" s="100"/>
-      <c r="AH65" s="100"/>
-      <c r="AI65" s="100"/>
+      <c r="AF65" s="101"/>
+      <c r="AG65" s="101"/>
+      <c r="AH65" s="101"/>
+      <c r="AI65" s="101"/>
     </row>
     <row r="66" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A66" s="22" t="s">
@@ -4316,21 +4325,21 @@
         <v>14.399999999999999</v>
       </c>
       <c r="S66" s="86"/>
-      <c r="T66" s="101">
+      <c r="T66" s="97">
         <f t="shared" si="17"/>
         <v>10.399999999999999</v>
       </c>
-      <c r="U66" s="101"/>
+      <c r="U66" s="97"/>
       <c r="V66" s="33" t="s">
         <v>31</v>
       </c>
       <c r="W66" t="s">
         <v>134</v>
       </c>
-      <c r="AF66" s="100"/>
-      <c r="AG66" s="100"/>
-      <c r="AH66" s="100"/>
-      <c r="AI66" s="100"/>
+      <c r="AF66" s="101"/>
+      <c r="AG66" s="101"/>
+      <c r="AH66" s="101"/>
+      <c r="AI66" s="101"/>
     </row>
     <row r="67" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A67" s="22" t="s">
@@ -4388,11 +4397,11 @@
         <v>18.700000000000003</v>
       </c>
       <c r="S67" s="86"/>
-      <c r="T67" s="101">
+      <c r="T67" s="97">
         <f t="shared" si="17"/>
         <v>17.7</v>
       </c>
-      <c r="U67" s="101"/>
+      <c r="U67" s="97"/>
       <c r="V67" s="26" t="s">
         <v>30</v>
       </c>
@@ -4456,11 +4465,11 @@
         <v>17.100000000000001</v>
       </c>
       <c r="S68" s="86"/>
-      <c r="T68" s="101">
+      <c r="T68" s="97">
         <f t="shared" si="17"/>
         <v>17.100000000000001</v>
       </c>
-      <c r="U68" s="101"/>
+      <c r="U68" s="97"/>
       <c r="V68" s="33" t="s">
         <v>31</v>
       </c>
@@ -4524,11 +4533,11 @@
         <v>18.8</v>
       </c>
       <c r="S69" s="86"/>
-      <c r="T69" s="101">
+      <c r="T69" s="97">
         <f t="shared" si="17"/>
         <v>8.8000000000000007</v>
       </c>
-      <c r="U69" s="101"/>
+      <c r="U69" s="97"/>
       <c r="V69" s="26" t="s">
         <v>30</v>
       </c>
@@ -4592,11 +4601,11 @@
         <v>25.799999999999997</v>
       </c>
       <c r="S70" s="86"/>
-      <c r="T70" s="101">
+      <c r="T70" s="97">
         <f t="shared" si="17"/>
         <v>17.799999999999997</v>
       </c>
-      <c r="U70" s="101"/>
+      <c r="U70" s="97"/>
       <c r="V70" s="30" t="s">
         <v>80</v>
       </c>
@@ -4606,11 +4615,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="T67:U67"/>
-    <mergeCell ref="T68:U68"/>
-    <mergeCell ref="T66:U66"/>
-    <mergeCell ref="T69:U69"/>
-    <mergeCell ref="T70:U70"/>
     <mergeCell ref="N62:R62"/>
     <mergeCell ref="I62:J62"/>
     <mergeCell ref="AF60:AI60"/>
@@ -4623,6 +4627,11 @@
     <mergeCell ref="T63:U63"/>
     <mergeCell ref="T64:U64"/>
     <mergeCell ref="T65:U65"/>
+    <mergeCell ref="T67:U67"/>
+    <mergeCell ref="T68:U68"/>
+    <mergeCell ref="T66:U66"/>
+    <mergeCell ref="T69:U69"/>
+    <mergeCell ref="T70:U70"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gun infos.xlsx
+++ b/gun infos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kingc\web\blackout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAA2DAC-EE74-4C24-94B7-612B95AD999E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1521A332-F3F7-4AB7-B407-D15EFACF9ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="0" windowWidth="33240" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="146">
   <si>
     <t>Weapon info</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -368,10 +368,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>More friction applied</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>projectile explodes into 12 fragments / More friction applied</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -605,6 +601,50 @@
   </si>
   <si>
     <t>shockWave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>More friction applied / barrel &amp; vehicle explosion uses this</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Extreme friction applied / Mine &amp; TankBuster uses shockWave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Placeable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>barrel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get close for certain amt of time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>barrel hp&lt;=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Toggle method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlastNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Explosion Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total damage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -612,7 +652,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -878,6 +918,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="25">
     <fill>
@@ -1066,7 +1114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1326,20 +1374,26 @@
     <xf numFmtId="0" fontId="28" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1621,15 +1675,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI70"/>
+  <dimension ref="A1:AI76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O36" sqref="O36"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H79" sqref="H79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="20.9140625" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" customWidth="1"/>
     <col min="11" max="11" width="10.08203125" customWidth="1"/>
     <col min="14" max="14" width="9.33203125" customWidth="1"/>
   </cols>
@@ -1692,7 +1747,7 @@
         <v>17</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L2" s="12" t="s">
         <v>18</v>
@@ -1731,7 +1786,7 @@
         <v>29</v>
       </c>
       <c r="AF2" s="65" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG2" s="50"/>
       <c r="AH2" s="50"/>
@@ -1816,10 +1871,10 @@
       </c>
       <c r="X3" s="23"/>
       <c r="Y3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AF3" s="84" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG3" s="84"/>
       <c r="AH3" s="84"/>
@@ -1882,7 +1937,7 @@
         <v>0.375</v>
       </c>
       <c r="R4" s="37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S4" s="28"/>
       <c r="T4" s="23">
@@ -1903,12 +1958,12 @@
       </c>
       <c r="X4" s="28"/>
       <c r="Y4" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" s="57">
         <v>832</v>
@@ -1926,7 +1981,7 @@
         <v>4000</v>
       </c>
       <c r="G5" s="28">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H5" s="28">
         <v>1</v>
@@ -1935,7 +1990,7 @@
         <v>6000</v>
       </c>
       <c r="J5" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K5" s="28">
         <v>6</v>
@@ -1958,14 +2013,14 @@
       </c>
       <c r="P5" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q5" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R5" s="30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S5" s="23"/>
       <c r="T5" s="23">
@@ -1986,38 +2041,89 @@
       </c>
       <c r="X5" s="23"/>
       <c r="Y5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="B6" s="82"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
+        <v>134</v>
+      </c>
+      <c r="B6" s="64">
+        <v>192</v>
+      </c>
+      <c r="C6" s="72">
+        <v>6</v>
+      </c>
+      <c r="D6" s="72">
+        <v>1</v>
+      </c>
       <c r="E6" s="72">
         <v>15</v>
       </c>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
+      <c r="F6" s="72">
+        <v>100</v>
+      </c>
+      <c r="G6" s="72">
+        <v>18</v>
+      </c>
+      <c r="H6" s="72">
+        <v>1</v>
+      </c>
+      <c r="I6" s="72">
+        <v>1400</v>
+      </c>
+      <c r="J6" s="72" t="s">
+        <v>134</v>
+      </c>
       <c r="K6" s="72"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="72"/>
+      <c r="L6" s="23">
+        <f>ROUND(D6*E6/F6*1000,2)</f>
+        <v>150</v>
+      </c>
+      <c r="M6" s="23">
+        <f>ROUND(D6*E6/(F6+I6)*1000,2)</f>
+        <v>10</v>
+      </c>
+      <c r="N6" s="23">
+        <f>D6*E6*H6</f>
+        <v>15</v>
+      </c>
+      <c r="O6" s="38">
+        <f>ROUND(playerHealth/(D6*E6),1)</f>
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="23">
+        <f t="shared" ref="P6" si="4">-(FLOOR(G6/6,1)-1)</f>
+        <v>-2</v>
+      </c>
+      <c r="Q6" s="23">
+        <f t="shared" ref="Q6" si="5">ROUND(C6/G6,3)</f>
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="R6" s="37" t="s">
+        <v>78</v>
+      </c>
       <c r="S6" s="72"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="23"/>
-      <c r="W6" s="36"/>
+      <c r="T6" s="23">
+        <f t="shared" ref="T6" si="6" xml:space="preserve"> D6*E6*7/10</f>
+        <v>10.5</v>
+      </c>
+      <c r="U6" s="39">
+        <f>ROUND(playerHealth/(T6),2)</f>
+        <v>0.76</v>
+      </c>
+      <c r="V6" s="23">
+        <f t="shared" ref="V6" si="7">D6*(E6-0.4)</f>
+        <v>14.6</v>
+      </c>
+      <c r="W6" s="31">
+        <f>ROUND(playerHealth/(V6),2)</f>
+        <v>0.55000000000000004</v>
+      </c>
       <c r="X6" s="72"/>
+      <c r="Y6" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="27"/>
@@ -2210,7 +2316,7 @@
       </c>
       <c r="S11" s="23"/>
       <c r="T11" s="23">
-        <f t="shared" ref="T11" si="4" xml:space="preserve"> D11*E11*9/10</f>
+        <f t="shared" ref="T11" si="8" xml:space="preserve"> D11*E11*9/10</f>
         <v>2.7</v>
       </c>
       <c r="U11" s="34">
@@ -2597,7 +2703,7 @@
         <v>39</v>
       </c>
       <c r="AF17" s="84" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG17" s="84"/>
       <c r="AH17" s="84"/>
@@ -2840,7 +2946,7 @@
       </c>
       <c r="X20" s="23"/>
       <c r="AF20" s="84" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AG20" s="84"/>
       <c r="AH20" s="84"/>
@@ -3488,7 +3594,7 @@
       <c r="R33" s="37"/>
       <c r="S33" s="23"/>
       <c r="T33" s="23">
-        <f t="shared" ref="T33:T35" si="5" xml:space="preserve"> D33*E33*9/10</f>
+        <f t="shared" ref="T33:T35" si="9" xml:space="preserve"> D33*E33*9/10</f>
         <v>0.18</v>
       </c>
       <c r="U33" s="39">
@@ -3496,7 +3602,7 @@
         <v>44.44</v>
       </c>
       <c r="V33" s="23">
-        <f t="shared" ref="V33:V34" si="6">D33*(E33-0.2)</f>
+        <f t="shared" ref="V33:V34" si="10">D33*(E33-0.2)</f>
         <v>0</v>
       </c>
       <c r="W33" s="39"/>
@@ -3553,7 +3659,7 @@
       <c r="R34" s="37"/>
       <c r="S34" s="23"/>
       <c r="T34" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.36</v>
       </c>
       <c r="U34" s="39">
@@ -3561,7 +3667,7 @@
         <v>22.22</v>
       </c>
       <c r="V34" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.2</v>
       </c>
       <c r="W34" s="39">
@@ -3601,7 +3707,7 @@
       <c r="J35" s="23"/>
       <c r="K35" s="23"/>
       <c r="L35" s="23">
-        <f t="shared" ref="L35" si="7">ROUND(D35*E35/F35*1000,3)</f>
+        <f t="shared" ref="L35" si="11">ROUND(D35*E35/F35*1000,3)</f>
         <v>2</v>
       </c>
       <c r="M35" s="23">
@@ -3618,7 +3724,7 @@
       <c r="R35" s="37"/>
       <c r="S35" s="23"/>
       <c r="T35" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.9</v>
       </c>
       <c r="U35" s="38">
@@ -3798,12 +3904,12 @@
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B47">
         <v>8</v>
@@ -3830,10 +3936,10 @@
     </row>
     <row r="51" spans="1:35" x14ac:dyDescent="0.45">
       <c r="B51" s="70" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G51" s="69" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H51" s="69"/>
       <c r="I51" s="69"/>
@@ -3884,47 +3990,47 @@
         <v>74</v>
       </c>
       <c r="B53" s="42">
-        <f t="shared" ref="B53:L53" si="8">(2+B52)*tilesize</f>
+        <f t="shared" ref="B53:L53" si="12">(2+B52)*tilesize</f>
         <v>128</v>
       </c>
       <c r="C53" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>256</v>
       </c>
       <c r="D53" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>384</v>
       </c>
       <c r="E53" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>512</v>
       </c>
       <c r="F53" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>640</v>
       </c>
       <c r="G53" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>768</v>
       </c>
       <c r="H53" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>896</v>
       </c>
       <c r="I53" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1024</v>
       </c>
       <c r="J53" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1152</v>
       </c>
       <c r="K53" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1280</v>
       </c>
       <c r="L53" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1408</v>
       </c>
     </row>
@@ -3933,86 +4039,86 @@
         <v>75</v>
       </c>
       <c r="B54" s="53">
-        <f t="shared" ref="B54:L54" si="9">(2+B52+1)*tilesize+tilesize/2</f>
+        <f t="shared" ref="B54:L54" si="13">(2+B52+1)*tilesize+tilesize/2</f>
         <v>320</v>
       </c>
       <c r="C54" s="54">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>448</v>
       </c>
       <c r="D54" s="55">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>576</v>
       </c>
       <c r="E54" s="56">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>704</v>
       </c>
       <c r="F54" s="57">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>832</v>
       </c>
       <c r="G54" s="58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>960</v>
       </c>
       <c r="H54" s="59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1088</v>
       </c>
       <c r="I54" s="60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1216</v>
       </c>
       <c r="J54" s="61">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1344</v>
       </c>
       <c r="K54" s="62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1472</v>
       </c>
       <c r="L54" s="63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1600</v>
       </c>
     </row>
     <row r="55" spans="1:35" x14ac:dyDescent="0.45">
       <c r="C55" s="67" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D55" s="68"/>
       <c r="E55" s="66"/>
     </row>
     <row r="60" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B60">
         <v>16</v>
       </c>
       <c r="C60" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N60" t="s">
+        <v>117</v>
+      </c>
+      <c r="O60" t="s">
+        <v>120</v>
+      </c>
+      <c r="P60" t="s">
         <v>118</v>
       </c>
-      <c r="O60" t="s">
-        <v>121</v>
-      </c>
-      <c r="P60" t="s">
+      <c r="Q60" t="s">
         <v>119</v>
       </c>
-      <c r="Q60" t="s">
-        <v>120</v>
-      </c>
       <c r="R60" t="s">
-        <v>123</v>
-      </c>
-      <c r="AF60" s="100"/>
-      <c r="AG60" s="100"/>
-      <c r="AH60" s="100"/>
-      <c r="AI60" s="100"/>
+        <v>122</v>
+      </c>
+      <c r="AF60" s="99"/>
+      <c r="AG60" s="99"/>
+      <c r="AH60" s="99"/>
+      <c r="AI60" s="99"/>
     </row>
     <row r="61" spans="1:35" x14ac:dyDescent="0.45">
       <c r="N61">
@@ -4030,53 +4136,53 @@
       <c r="R61">
         <v>10</v>
       </c>
-      <c r="AF61" s="101"/>
-      <c r="AG61" s="101"/>
-      <c r="AH61" s="101"/>
-      <c r="AI61" s="101"/>
+      <c r="AF61" s="100"/>
+      <c r="AG61" s="100"/>
+      <c r="AH61" s="100"/>
+      <c r="AI61" s="100"/>
     </row>
     <row r="62" spans="1:35" x14ac:dyDescent="0.45">
       <c r="H62" t="s">
-        <v>105</v>
-      </c>
-      <c r="I62" s="99" t="s">
+        <v>104</v>
+      </c>
+      <c r="I62" s="98" t="s">
+        <v>108</v>
+      </c>
+      <c r="J62" s="98"/>
+      <c r="K62" t="s">
         <v>109</v>
-      </c>
-      <c r="J62" s="99"/>
-      <c r="K62" t="s">
-        <v>110</v>
       </c>
       <c r="L62" s="94">
         <f>COUNTIF(G3:G35,"&gt;0")</f>
-        <v>21</v>
-      </c>
-      <c r="N62" s="98" t="s">
-        <v>115</v>
-      </c>
-      <c r="O62" s="98"/>
-      <c r="P62" s="98"/>
-      <c r="Q62" s="98"/>
-      <c r="R62" s="98"/>
-      <c r="AF62" s="101"/>
-      <c r="AG62" s="101"/>
-      <c r="AH62" s="101"/>
-      <c r="AI62" s="101"/>
+        <v>22</v>
+      </c>
+      <c r="N62" s="97" t="s">
+        <v>114</v>
+      </c>
+      <c r="O62" s="97"/>
+      <c r="P62" s="97"/>
+      <c r="Q62" s="97"/>
+      <c r="R62" s="97"/>
+      <c r="AF62" s="100"/>
+      <c r="AG62" s="100"/>
+      <c r="AH62" s="100"/>
+      <c r="AI62" s="100"/>
     </row>
     <row r="63" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A63" s="48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B63" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C63" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="C63" s="49" t="s">
+      <c r="D63" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="D63" s="49" t="s">
+      <c r="E63" s="90" t="s">
         <v>100</v>
-      </c>
-      <c r="E63" s="90" t="s">
-        <v>101</v>
       </c>
       <c r="F63" s="90"/>
       <c r="G63" s="49"/>
@@ -4084,50 +4190,50 @@
         <v>18</v>
       </c>
       <c r="I63" s="90" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J63" s="90"/>
       <c r="K63" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="L63" s="49" t="s">
         <v>111</v>
-      </c>
-      <c r="L63" s="49" t="s">
-        <v>112</v>
       </c>
       <c r="M63" s="49"/>
       <c r="N63" s="92" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O63" s="49" t="s">
         <v>58</v>
       </c>
       <c r="P63" s="49" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q63" s="49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R63" s="93" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S63" s="49"/>
-      <c r="T63" s="100" t="s">
-        <v>126</v>
-      </c>
-      <c r="U63" s="100"/>
+      <c r="T63" s="99" t="s">
+        <v>125</v>
+      </c>
+      <c r="U63" s="99"/>
       <c r="V63" s="49" t="s">
         <v>24</v>
       </c>
       <c r="W63" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="AF63" s="101"/>
-      <c r="AG63" s="101"/>
-      <c r="AH63" s="101"/>
-      <c r="AI63" s="101"/>
+        <v>127</v>
+      </c>
+      <c r="AF63" s="100"/>
+      <c r="AG63" s="100"/>
+      <c r="AH63" s="100"/>
+      <c r="AI63" s="100"/>
     </row>
     <row r="64" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A64" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B64" s="85">
         <v>24</v>
@@ -4139,7 +4245,7 @@
         <v>6</v>
       </c>
       <c r="E64" s="83" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F64" s="83"/>
       <c r="G64" s="86"/>
@@ -4147,59 +4253,59 @@
         <v>0</v>
       </c>
       <c r="I64" s="86">
-        <f t="shared" ref="I64:I69" si="10">(B64-player_radius)*2</f>
+        <f t="shared" ref="I64:I69" si="14">(B64-player_radius)*2</f>
         <v>16</v>
       </c>
       <c r="J64" s="86"/>
       <c r="K64" s="86">
         <f>COUNTIF(G3:G35,"&gt;16")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L64" s="86">
         <f>21-K64</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M64" s="86"/>
       <c r="N64" s="87">
-        <f t="shared" ref="N64:N70" si="11">ROUND(C64/health_cap,2)*10</f>
+        <f t="shared" ref="N64:N70" si="15">ROUND(C64/health_cap,2)*10</f>
         <v>0.8</v>
       </c>
       <c r="O64" s="89">
-        <f t="shared" ref="O64:O70" si="12">ROUND(L64/guns_cap,2)*10</f>
-        <v>3.7</v>
+        <f t="shared" ref="O64:O70" si="16">ROUND(L64/guns_cap,2)*10</f>
+        <v>3.3000000000000003</v>
       </c>
       <c r="P64" s="91">
-        <f t="shared" ref="P64:P70" si="13">ROUND(D64/speed_cap,2)*10</f>
+        <f t="shared" ref="P64:P70" si="17">ROUND(D64/speed_cap,2)*10</f>
         <v>6</v>
       </c>
       <c r="Q64" s="88">
-        <f t="shared" ref="Q64:Q70" si="14">ROUND(H64/DPS_cap,2)*10</f>
+        <f t="shared" ref="Q64:Q70" si="18">ROUND(H64/DPS_cap,2)*10</f>
         <v>0</v>
       </c>
       <c r="R64" s="96">
         <f>SUM(N64:Q64)</f>
-        <v>10.5</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="S64" s="86"/>
-      <c r="T64" s="97">
+      <c r="T64" s="101">
         <f>Q64+N64+O64</f>
-        <v>4.5</v>
-      </c>
-      <c r="U64" s="97"/>
+        <v>4.1000000000000005</v>
+      </c>
+      <c r="U64" s="101"/>
       <c r="V64" s="33" t="s">
         <v>31</v>
       </c>
       <c r="W64" t="s">
-        <v>133</v>
-      </c>
-      <c r="AF64" s="101"/>
-      <c r="AG64" s="101"/>
-      <c r="AH64" s="101"/>
-      <c r="AI64" s="101"/>
+        <v>132</v>
+      </c>
+      <c r="AF64" s="100"/>
+      <c r="AG64" s="100"/>
+      <c r="AH64" s="100"/>
+      <c r="AI64" s="100"/>
     </row>
     <row r="65" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A65" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B65" s="85">
         <v>32</v>
@@ -4211,7 +4317,7 @@
         <v>3</v>
       </c>
       <c r="E65" s="83" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F65" s="83"/>
       <c r="G65" s="86"/>
@@ -4219,7 +4325,7 @@
         <v>0</v>
       </c>
       <c r="I65" s="86">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>32</v>
       </c>
       <c r="J65" s="86"/>
@@ -4228,50 +4334,50 @@
         <v>2</v>
       </c>
       <c r="L65" s="86">
-        <f t="shared" ref="L65:L68" si="15">21-K65</f>
+        <f t="shared" ref="L65:L68" si="19">21-K65</f>
         <v>19</v>
       </c>
       <c r="M65" s="86"/>
       <c r="N65" s="87">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="O65" s="89">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>6.3</v>
       </c>
       <c r="P65" s="91">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="Q65" s="88">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R65" s="96">
-        <f t="shared" ref="R65:R69" si="16">SUM(N65:Q65)</f>
+        <f t="shared" ref="R65:R69" si="20">SUM(N65:Q65)</f>
         <v>12.3</v>
       </c>
       <c r="S65" s="86"/>
-      <c r="T65" s="97">
-        <f t="shared" ref="T65:T70" si="17">Q65+N65+O65</f>
+      <c r="T65" s="101">
+        <f t="shared" ref="T65:T70" si="21">Q65+N65+O65</f>
         <v>9.3000000000000007</v>
       </c>
-      <c r="U65" s="97"/>
+      <c r="U65" s="101"/>
       <c r="V65" s="33" t="s">
         <v>31</v>
       </c>
       <c r="W65" t="s">
-        <v>132</v>
-      </c>
-      <c r="AF65" s="101"/>
-      <c r="AG65" s="101"/>
-      <c r="AH65" s="101"/>
-      <c r="AI65" s="101"/>
+        <v>131</v>
+      </c>
+      <c r="AF65" s="100"/>
+      <c r="AG65" s="100"/>
+      <c r="AH65" s="100"/>
+      <c r="AI65" s="100"/>
     </row>
     <row r="66" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A66" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B66" s="86">
         <v>30</v>
@@ -4291,7 +4397,7 @@
         <v>11.11</v>
       </c>
       <c r="I66" s="86">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>28</v>
       </c>
       <c r="J66" s="86"/>
@@ -4300,50 +4406,50 @@
         <v>4</v>
       </c>
       <c r="L66" s="86">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>17</v>
       </c>
       <c r="M66" s="86"/>
       <c r="N66" s="87">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>2.5</v>
       </c>
       <c r="O66" s="89">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>5.6999999999999993</v>
       </c>
       <c r="P66" s="91">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="Q66" s="88">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="R66" s="96">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>14.399999999999999</v>
       </c>
       <c r="S66" s="86"/>
-      <c r="T66" s="97">
-        <f t="shared" si="17"/>
+      <c r="T66" s="101">
+        <f t="shared" si="21"/>
         <v>10.399999999999999</v>
       </c>
-      <c r="U66" s="97"/>
+      <c r="U66" s="101"/>
       <c r="V66" s="33" t="s">
         <v>31</v>
       </c>
       <c r="W66" t="s">
-        <v>134</v>
-      </c>
-      <c r="AF66" s="101"/>
-      <c r="AG66" s="101"/>
-      <c r="AH66" s="101"/>
-      <c r="AI66" s="101"/>
+        <v>133</v>
+      </c>
+      <c r="AF66" s="100"/>
+      <c r="AG66" s="100"/>
+      <c r="AH66" s="100"/>
+      <c r="AI66" s="100"/>
     </row>
     <row r="67" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A67" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B67" s="86">
         <v>40</v>
@@ -4355,7 +4461,7 @@
         <v>1</v>
       </c>
       <c r="E67" s="95" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F67" s="83"/>
       <c r="G67" s="86"/>
@@ -4363,7 +4469,7 @@
         <v>5.63</v>
       </c>
       <c r="I67" s="86">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>48</v>
       </c>
       <c r="J67" s="86"/>
@@ -4372,46 +4478,46 @@
         <v>0</v>
       </c>
       <c r="L67" s="86">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>21</v>
       </c>
       <c r="M67" s="86"/>
       <c r="N67" s="87">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>9.6</v>
       </c>
       <c r="O67" s="89">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
       <c r="P67" s="91">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="Q67" s="88">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="R67" s="96">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>18.700000000000003</v>
       </c>
       <c r="S67" s="86"/>
-      <c r="T67" s="97">
-        <f t="shared" si="17"/>
+      <c r="T67" s="101">
+        <f t="shared" si="21"/>
         <v>17.7</v>
       </c>
-      <c r="U67" s="97"/>
+      <c r="U67" s="101"/>
       <c r="V67" s="26" t="s">
         <v>30</v>
       </c>
       <c r="W67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="68" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A68" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B68" s="86">
         <v>52</v>
@@ -4431,7 +4537,7 @@
         <v>13.33</v>
       </c>
       <c r="I68" s="86">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>72</v>
       </c>
       <c r="J68" s="86"/>
@@ -4440,46 +4546,46 @@
         <v>0</v>
       </c>
       <c r="L68" s="86">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>21</v>
       </c>
       <c r="M68" s="86"/>
       <c r="N68" s="87">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>7.4</v>
       </c>
       <c r="O68" s="89">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
       <c r="P68" s="91">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q68" s="88">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2.7</v>
       </c>
       <c r="R68" s="96">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>17.100000000000001</v>
       </c>
       <c r="S68" s="86"/>
-      <c r="T68" s="97">
-        <f t="shared" si="17"/>
+      <c r="T68" s="101">
+        <f t="shared" si="21"/>
         <v>17.100000000000001</v>
       </c>
-      <c r="U68" s="97"/>
+      <c r="U68" s="101"/>
       <c r="V68" s="33" t="s">
         <v>31</v>
       </c>
       <c r="W68" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="69" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A69" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B69" s="86">
         <v>26</v>
@@ -4499,7 +4605,7 @@
         <v>9.09</v>
       </c>
       <c r="I69" s="86">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>20</v>
       </c>
       <c r="J69" s="86"/>
@@ -4513,41 +4619,41 @@
       </c>
       <c r="M69" s="86"/>
       <c r="N69" s="87">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="O69" s="89">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
       <c r="P69" s="91">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="Q69" s="88">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.7999999999999998</v>
       </c>
       <c r="R69" s="96">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>18.8</v>
       </c>
       <c r="S69" s="86"/>
-      <c r="T69" s="97">
-        <f t="shared" si="17"/>
+      <c r="T69" s="101">
+        <f t="shared" si="21"/>
         <v>8.8000000000000007</v>
       </c>
-      <c r="U69" s="97"/>
+      <c r="U69" s="101"/>
       <c r="V69" s="26" t="s">
         <v>30</v>
       </c>
       <c r="W69" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="70" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A70" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B70" s="86">
         <v>28</v>
@@ -4559,7 +4665,7 @@
         <v>8</v>
       </c>
       <c r="E70" s="95" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F70" s="83"/>
       <c r="G70" s="86"/>
@@ -4567,7 +4673,7 @@
         <v>48</v>
       </c>
       <c r="I70" s="86">
-        <f t="shared" ref="I70" si="18">(B70-player_radius)*2</f>
+        <f t="shared" ref="I70" si="22">(B70-player_radius)*2</f>
         <v>24</v>
       </c>
       <c r="J70" s="86"/>
@@ -4581,40 +4687,146 @@
       </c>
       <c r="M70" s="86"/>
       <c r="N70" s="87">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>2.5</v>
       </c>
       <c r="O70" s="89">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>5.6999999999999993</v>
       </c>
       <c r="P70" s="91">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="Q70" s="88">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>9.6</v>
       </c>
       <c r="R70" s="96">
-        <f t="shared" ref="R70" si="19">SUM(N70:Q70)</f>
+        <f t="shared" ref="R70" si="23">SUM(N70:Q70)</f>
         <v>25.799999999999997</v>
       </c>
       <c r="S70" s="86"/>
-      <c r="T70" s="97">
-        <f t="shared" si="17"/>
+      <c r="T70" s="101">
+        <f t="shared" si="21"/>
         <v>17.799999999999997</v>
       </c>
-      <c r="U70" s="97"/>
+      <c r="U70" s="101"/>
       <c r="V70" s="30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W70" t="s">
-        <v>127</v>
-      </c>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="74" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A74" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="B74" s="102" t="s">
+        <v>98</v>
+      </c>
+      <c r="C74" s="102" t="s">
+        <v>97</v>
+      </c>
+      <c r="D74" s="102" t="s">
+        <v>143</v>
+      </c>
+      <c r="E74" s="103" t="s">
+        <v>144</v>
+      </c>
+      <c r="F74" s="103"/>
+      <c r="G74" s="103" t="s">
+        <v>145</v>
+      </c>
+      <c r="H74" s="103"/>
+      <c r="I74" s="102"/>
+      <c r="J74" s="102"/>
+      <c r="K74" s="103" t="s">
+        <v>142</v>
+      </c>
+      <c r="L74" s="103"/>
+      <c r="M74" s="103"/>
+      <c r="N74" s="103"/>
+    </row>
+    <row r="75" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A75" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="B75" s="83">
+        <v>2</v>
+      </c>
+      <c r="C75" s="86">
+        <v>18</v>
+      </c>
+      <c r="D75" s="86">
+        <v>18</v>
+      </c>
+      <c r="E75" s="100" t="s">
+        <v>70</v>
+      </c>
+      <c r="F75" s="100"/>
+      <c r="G75" s="100">
+        <f>D75*frag_damage</f>
+        <v>36</v>
+      </c>
+      <c r="H75" s="100"/>
+      <c r="I75" s="86"/>
+      <c r="J75" s="86"/>
+      <c r="K75" s="100" t="s">
+        <v>141</v>
+      </c>
+      <c r="L75" s="100"/>
+      <c r="M75" s="100"/>
+      <c r="N75" s="100"/>
+    </row>
+    <row r="76" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A76" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="B76" s="83">
+        <v>30</v>
+      </c>
+      <c r="C76" s="86">
+        <v>32</v>
+      </c>
+      <c r="D76" s="86">
+        <v>12</v>
+      </c>
+      <c r="E76" s="100" t="s">
+        <v>134</v>
+      </c>
+      <c r="F76" s="100"/>
+      <c r="G76" s="100">
+        <f>D76*shockWave_damage</f>
+        <v>180</v>
+      </c>
+      <c r="H76" s="100"/>
+      <c r="I76" s="86"/>
+      <c r="J76" s="86"/>
+      <c r="K76" s="100" t="s">
+        <v>140</v>
+      </c>
+      <c r="L76" s="100"/>
+      <c r="M76" s="100"/>
+      <c r="N76" s="100"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="26">
+    <mergeCell ref="K74:N74"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="K76:N76"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="T67:U67"/>
+    <mergeCell ref="T68:U68"/>
+    <mergeCell ref="T66:U66"/>
+    <mergeCell ref="T69:U69"/>
+    <mergeCell ref="T70:U70"/>
     <mergeCell ref="N62:R62"/>
     <mergeCell ref="I62:J62"/>
     <mergeCell ref="AF60:AI60"/>
@@ -4627,11 +4839,6 @@
     <mergeCell ref="T63:U63"/>
     <mergeCell ref="T64:U64"/>
     <mergeCell ref="T65:U65"/>
-    <mergeCell ref="T67:U67"/>
-    <mergeCell ref="T68:U68"/>
-    <mergeCell ref="T66:U66"/>
-    <mergeCell ref="T69:U69"/>
-    <mergeCell ref="T70:U70"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gun infos.xlsx
+++ b/gun infos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kingc\web\blackout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1521A332-F3F7-4AB7-B407-D15EFACF9ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ECE408A-E0C2-4A8C-AF31-AA341BB6F235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="159">
   <si>
     <t>Weapon info</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -645,6 +645,57 @@
   </si>
   <si>
     <t>total damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Airstrike</t>
+  </si>
+  <si>
+    <t>Color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>red</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>green</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yellow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>white</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StrikeNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOMB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUPPLY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REQUEST VEHICLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRANSPORT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 ~ 5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1374,6 +1425,18 @@
     <xf numFmtId="0" fontId="28" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1381,18 +1444,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1675,10 +1726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI76"/>
+  <dimension ref="A1:AI86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H79" sqref="H79"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA55" sqref="AA55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4115,10 +4166,10 @@
       <c r="R60" t="s">
         <v>122</v>
       </c>
-      <c r="AF60" s="99"/>
-      <c r="AG60" s="99"/>
-      <c r="AH60" s="99"/>
-      <c r="AI60" s="99"/>
+      <c r="AF60" s="103"/>
+      <c r="AG60" s="103"/>
+      <c r="AH60" s="103"/>
+      <c r="AI60" s="103"/>
     </row>
     <row r="61" spans="1:35" x14ac:dyDescent="0.45">
       <c r="N61">
@@ -4136,19 +4187,19 @@
       <c r="R61">
         <v>10</v>
       </c>
-      <c r="AF61" s="100"/>
-      <c r="AG61" s="100"/>
-      <c r="AH61" s="100"/>
-      <c r="AI61" s="100"/>
+      <c r="AF61" s="99"/>
+      <c r="AG61" s="99"/>
+      <c r="AH61" s="99"/>
+      <c r="AI61" s="99"/>
     </row>
     <row r="62" spans="1:35" x14ac:dyDescent="0.45">
       <c r="H62" t="s">
         <v>104</v>
       </c>
-      <c r="I62" s="98" t="s">
+      <c r="I62" s="102" t="s">
         <v>108</v>
       </c>
-      <c r="J62" s="98"/>
+      <c r="J62" s="102"/>
       <c r="K62" t="s">
         <v>109</v>
       </c>
@@ -4156,17 +4207,17 @@
         <f>COUNTIF(G3:G35,"&gt;0")</f>
         <v>22</v>
       </c>
-      <c r="N62" s="97" t="s">
+      <c r="N62" s="101" t="s">
         <v>114</v>
       </c>
-      <c r="O62" s="97"/>
-      <c r="P62" s="97"/>
-      <c r="Q62" s="97"/>
-      <c r="R62" s="97"/>
-      <c r="AF62" s="100"/>
-      <c r="AG62" s="100"/>
-      <c r="AH62" s="100"/>
-      <c r="AI62" s="100"/>
+      <c r="O62" s="101"/>
+      <c r="P62" s="101"/>
+      <c r="Q62" s="101"/>
+      <c r="R62" s="101"/>
+      <c r="AF62" s="99"/>
+      <c r="AG62" s="99"/>
+      <c r="AH62" s="99"/>
+      <c r="AI62" s="99"/>
     </row>
     <row r="63" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A63" s="48" t="s">
@@ -4216,20 +4267,20 @@
         <v>121</v>
       </c>
       <c r="S63" s="49"/>
-      <c r="T63" s="99" t="s">
+      <c r="T63" s="103" t="s">
         <v>125</v>
       </c>
-      <c r="U63" s="99"/>
+      <c r="U63" s="103"/>
       <c r="V63" s="49" t="s">
         <v>24</v>
       </c>
       <c r="W63" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="AF63" s="100"/>
-      <c r="AG63" s="100"/>
-      <c r="AH63" s="100"/>
-      <c r="AI63" s="100"/>
+      <c r="AF63" s="99"/>
+      <c r="AG63" s="99"/>
+      <c r="AH63" s="99"/>
+      <c r="AI63" s="99"/>
     </row>
     <row r="64" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A64" s="22" t="s">
@@ -4287,21 +4338,21 @@
         <v>10.100000000000001</v>
       </c>
       <c r="S64" s="86"/>
-      <c r="T64" s="101">
+      <c r="T64" s="100">
         <f>Q64+N64+O64</f>
         <v>4.1000000000000005</v>
       </c>
-      <c r="U64" s="101"/>
+      <c r="U64" s="100"/>
       <c r="V64" s="33" t="s">
         <v>31</v>
       </c>
       <c r="W64" t="s">
         <v>132</v>
       </c>
-      <c r="AF64" s="100"/>
-      <c r="AG64" s="100"/>
-      <c r="AH64" s="100"/>
-      <c r="AI64" s="100"/>
+      <c r="AF64" s="99"/>
+      <c r="AG64" s="99"/>
+      <c r="AH64" s="99"/>
+      <c r="AI64" s="99"/>
     </row>
     <row r="65" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A65" s="22" t="s">
@@ -4359,21 +4410,21 @@
         <v>12.3</v>
       </c>
       <c r="S65" s="86"/>
-      <c r="T65" s="101">
+      <c r="T65" s="100">
         <f t="shared" ref="T65:T70" si="21">Q65+N65+O65</f>
         <v>9.3000000000000007</v>
       </c>
-      <c r="U65" s="101"/>
+      <c r="U65" s="100"/>
       <c r="V65" s="33" t="s">
         <v>31</v>
       </c>
       <c r="W65" t="s">
         <v>131</v>
       </c>
-      <c r="AF65" s="100"/>
-      <c r="AG65" s="100"/>
-      <c r="AH65" s="100"/>
-      <c r="AI65" s="100"/>
+      <c r="AF65" s="99"/>
+      <c r="AG65" s="99"/>
+      <c r="AH65" s="99"/>
+      <c r="AI65" s="99"/>
     </row>
     <row r="66" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A66" s="22" t="s">
@@ -4431,21 +4482,21 @@
         <v>14.399999999999999</v>
       </c>
       <c r="S66" s="86"/>
-      <c r="T66" s="101">
+      <c r="T66" s="100">
         <f t="shared" si="21"/>
         <v>10.399999999999999</v>
       </c>
-      <c r="U66" s="101"/>
+      <c r="U66" s="100"/>
       <c r="V66" s="33" t="s">
         <v>31</v>
       </c>
       <c r="W66" t="s">
         <v>133</v>
       </c>
-      <c r="AF66" s="100"/>
-      <c r="AG66" s="100"/>
-      <c r="AH66" s="100"/>
-      <c r="AI66" s="100"/>
+      <c r="AF66" s="99"/>
+      <c r="AG66" s="99"/>
+      <c r="AH66" s="99"/>
+      <c r="AI66" s="99"/>
     </row>
     <row r="67" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A67" s="22" t="s">
@@ -4503,11 +4554,11 @@
         <v>18.700000000000003</v>
       </c>
       <c r="S67" s="86"/>
-      <c r="T67" s="101">
+      <c r="T67" s="100">
         <f t="shared" si="21"/>
         <v>17.7</v>
       </c>
-      <c r="U67" s="101"/>
+      <c r="U67" s="100"/>
       <c r="V67" s="26" t="s">
         <v>30</v>
       </c>
@@ -4571,11 +4622,11 @@
         <v>17.100000000000001</v>
       </c>
       <c r="S68" s="86"/>
-      <c r="T68" s="101">
+      <c r="T68" s="100">
         <f t="shared" si="21"/>
         <v>17.100000000000001</v>
       </c>
-      <c r="U68" s="101"/>
+      <c r="U68" s="100"/>
       <c r="V68" s="33" t="s">
         <v>31</v>
       </c>
@@ -4639,11 +4690,11 @@
         <v>18.8</v>
       </c>
       <c r="S69" s="86"/>
-      <c r="T69" s="101">
+      <c r="T69" s="100">
         <f t="shared" si="21"/>
         <v>8.8000000000000007</v>
       </c>
-      <c r="U69" s="101"/>
+      <c r="U69" s="100"/>
       <c r="V69" s="26" t="s">
         <v>30</v>
       </c>
@@ -4707,11 +4758,11 @@
         <v>25.799999999999997</v>
       </c>
       <c r="S70" s="86"/>
-      <c r="T70" s="101">
+      <c r="T70" s="100">
         <f t="shared" si="21"/>
         <v>17.799999999999997</v>
       </c>
-      <c r="U70" s="101"/>
+      <c r="U70" s="100"/>
       <c r="V70" s="30" t="s">
         <v>79</v>
       </c>
@@ -4723,31 +4774,31 @@
       <c r="A74" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="B74" s="102" t="s">
+      <c r="B74" s="97" t="s">
         <v>98</v>
       </c>
-      <c r="C74" s="102" t="s">
+      <c r="C74" s="97" t="s">
         <v>97</v>
       </c>
-      <c r="D74" s="102" t="s">
+      <c r="D74" s="97" t="s">
         <v>143</v>
       </c>
-      <c r="E74" s="103" t="s">
+      <c r="E74" s="98" t="s">
         <v>144</v>
       </c>
-      <c r="F74" s="103"/>
-      <c r="G74" s="103" t="s">
+      <c r="F74" s="98"/>
+      <c r="G74" s="98" t="s">
         <v>145</v>
       </c>
-      <c r="H74" s="103"/>
-      <c r="I74" s="102"/>
-      <c r="J74" s="102"/>
-      <c r="K74" s="103" t="s">
+      <c r="H74" s="98"/>
+      <c r="I74" s="97"/>
+      <c r="J74" s="97"/>
+      <c r="K74" s="98" t="s">
         <v>142</v>
       </c>
-      <c r="L74" s="103"/>
-      <c r="M74" s="103"/>
-      <c r="N74" s="103"/>
+      <c r="L74" s="98"/>
+      <c r="M74" s="98"/>
+      <c r="N74" s="98"/>
     </row>
     <row r="75" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A75" s="44" t="s">
@@ -4762,23 +4813,23 @@
       <c r="D75" s="86">
         <v>18</v>
       </c>
-      <c r="E75" s="100" t="s">
+      <c r="E75" s="99" t="s">
         <v>70</v>
       </c>
-      <c r="F75" s="100"/>
-      <c r="G75" s="100">
+      <c r="F75" s="99"/>
+      <c r="G75" s="99">
         <f>D75*frag_damage</f>
         <v>36</v>
       </c>
-      <c r="H75" s="100"/>
+      <c r="H75" s="99"/>
       <c r="I75" s="86"/>
       <c r="J75" s="86"/>
-      <c r="K75" s="100" t="s">
+      <c r="K75" s="99" t="s">
         <v>141</v>
       </c>
-      <c r="L75" s="100"/>
-      <c r="M75" s="100"/>
-      <c r="N75" s="100"/>
+      <c r="L75" s="99"/>
+      <c r="M75" s="99"/>
+      <c r="N75" s="99"/>
     </row>
     <row r="76" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A76" s="44" t="s">
@@ -4793,40 +4844,145 @@
       <c r="D76" s="86">
         <v>12</v>
       </c>
-      <c r="E76" s="100" t="s">
+      <c r="E76" s="99" t="s">
         <v>134</v>
       </c>
-      <c r="F76" s="100"/>
-      <c r="G76" s="100">
+      <c r="F76" s="99"/>
+      <c r="G76" s="99">
         <f>D76*shockWave_damage</f>
         <v>180</v>
       </c>
-      <c r="H76" s="100"/>
+      <c r="H76" s="99"/>
       <c r="I76" s="86"/>
       <c r="J76" s="86"/>
-      <c r="K76" s="100" t="s">
+      <c r="K76" s="99" t="s">
         <v>140</v>
       </c>
-      <c r="L76" s="100"/>
-      <c r="M76" s="100"/>
-      <c r="N76" s="100"/>
+      <c r="L76" s="99"/>
+      <c r="M76" s="99"/>
+      <c r="N76" s="99"/>
+    </row>
+    <row r="80" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A80" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="B80" s="97" t="s">
+        <v>147</v>
+      </c>
+      <c r="C80" s="97" t="s">
+        <v>99</v>
+      </c>
+      <c r="D80" s="97" t="s">
+        <v>153</v>
+      </c>
+      <c r="E80" s="98" t="s">
+        <v>148</v>
+      </c>
+      <c r="F80" s="98"/>
+      <c r="G80" s="98"/>
+      <c r="H80" s="98"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A81" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="B81" s="83" t="s">
+        <v>149</v>
+      </c>
+      <c r="C81" s="41">
+        <v>12</v>
+      </c>
+      <c r="D81" s="85">
+        <v>16</v>
+      </c>
+      <c r="E81" s="99"/>
+      <c r="F81" s="99"/>
+      <c r="G81" s="99"/>
+      <c r="H81" s="99"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A82" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="B82" s="83" t="s">
+        <v>150</v>
+      </c>
+      <c r="C82" s="85" t="s">
+        <v>158</v>
+      </c>
+      <c r="D82" s="85">
+        <v>1</v>
+      </c>
+      <c r="E82" s="99"/>
+      <c r="F82" s="99"/>
+      <c r="G82" s="99"/>
+      <c r="H82" s="99"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A83" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="B83" s="83" t="s">
+        <v>151</v>
+      </c>
+      <c r="C83" s="85" t="s">
+        <v>158</v>
+      </c>
+      <c r="D83" s="85">
+        <v>1</v>
+      </c>
+      <c r="E83" s="99"/>
+      <c r="F83" s="99"/>
+      <c r="G83" s="99"/>
+      <c r="H83" s="99"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A84" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="B84" s="83" t="s">
+        <v>152</v>
+      </c>
+      <c r="C84" s="85">
+        <v>6</v>
+      </c>
+      <c r="D84" s="85">
+        <v>1</v>
+      </c>
+      <c r="E84" s="99"/>
+      <c r="F84" s="99"/>
+      <c r="G84" s="99"/>
+      <c r="H84" s="99"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A85" s="44"/>
+      <c r="B85" s="83"/>
+      <c r="C85" s="86"/>
+      <c r="D85" s="86"/>
+      <c r="E85" s="99"/>
+      <c r="F85" s="99"/>
+      <c r="G85" s="99"/>
+      <c r="H85" s="99"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A86" s="44"/>
+      <c r="B86" s="83"/>
+      <c r="C86" s="86"/>
+      <c r="D86" s="86"/>
+      <c r="E86" s="99"/>
+      <c r="F86" s="99"/>
+      <c r="G86" s="99"/>
+      <c r="H86" s="99"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="K74:N74"/>
-    <mergeCell ref="K75:N75"/>
-    <mergeCell ref="K76:N76"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="T67:U67"/>
-    <mergeCell ref="T68:U68"/>
-    <mergeCell ref="T66:U66"/>
-    <mergeCell ref="T69:U69"/>
-    <mergeCell ref="T70:U70"/>
+  <mergeCells count="33">
+    <mergeCell ref="E85:H85"/>
+    <mergeCell ref="E86:H86"/>
+    <mergeCell ref="E80:H80"/>
+    <mergeCell ref="E81:H81"/>
+    <mergeCell ref="E82:H82"/>
+    <mergeCell ref="E83:H83"/>
+    <mergeCell ref="E84:H84"/>
     <mergeCell ref="N62:R62"/>
     <mergeCell ref="I62:J62"/>
     <mergeCell ref="AF60:AI60"/>
@@ -4839,6 +4995,20 @@
     <mergeCell ref="T63:U63"/>
     <mergeCell ref="T64:U64"/>
     <mergeCell ref="T65:U65"/>
+    <mergeCell ref="T67:U67"/>
+    <mergeCell ref="T68:U68"/>
+    <mergeCell ref="T66:U66"/>
+    <mergeCell ref="T69:U69"/>
+    <mergeCell ref="T70:U70"/>
+    <mergeCell ref="K74:N74"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="K76:N76"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="G76:H76"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gun infos.xlsx
+++ b/gun infos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kingc\web\blackout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ECE408A-E0C2-4A8C-AF31-AA341BB6F235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B551001C-533D-479D-A8C4-C799A9D1DE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="166">
   <si>
     <t>Weapon info</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -696,6 +696,34 @@
   </si>
   <si>
     <t>2 ~ 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bombarding with shockwaves</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drop a tank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drop one of these guns [grenade launcer, AWM, tank buster], and a scope(+2), and an armor (reduce)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can transport the caller player when able to pickup. Player then can get off the plane on its route.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drop two bombs at a time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When players are within the pickup range near the initial location and not in a house, and not riding a vehicle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1165,7 +1193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1428,23 +1456,26 @@
     <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1728,8 +1759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA55" sqref="AA55"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2112,7 +2143,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="72">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G6" s="72">
         <v>18</v>
@@ -2129,11 +2160,11 @@
       <c r="K6" s="72"/>
       <c r="L6" s="23">
         <f>ROUND(D6*E6/F6*1000,2)</f>
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="M6" s="23">
         <f>ROUND(D6*E6/(F6+I6)*1000,2)</f>
-        <v>10</v>
+        <v>8.82</v>
       </c>
       <c r="N6" s="23">
         <f>D6*E6*H6</f>
@@ -4166,10 +4197,10 @@
       <c r="R60" t="s">
         <v>122</v>
       </c>
-      <c r="AF60" s="103"/>
-      <c r="AG60" s="103"/>
-      <c r="AH60" s="103"/>
-      <c r="AI60" s="103"/>
+      <c r="AF60" s="102"/>
+      <c r="AG60" s="102"/>
+      <c r="AH60" s="102"/>
+      <c r="AI60" s="102"/>
     </row>
     <row r="61" spans="1:35" x14ac:dyDescent="0.45">
       <c r="N61">
@@ -4187,19 +4218,19 @@
       <c r="R61">
         <v>10</v>
       </c>
-      <c r="AF61" s="99"/>
-      <c r="AG61" s="99"/>
-      <c r="AH61" s="99"/>
-      <c r="AI61" s="99"/>
+      <c r="AF61" s="98"/>
+      <c r="AG61" s="98"/>
+      <c r="AH61" s="98"/>
+      <c r="AI61" s="98"/>
     </row>
     <row r="62" spans="1:35" x14ac:dyDescent="0.45">
       <c r="H62" t="s">
         <v>104</v>
       </c>
-      <c r="I62" s="102" t="s">
+      <c r="I62" s="101" t="s">
         <v>108</v>
       </c>
-      <c r="J62" s="102"/>
+      <c r="J62" s="101"/>
       <c r="K62" t="s">
         <v>109</v>
       </c>
@@ -4207,17 +4238,17 @@
         <f>COUNTIF(G3:G35,"&gt;0")</f>
         <v>22</v>
       </c>
-      <c r="N62" s="101" t="s">
+      <c r="N62" s="100" t="s">
         <v>114</v>
       </c>
-      <c r="O62" s="101"/>
-      <c r="P62" s="101"/>
-      <c r="Q62" s="101"/>
-      <c r="R62" s="101"/>
-      <c r="AF62" s="99"/>
-      <c r="AG62" s="99"/>
-      <c r="AH62" s="99"/>
-      <c r="AI62" s="99"/>
+      <c r="O62" s="100"/>
+      <c r="P62" s="100"/>
+      <c r="Q62" s="100"/>
+      <c r="R62" s="100"/>
+      <c r="AF62" s="98"/>
+      <c r="AG62" s="98"/>
+      <c r="AH62" s="98"/>
+      <c r="AI62" s="98"/>
     </row>
     <row r="63" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A63" s="48" t="s">
@@ -4267,20 +4298,20 @@
         <v>121</v>
       </c>
       <c r="S63" s="49"/>
-      <c r="T63" s="103" t="s">
+      <c r="T63" s="102" t="s">
         <v>125</v>
       </c>
-      <c r="U63" s="103"/>
+      <c r="U63" s="102"/>
       <c r="V63" s="49" t="s">
         <v>24</v>
       </c>
       <c r="W63" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="AF63" s="99"/>
-      <c r="AG63" s="99"/>
-      <c r="AH63" s="99"/>
-      <c r="AI63" s="99"/>
+      <c r="AF63" s="98"/>
+      <c r="AG63" s="98"/>
+      <c r="AH63" s="98"/>
+      <c r="AI63" s="98"/>
     </row>
     <row r="64" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A64" s="22" t="s">
@@ -4338,21 +4369,21 @@
         <v>10.100000000000001</v>
       </c>
       <c r="S64" s="86"/>
-      <c r="T64" s="100">
+      <c r="T64" s="103">
         <f>Q64+N64+O64</f>
         <v>4.1000000000000005</v>
       </c>
-      <c r="U64" s="100"/>
+      <c r="U64" s="103"/>
       <c r="V64" s="33" t="s">
         <v>31</v>
       </c>
       <c r="W64" t="s">
         <v>132</v>
       </c>
-      <c r="AF64" s="99"/>
-      <c r="AG64" s="99"/>
-      <c r="AH64" s="99"/>
-      <c r="AI64" s="99"/>
+      <c r="AF64" s="98"/>
+      <c r="AG64" s="98"/>
+      <c r="AH64" s="98"/>
+      <c r="AI64" s="98"/>
     </row>
     <row r="65" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A65" s="22" t="s">
@@ -4410,21 +4441,21 @@
         <v>12.3</v>
       </c>
       <c r="S65" s="86"/>
-      <c r="T65" s="100">
+      <c r="T65" s="103">
         <f t="shared" ref="T65:T70" si="21">Q65+N65+O65</f>
         <v>9.3000000000000007</v>
       </c>
-      <c r="U65" s="100"/>
+      <c r="U65" s="103"/>
       <c r="V65" s="33" t="s">
         <v>31</v>
       </c>
       <c r="W65" t="s">
         <v>131</v>
       </c>
-      <c r="AF65" s="99"/>
-      <c r="AG65" s="99"/>
-      <c r="AH65" s="99"/>
-      <c r="AI65" s="99"/>
+      <c r="AF65" s="98"/>
+      <c r="AG65" s="98"/>
+      <c r="AH65" s="98"/>
+      <c r="AI65" s="98"/>
     </row>
     <row r="66" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A66" s="22" t="s">
@@ -4482,21 +4513,21 @@
         <v>14.399999999999999</v>
       </c>
       <c r="S66" s="86"/>
-      <c r="T66" s="100">
+      <c r="T66" s="103">
         <f t="shared" si="21"/>
         <v>10.399999999999999</v>
       </c>
-      <c r="U66" s="100"/>
+      <c r="U66" s="103"/>
       <c r="V66" s="33" t="s">
         <v>31</v>
       </c>
       <c r="W66" t="s">
         <v>133</v>
       </c>
-      <c r="AF66" s="99"/>
-      <c r="AG66" s="99"/>
-      <c r="AH66" s="99"/>
-      <c r="AI66" s="99"/>
+      <c r="AF66" s="98"/>
+      <c r="AG66" s="98"/>
+      <c r="AH66" s="98"/>
+      <c r="AI66" s="98"/>
     </row>
     <row r="67" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A67" s="22" t="s">
@@ -4554,11 +4585,11 @@
         <v>18.700000000000003</v>
       </c>
       <c r="S67" s="86"/>
-      <c r="T67" s="100">
+      <c r="T67" s="103">
         <f t="shared" si="21"/>
         <v>17.7</v>
       </c>
-      <c r="U67" s="100"/>
+      <c r="U67" s="103"/>
       <c r="V67" s="26" t="s">
         <v>30</v>
       </c>
@@ -4622,11 +4653,11 @@
         <v>17.100000000000001</v>
       </c>
       <c r="S68" s="86"/>
-      <c r="T68" s="100">
+      <c r="T68" s="103">
         <f t="shared" si="21"/>
         <v>17.100000000000001</v>
       </c>
-      <c r="U68" s="100"/>
+      <c r="U68" s="103"/>
       <c r="V68" s="33" t="s">
         <v>31</v>
       </c>
@@ -4690,11 +4721,11 @@
         <v>18.8</v>
       </c>
       <c r="S69" s="86"/>
-      <c r="T69" s="100">
+      <c r="T69" s="103">
         <f t="shared" si="21"/>
         <v>8.8000000000000007</v>
       </c>
-      <c r="U69" s="100"/>
+      <c r="U69" s="103"/>
       <c r="V69" s="26" t="s">
         <v>30</v>
       </c>
@@ -4758,11 +4789,11 @@
         <v>25.799999999999997</v>
       </c>
       <c r="S70" s="86"/>
-      <c r="T70" s="100">
+      <c r="T70" s="103">
         <f t="shared" si="21"/>
         <v>17.799999999999997</v>
       </c>
-      <c r="U70" s="100"/>
+      <c r="U70" s="103"/>
       <c r="V70" s="30" t="s">
         <v>79</v>
       </c>
@@ -4783,22 +4814,22 @@
       <c r="D74" s="97" t="s">
         <v>143</v>
       </c>
-      <c r="E74" s="98" t="s">
+      <c r="E74" s="99" t="s">
         <v>144</v>
       </c>
-      <c r="F74" s="98"/>
-      <c r="G74" s="98" t="s">
+      <c r="F74" s="99"/>
+      <c r="G74" s="99" t="s">
         <v>145</v>
       </c>
-      <c r="H74" s="98"/>
+      <c r="H74" s="99"/>
       <c r="I74" s="97"/>
       <c r="J74" s="97"/>
-      <c r="K74" s="98" t="s">
+      <c r="K74" s="99" t="s">
         <v>142</v>
       </c>
-      <c r="L74" s="98"/>
-      <c r="M74" s="98"/>
-      <c r="N74" s="98"/>
+      <c r="L74" s="99"/>
+      <c r="M74" s="99"/>
+      <c r="N74" s="99"/>
     </row>
     <row r="75" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A75" s="44" t="s">
@@ -4813,23 +4844,23 @@
       <c r="D75" s="86">
         <v>18</v>
       </c>
-      <c r="E75" s="99" t="s">
+      <c r="E75" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="F75" s="99"/>
-      <c r="G75" s="99">
+      <c r="F75" s="98"/>
+      <c r="G75" s="98">
         <f>D75*frag_damage</f>
         <v>36</v>
       </c>
-      <c r="H75" s="99"/>
+      <c r="H75" s="98"/>
       <c r="I75" s="86"/>
       <c r="J75" s="86"/>
-      <c r="K75" s="99" t="s">
+      <c r="K75" s="98" t="s">
         <v>141</v>
       </c>
-      <c r="L75" s="99"/>
-      <c r="M75" s="99"/>
-      <c r="N75" s="99"/>
+      <c r="L75" s="98"/>
+      <c r="M75" s="98"/>
+      <c r="N75" s="98"/>
     </row>
     <row r="76" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A76" s="44" t="s">
@@ -4844,23 +4875,23 @@
       <c r="D76" s="86">
         <v>12</v>
       </c>
-      <c r="E76" s="99" t="s">
+      <c r="E76" s="98" t="s">
         <v>134</v>
       </c>
-      <c r="F76" s="99"/>
-      <c r="G76" s="99">
+      <c r="F76" s="98"/>
+      <c r="G76" s="98">
         <f>D76*shockWave_damage</f>
         <v>180</v>
       </c>
-      <c r="H76" s="99"/>
+      <c r="H76" s="98"/>
       <c r="I76" s="86"/>
       <c r="J76" s="86"/>
-      <c r="K76" s="99" t="s">
+      <c r="K76" s="98" t="s">
         <v>140</v>
       </c>
-      <c r="L76" s="99"/>
-      <c r="M76" s="99"/>
-      <c r="N76" s="99"/>
+      <c r="L76" s="98"/>
+      <c r="M76" s="98"/>
+      <c r="N76" s="98"/>
     </row>
     <row r="80" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A80" s="43" t="s">
@@ -4875,14 +4906,34 @@
       <c r="D80" s="97" t="s">
         <v>153</v>
       </c>
-      <c r="E80" s="98" t="s">
+      <c r="E80" s="99" t="s">
         <v>148</v>
       </c>
-      <c r="F80" s="98"/>
-      <c r="G80" s="98"/>
-      <c r="H80" s="98"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F80" s="99"/>
+      <c r="G80" s="99"/>
+      <c r="H80" s="99"/>
+      <c r="I80" s="99"/>
+      <c r="J80" s="99"/>
+      <c r="K80" s="99"/>
+      <c r="L80" s="99"/>
+      <c r="M80" s="99"/>
+      <c r="N80" s="99"/>
+      <c r="O80" s="99"/>
+      <c r="P80" s="99" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q80" s="99"/>
+      <c r="R80" s="99"/>
+      <c r="S80" s="99"/>
+      <c r="T80" s="99"/>
+      <c r="U80" s="99"/>
+      <c r="V80" s="99"/>
+      <c r="W80" s="99"/>
+      <c r="X80" s="99"/>
+      <c r="Y80" s="99"/>
+      <c r="Z80" s="99"/>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A81" s="44" t="s">
         <v>154</v>
       </c>
@@ -4895,12 +4946,34 @@
       <c r="D81" s="85">
         <v>16</v>
       </c>
-      <c r="E81" s="99"/>
-      <c r="F81" s="99"/>
-      <c r="G81" s="99"/>
-      <c r="H81" s="99"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="E81" s="104" t="s">
+        <v>159</v>
+      </c>
+      <c r="F81" s="104"/>
+      <c r="G81" s="104"/>
+      <c r="H81" s="104"/>
+      <c r="I81" s="104"/>
+      <c r="J81" s="104"/>
+      <c r="K81" s="104"/>
+      <c r="L81" s="104"/>
+      <c r="M81" s="104"/>
+      <c r="N81" s="104"/>
+      <c r="O81" s="104"/>
+      <c r="P81" s="104" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q81" s="104"/>
+      <c r="R81" s="104"/>
+      <c r="S81" s="104"/>
+      <c r="T81" s="104"/>
+      <c r="U81" s="104"/>
+      <c r="V81" s="104"/>
+      <c r="W81" s="104"/>
+      <c r="X81" s="104"/>
+      <c r="Y81" s="104"/>
+      <c r="Z81" s="104"/>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A82" s="44" t="s">
         <v>155</v>
       </c>
@@ -4913,12 +4986,32 @@
       <c r="D82" s="85">
         <v>1</v>
       </c>
-      <c r="E82" s="99"/>
-      <c r="F82" s="99"/>
-      <c r="G82" s="99"/>
-      <c r="H82" s="99"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="E82" s="104" t="s">
+        <v>161</v>
+      </c>
+      <c r="F82" s="104"/>
+      <c r="G82" s="104"/>
+      <c r="H82" s="104"/>
+      <c r="I82" s="104"/>
+      <c r="J82" s="104"/>
+      <c r="K82" s="104"/>
+      <c r="L82" s="104"/>
+      <c r="M82" s="104"/>
+      <c r="N82" s="104"/>
+      <c r="O82" s="104"/>
+      <c r="P82" s="104"/>
+      <c r="Q82" s="104"/>
+      <c r="R82" s="104"/>
+      <c r="S82" s="104"/>
+      <c r="T82" s="104"/>
+      <c r="U82" s="104"/>
+      <c r="V82" s="104"/>
+      <c r="W82" s="104"/>
+      <c r="X82" s="104"/>
+      <c r="Y82" s="104"/>
+      <c r="Z82" s="104"/>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A83" s="44" t="s">
         <v>156</v>
       </c>
@@ -4931,12 +5024,32 @@
       <c r="D83" s="85">
         <v>1</v>
       </c>
-      <c r="E83" s="99"/>
-      <c r="F83" s="99"/>
-      <c r="G83" s="99"/>
-      <c r="H83" s="99"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="E83" s="104" t="s">
+        <v>160</v>
+      </c>
+      <c r="F83" s="104"/>
+      <c r="G83" s="104"/>
+      <c r="H83" s="104"/>
+      <c r="I83" s="104"/>
+      <c r="J83" s="104"/>
+      <c r="K83" s="104"/>
+      <c r="L83" s="104"/>
+      <c r="M83" s="104"/>
+      <c r="N83" s="104"/>
+      <c r="O83" s="104"/>
+      <c r="P83" s="104"/>
+      <c r="Q83" s="104"/>
+      <c r="R83" s="104"/>
+      <c r="S83" s="104"/>
+      <c r="T83" s="104"/>
+      <c r="U83" s="104"/>
+      <c r="V83" s="104"/>
+      <c r="W83" s="104"/>
+      <c r="X83" s="104"/>
+      <c r="Y83" s="104"/>
+      <c r="Z83" s="104"/>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A84" s="44" t="s">
         <v>157</v>
       </c>
@@ -4949,40 +5062,117 @@
       <c r="D84" s="85">
         <v>1</v>
       </c>
-      <c r="E84" s="99"/>
-      <c r="F84" s="99"/>
-      <c r="G84" s="99"/>
-      <c r="H84" s="99"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="E84" s="104" t="s">
+        <v>162</v>
+      </c>
+      <c r="F84" s="104"/>
+      <c r="G84" s="104"/>
+      <c r="H84" s="104"/>
+      <c r="I84" s="104"/>
+      <c r="J84" s="104"/>
+      <c r="K84" s="104"/>
+      <c r="L84" s="104"/>
+      <c r="M84" s="104"/>
+      <c r="N84" s="104"/>
+      <c r="O84" s="104"/>
+      <c r="P84" s="104" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q84" s="104"/>
+      <c r="R84" s="104"/>
+      <c r="S84" s="104"/>
+      <c r="T84" s="104"/>
+      <c r="U84" s="104"/>
+      <c r="V84" s="104"/>
+      <c r="W84" s="104"/>
+      <c r="X84" s="104"/>
+      <c r="Y84" s="104"/>
+      <c r="Z84" s="104"/>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A85" s="44"/>
       <c r="B85" s="83"/>
       <c r="C85" s="86"/>
       <c r="D85" s="86"/>
-      <c r="E85" s="99"/>
-      <c r="F85" s="99"/>
-      <c r="G85" s="99"/>
-      <c r="H85" s="99"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="E85" s="104"/>
+      <c r="F85" s="104"/>
+      <c r="G85" s="104"/>
+      <c r="H85" s="104"/>
+      <c r="I85" s="104"/>
+      <c r="J85" s="104"/>
+      <c r="K85" s="104"/>
+      <c r="L85" s="104"/>
+      <c r="M85" s="104"/>
+      <c r="N85" s="104"/>
+      <c r="O85" s="104"/>
+      <c r="P85" s="104"/>
+      <c r="Q85" s="104"/>
+      <c r="R85" s="104"/>
+      <c r="S85" s="104"/>
+      <c r="T85" s="104"/>
+      <c r="U85" s="104"/>
+      <c r="V85" s="104"/>
+      <c r="W85" s="104"/>
+      <c r="X85" s="104"/>
+      <c r="Y85" s="104"/>
+      <c r="Z85" s="104"/>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A86" s="44"/>
       <c r="B86" s="83"/>
       <c r="C86" s="86"/>
       <c r="D86" s="86"/>
-      <c r="E86" s="99"/>
-      <c r="F86" s="99"/>
-      <c r="G86" s="99"/>
-      <c r="H86" s="99"/>
+      <c r="E86" s="104"/>
+      <c r="F86" s="104"/>
+      <c r="G86" s="104"/>
+      <c r="H86" s="104"/>
+      <c r="I86" s="104"/>
+      <c r="J86" s="104"/>
+      <c r="K86" s="104"/>
+      <c r="L86" s="104"/>
+      <c r="M86" s="104"/>
+      <c r="N86" s="104"/>
+      <c r="O86" s="104"/>
+      <c r="P86" s="104"/>
+      <c r="Q86" s="104"/>
+      <c r="R86" s="104"/>
+      <c r="S86" s="104"/>
+      <c r="T86" s="104"/>
+      <c r="U86" s="104"/>
+      <c r="V86" s="104"/>
+      <c r="W86" s="104"/>
+      <c r="X86" s="104"/>
+      <c r="Y86" s="104"/>
+      <c r="Z86" s="104"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="E85:H85"/>
-    <mergeCell ref="E86:H86"/>
-    <mergeCell ref="E80:H80"/>
-    <mergeCell ref="E81:H81"/>
-    <mergeCell ref="E82:H82"/>
-    <mergeCell ref="E83:H83"/>
-    <mergeCell ref="E84:H84"/>
+  <mergeCells count="40">
+    <mergeCell ref="P85:Z85"/>
+    <mergeCell ref="P86:Z86"/>
+    <mergeCell ref="P80:Z80"/>
+    <mergeCell ref="P81:Z81"/>
+    <mergeCell ref="P82:Z82"/>
+    <mergeCell ref="P83:Z83"/>
+    <mergeCell ref="P84:Z84"/>
+    <mergeCell ref="E82:O82"/>
+    <mergeCell ref="E83:O83"/>
+    <mergeCell ref="E84:O84"/>
+    <mergeCell ref="E85:O85"/>
+    <mergeCell ref="E86:O86"/>
+    <mergeCell ref="K74:N74"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="K76:N76"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="T67:U67"/>
+    <mergeCell ref="T68:U68"/>
+    <mergeCell ref="T66:U66"/>
+    <mergeCell ref="T69:U69"/>
+    <mergeCell ref="T70:U70"/>
     <mergeCell ref="N62:R62"/>
     <mergeCell ref="I62:J62"/>
     <mergeCell ref="AF60:AI60"/>
@@ -4995,20 +5185,8 @@
     <mergeCell ref="T63:U63"/>
     <mergeCell ref="T64:U64"/>
     <mergeCell ref="T65:U65"/>
-    <mergeCell ref="T67:U67"/>
-    <mergeCell ref="T68:U68"/>
-    <mergeCell ref="T66:U66"/>
-    <mergeCell ref="T69:U69"/>
-    <mergeCell ref="T70:U70"/>
-    <mergeCell ref="K74:N74"/>
-    <mergeCell ref="K75:N75"/>
-    <mergeCell ref="K76:N76"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="E80:O80"/>
+    <mergeCell ref="E81:O81"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gun infos.xlsx
+++ b/gun infos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kingc\web\blackout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B551001C-533D-479D-A8C4-C799A9D1DE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE69AB61-FFCD-45A7-9C38-0C8544DD4AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1457,11 +1457,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1470,12 +1476,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1760,7 +1760,7 @@
   <dimension ref="A1:AI86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2063,7 +2063,7 @@
         <v>4000</v>
       </c>
       <c r="G5" s="28">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H5" s="28">
         <v>1</v>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="P5" s="23">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="23">
         <f t="shared" si="1"/>
@@ -4197,10 +4197,10 @@
       <c r="R60" t="s">
         <v>122</v>
       </c>
-      <c r="AF60" s="102"/>
-      <c r="AG60" s="102"/>
-      <c r="AH60" s="102"/>
-      <c r="AI60" s="102"/>
+      <c r="AF60" s="104"/>
+      <c r="AG60" s="104"/>
+      <c r="AH60" s="104"/>
+      <c r="AI60" s="104"/>
     </row>
     <row r="61" spans="1:35" x14ac:dyDescent="0.45">
       <c r="N61">
@@ -4218,19 +4218,19 @@
       <c r="R61">
         <v>10</v>
       </c>
-      <c r="AF61" s="98"/>
-      <c r="AG61" s="98"/>
-      <c r="AH61" s="98"/>
-      <c r="AI61" s="98"/>
+      <c r="AF61" s="100"/>
+      <c r="AG61" s="100"/>
+      <c r="AH61" s="100"/>
+      <c r="AI61" s="100"/>
     </row>
     <row r="62" spans="1:35" x14ac:dyDescent="0.45">
       <c r="H62" t="s">
         <v>104</v>
       </c>
-      <c r="I62" s="101" t="s">
+      <c r="I62" s="103" t="s">
         <v>108</v>
       </c>
-      <c r="J62" s="101"/>
+      <c r="J62" s="103"/>
       <c r="K62" t="s">
         <v>109</v>
       </c>
@@ -4238,17 +4238,17 @@
         <f>COUNTIF(G3:G35,"&gt;0")</f>
         <v>22</v>
       </c>
-      <c r="N62" s="100" t="s">
+      <c r="N62" s="102" t="s">
         <v>114</v>
       </c>
-      <c r="O62" s="100"/>
-      <c r="P62" s="100"/>
-      <c r="Q62" s="100"/>
-      <c r="R62" s="100"/>
-      <c r="AF62" s="98"/>
-      <c r="AG62" s="98"/>
-      <c r="AH62" s="98"/>
-      <c r="AI62" s="98"/>
+      <c r="O62" s="102"/>
+      <c r="P62" s="102"/>
+      <c r="Q62" s="102"/>
+      <c r="R62" s="102"/>
+      <c r="AF62" s="100"/>
+      <c r="AG62" s="100"/>
+      <c r="AH62" s="100"/>
+      <c r="AI62" s="100"/>
     </row>
     <row r="63" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A63" s="48" t="s">
@@ -4298,20 +4298,20 @@
         <v>121</v>
       </c>
       <c r="S63" s="49"/>
-      <c r="T63" s="102" t="s">
+      <c r="T63" s="104" t="s">
         <v>125</v>
       </c>
-      <c r="U63" s="102"/>
+      <c r="U63" s="104"/>
       <c r="V63" s="49" t="s">
         <v>24</v>
       </c>
       <c r="W63" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="AF63" s="98"/>
-      <c r="AG63" s="98"/>
-      <c r="AH63" s="98"/>
-      <c r="AI63" s="98"/>
+      <c r="AF63" s="100"/>
+      <c r="AG63" s="100"/>
+      <c r="AH63" s="100"/>
+      <c r="AI63" s="100"/>
     </row>
     <row r="64" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A64" s="22" t="s">
@@ -4369,21 +4369,21 @@
         <v>10.100000000000001</v>
       </c>
       <c r="S64" s="86"/>
-      <c r="T64" s="103">
+      <c r="T64" s="101">
         <f>Q64+N64+O64</f>
         <v>4.1000000000000005</v>
       </c>
-      <c r="U64" s="103"/>
+      <c r="U64" s="101"/>
       <c r="V64" s="33" t="s">
         <v>31</v>
       </c>
       <c r="W64" t="s">
         <v>132</v>
       </c>
-      <c r="AF64" s="98"/>
-      <c r="AG64" s="98"/>
-      <c r="AH64" s="98"/>
-      <c r="AI64" s="98"/>
+      <c r="AF64" s="100"/>
+      <c r="AG64" s="100"/>
+      <c r="AH64" s="100"/>
+      <c r="AI64" s="100"/>
     </row>
     <row r="65" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A65" s="22" t="s">
@@ -4441,21 +4441,21 @@
         <v>12.3</v>
       </c>
       <c r="S65" s="86"/>
-      <c r="T65" s="103">
+      <c r="T65" s="101">
         <f t="shared" ref="T65:T70" si="21">Q65+N65+O65</f>
         <v>9.3000000000000007</v>
       </c>
-      <c r="U65" s="103"/>
+      <c r="U65" s="101"/>
       <c r="V65" s="33" t="s">
         <v>31</v>
       </c>
       <c r="W65" t="s">
         <v>131</v>
       </c>
-      <c r="AF65" s="98"/>
-      <c r="AG65" s="98"/>
-      <c r="AH65" s="98"/>
-      <c r="AI65" s="98"/>
+      <c r="AF65" s="100"/>
+      <c r="AG65" s="100"/>
+      <c r="AH65" s="100"/>
+      <c r="AI65" s="100"/>
     </row>
     <row r="66" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A66" s="22" t="s">
@@ -4513,21 +4513,21 @@
         <v>14.399999999999999</v>
       </c>
       <c r="S66" s="86"/>
-      <c r="T66" s="103">
+      <c r="T66" s="101">
         <f t="shared" si="21"/>
         <v>10.399999999999999</v>
       </c>
-      <c r="U66" s="103"/>
+      <c r="U66" s="101"/>
       <c r="V66" s="33" t="s">
         <v>31</v>
       </c>
       <c r="W66" t="s">
         <v>133</v>
       </c>
-      <c r="AF66" s="98"/>
-      <c r="AG66" s="98"/>
-      <c r="AH66" s="98"/>
-      <c r="AI66" s="98"/>
+      <c r="AF66" s="100"/>
+      <c r="AG66" s="100"/>
+      <c r="AH66" s="100"/>
+      <c r="AI66" s="100"/>
     </row>
     <row r="67" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A67" s="22" t="s">
@@ -4585,11 +4585,11 @@
         <v>18.700000000000003</v>
       </c>
       <c r="S67" s="86"/>
-      <c r="T67" s="103">
+      <c r="T67" s="101">
         <f t="shared" si="21"/>
         <v>17.7</v>
       </c>
-      <c r="U67" s="103"/>
+      <c r="U67" s="101"/>
       <c r="V67" s="26" t="s">
         <v>30</v>
       </c>
@@ -4653,11 +4653,11 @@
         <v>17.100000000000001</v>
       </c>
       <c r="S68" s="86"/>
-      <c r="T68" s="103">
+      <c r="T68" s="101">
         <f t="shared" si="21"/>
         <v>17.100000000000001</v>
       </c>
-      <c r="U68" s="103"/>
+      <c r="U68" s="101"/>
       <c r="V68" s="33" t="s">
         <v>31</v>
       </c>
@@ -4721,11 +4721,11 @@
         <v>18.8</v>
       </c>
       <c r="S69" s="86"/>
-      <c r="T69" s="103">
+      <c r="T69" s="101">
         <f t="shared" si="21"/>
         <v>8.8000000000000007</v>
       </c>
-      <c r="U69" s="103"/>
+      <c r="U69" s="101"/>
       <c r="V69" s="26" t="s">
         <v>30</v>
       </c>
@@ -4789,11 +4789,11 @@
         <v>25.799999999999997</v>
       </c>
       <c r="S70" s="86"/>
-      <c r="T70" s="103">
+      <c r="T70" s="101">
         <f t="shared" si="21"/>
         <v>17.799999999999997</v>
       </c>
-      <c r="U70" s="103"/>
+      <c r="U70" s="101"/>
       <c r="V70" s="30" t="s">
         <v>79</v>
       </c>
@@ -4844,23 +4844,23 @@
       <c r="D75" s="86">
         <v>18</v>
       </c>
-      <c r="E75" s="98" t="s">
+      <c r="E75" s="100" t="s">
         <v>70</v>
       </c>
-      <c r="F75" s="98"/>
-      <c r="G75" s="98">
+      <c r="F75" s="100"/>
+      <c r="G75" s="100">
         <f>D75*frag_damage</f>
         <v>36</v>
       </c>
-      <c r="H75" s="98"/>
+      <c r="H75" s="100"/>
       <c r="I75" s="86"/>
       <c r="J75" s="86"/>
-      <c r="K75" s="98" t="s">
+      <c r="K75" s="100" t="s">
         <v>141</v>
       </c>
-      <c r="L75" s="98"/>
-      <c r="M75" s="98"/>
-      <c r="N75" s="98"/>
+      <c r="L75" s="100"/>
+      <c r="M75" s="100"/>
+      <c r="N75" s="100"/>
     </row>
     <row r="76" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A76" s="44" t="s">
@@ -4875,23 +4875,23 @@
       <c r="D76" s="86">
         <v>12</v>
       </c>
-      <c r="E76" s="98" t="s">
+      <c r="E76" s="100" t="s">
         <v>134</v>
       </c>
-      <c r="F76" s="98"/>
-      <c r="G76" s="98">
+      <c r="F76" s="100"/>
+      <c r="G76" s="100">
         <f>D76*shockWave_damage</f>
         <v>180</v>
       </c>
-      <c r="H76" s="98"/>
+      <c r="H76" s="100"/>
       <c r="I76" s="86"/>
       <c r="J76" s="86"/>
-      <c r="K76" s="98" t="s">
+      <c r="K76" s="100" t="s">
         <v>140</v>
       </c>
-      <c r="L76" s="98"/>
-      <c r="M76" s="98"/>
-      <c r="N76" s="98"/>
+      <c r="L76" s="100"/>
+      <c r="M76" s="100"/>
+      <c r="N76" s="100"/>
     </row>
     <row r="80" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A80" s="43" t="s">
@@ -4946,32 +4946,32 @@
       <c r="D81" s="85">
         <v>16</v>
       </c>
-      <c r="E81" s="104" t="s">
+      <c r="E81" s="98" t="s">
         <v>159</v>
       </c>
-      <c r="F81" s="104"/>
-      <c r="G81" s="104"/>
-      <c r="H81" s="104"/>
-      <c r="I81" s="104"/>
-      <c r="J81" s="104"/>
-      <c r="K81" s="104"/>
-      <c r="L81" s="104"/>
-      <c r="M81" s="104"/>
-      <c r="N81" s="104"/>
-      <c r="O81" s="104"/>
-      <c r="P81" s="104" t="s">
+      <c r="F81" s="98"/>
+      <c r="G81" s="98"/>
+      <c r="H81" s="98"/>
+      <c r="I81" s="98"/>
+      <c r="J81" s="98"/>
+      <c r="K81" s="98"/>
+      <c r="L81" s="98"/>
+      <c r="M81" s="98"/>
+      <c r="N81" s="98"/>
+      <c r="O81" s="98"/>
+      <c r="P81" s="98" t="s">
         <v>164</v>
       </c>
-      <c r="Q81" s="104"/>
-      <c r="R81" s="104"/>
-      <c r="S81" s="104"/>
-      <c r="T81" s="104"/>
-      <c r="U81" s="104"/>
-      <c r="V81" s="104"/>
-      <c r="W81" s="104"/>
-      <c r="X81" s="104"/>
-      <c r="Y81" s="104"/>
-      <c r="Z81" s="104"/>
+      <c r="Q81" s="98"/>
+      <c r="R81" s="98"/>
+      <c r="S81" s="98"/>
+      <c r="T81" s="98"/>
+      <c r="U81" s="98"/>
+      <c r="V81" s="98"/>
+      <c r="W81" s="98"/>
+      <c r="X81" s="98"/>
+      <c r="Y81" s="98"/>
+      <c r="Z81" s="98"/>
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A82" s="44" t="s">
@@ -4986,30 +4986,30 @@
       <c r="D82" s="85">
         <v>1</v>
       </c>
-      <c r="E82" s="104" t="s">
+      <c r="E82" s="98" t="s">
         <v>161</v>
       </c>
-      <c r="F82" s="104"/>
-      <c r="G82" s="104"/>
-      <c r="H82" s="104"/>
-      <c r="I82" s="104"/>
-      <c r="J82" s="104"/>
-      <c r="K82" s="104"/>
-      <c r="L82" s="104"/>
-      <c r="M82" s="104"/>
-      <c r="N82" s="104"/>
-      <c r="O82" s="104"/>
-      <c r="P82" s="104"/>
-      <c r="Q82" s="104"/>
-      <c r="R82" s="104"/>
-      <c r="S82" s="104"/>
-      <c r="T82" s="104"/>
-      <c r="U82" s="104"/>
-      <c r="V82" s="104"/>
-      <c r="W82" s="104"/>
-      <c r="X82" s="104"/>
-      <c r="Y82" s="104"/>
-      <c r="Z82" s="104"/>
+      <c r="F82" s="98"/>
+      <c r="G82" s="98"/>
+      <c r="H82" s="98"/>
+      <c r="I82" s="98"/>
+      <c r="J82" s="98"/>
+      <c r="K82" s="98"/>
+      <c r="L82" s="98"/>
+      <c r="M82" s="98"/>
+      <c r="N82" s="98"/>
+      <c r="O82" s="98"/>
+      <c r="P82" s="98"/>
+      <c r="Q82" s="98"/>
+      <c r="R82" s="98"/>
+      <c r="S82" s="98"/>
+      <c r="T82" s="98"/>
+      <c r="U82" s="98"/>
+      <c r="V82" s="98"/>
+      <c r="W82" s="98"/>
+      <c r="X82" s="98"/>
+      <c r="Y82" s="98"/>
+      <c r="Z82" s="98"/>
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A83" s="44" t="s">
@@ -5024,30 +5024,30 @@
       <c r="D83" s="85">
         <v>1</v>
       </c>
-      <c r="E83" s="104" t="s">
+      <c r="E83" s="98" t="s">
         <v>160</v>
       </c>
-      <c r="F83" s="104"/>
-      <c r="G83" s="104"/>
-      <c r="H83" s="104"/>
-      <c r="I83" s="104"/>
-      <c r="J83" s="104"/>
-      <c r="K83" s="104"/>
-      <c r="L83" s="104"/>
-      <c r="M83" s="104"/>
-      <c r="N83" s="104"/>
-      <c r="O83" s="104"/>
-      <c r="P83" s="104"/>
-      <c r="Q83" s="104"/>
-      <c r="R83" s="104"/>
-      <c r="S83" s="104"/>
-      <c r="T83" s="104"/>
-      <c r="U83" s="104"/>
-      <c r="V83" s="104"/>
-      <c r="W83" s="104"/>
-      <c r="X83" s="104"/>
-      <c r="Y83" s="104"/>
-      <c r="Z83" s="104"/>
+      <c r="F83" s="98"/>
+      <c r="G83" s="98"/>
+      <c r="H83" s="98"/>
+      <c r="I83" s="98"/>
+      <c r="J83" s="98"/>
+      <c r="K83" s="98"/>
+      <c r="L83" s="98"/>
+      <c r="M83" s="98"/>
+      <c r="N83" s="98"/>
+      <c r="O83" s="98"/>
+      <c r="P83" s="98"/>
+      <c r="Q83" s="98"/>
+      <c r="R83" s="98"/>
+      <c r="S83" s="98"/>
+      <c r="T83" s="98"/>
+      <c r="U83" s="98"/>
+      <c r="V83" s="98"/>
+      <c r="W83" s="98"/>
+      <c r="X83" s="98"/>
+      <c r="Y83" s="98"/>
+      <c r="Z83" s="98"/>
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A84" s="44" t="s">
@@ -5062,117 +5062,93 @@
       <c r="D84" s="85">
         <v>1</v>
       </c>
-      <c r="E84" s="104" t="s">
+      <c r="E84" s="98" t="s">
         <v>162</v>
       </c>
-      <c r="F84" s="104"/>
-      <c r="G84" s="104"/>
-      <c r="H84" s="104"/>
-      <c r="I84" s="104"/>
-      <c r="J84" s="104"/>
-      <c r="K84" s="104"/>
-      <c r="L84" s="104"/>
-      <c r="M84" s="104"/>
-      <c r="N84" s="104"/>
-      <c r="O84" s="104"/>
-      <c r="P84" s="104" t="s">
+      <c r="F84" s="98"/>
+      <c r="G84" s="98"/>
+      <c r="H84" s="98"/>
+      <c r="I84" s="98"/>
+      <c r="J84" s="98"/>
+      <c r="K84" s="98"/>
+      <c r="L84" s="98"/>
+      <c r="M84" s="98"/>
+      <c r="N84" s="98"/>
+      <c r="O84" s="98"/>
+      <c r="P84" s="98" t="s">
         <v>165</v>
       </c>
-      <c r="Q84" s="104"/>
-      <c r="R84" s="104"/>
-      <c r="S84" s="104"/>
-      <c r="T84" s="104"/>
-      <c r="U84" s="104"/>
-      <c r="V84" s="104"/>
-      <c r="W84" s="104"/>
-      <c r="X84" s="104"/>
-      <c r="Y84" s="104"/>
-      <c r="Z84" s="104"/>
+      <c r="Q84" s="98"/>
+      <c r="R84" s="98"/>
+      <c r="S84" s="98"/>
+      <c r="T84" s="98"/>
+      <c r="U84" s="98"/>
+      <c r="V84" s="98"/>
+      <c r="W84" s="98"/>
+      <c r="X84" s="98"/>
+      <c r="Y84" s="98"/>
+      <c r="Z84" s="98"/>
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A85" s="44"/>
       <c r="B85" s="83"/>
       <c r="C85" s="86"/>
       <c r="D85" s="86"/>
-      <c r="E85" s="104"/>
-      <c r="F85" s="104"/>
-      <c r="G85" s="104"/>
-      <c r="H85" s="104"/>
-      <c r="I85" s="104"/>
-      <c r="J85" s="104"/>
-      <c r="K85" s="104"/>
-      <c r="L85" s="104"/>
-      <c r="M85" s="104"/>
-      <c r="N85" s="104"/>
-      <c r="O85" s="104"/>
-      <c r="P85" s="104"/>
-      <c r="Q85" s="104"/>
-      <c r="R85" s="104"/>
-      <c r="S85" s="104"/>
-      <c r="T85" s="104"/>
-      <c r="U85" s="104"/>
-      <c r="V85" s="104"/>
-      <c r="W85" s="104"/>
-      <c r="X85" s="104"/>
-      <c r="Y85" s="104"/>
-      <c r="Z85" s="104"/>
+      <c r="E85" s="98"/>
+      <c r="F85" s="98"/>
+      <c r="G85" s="98"/>
+      <c r="H85" s="98"/>
+      <c r="I85" s="98"/>
+      <c r="J85" s="98"/>
+      <c r="K85" s="98"/>
+      <c r="L85" s="98"/>
+      <c r="M85" s="98"/>
+      <c r="N85" s="98"/>
+      <c r="O85" s="98"/>
+      <c r="P85" s="98"/>
+      <c r="Q85" s="98"/>
+      <c r="R85" s="98"/>
+      <c r="S85" s="98"/>
+      <c r="T85" s="98"/>
+      <c r="U85" s="98"/>
+      <c r="V85" s="98"/>
+      <c r="W85" s="98"/>
+      <c r="X85" s="98"/>
+      <c r="Y85" s="98"/>
+      <c r="Z85" s="98"/>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A86" s="44"/>
       <c r="B86" s="83"/>
       <c r="C86" s="86"/>
       <c r="D86" s="86"/>
-      <c r="E86" s="104"/>
-      <c r="F86" s="104"/>
-      <c r="G86" s="104"/>
-      <c r="H86" s="104"/>
-      <c r="I86" s="104"/>
-      <c r="J86" s="104"/>
-      <c r="K86" s="104"/>
-      <c r="L86" s="104"/>
-      <c r="M86" s="104"/>
-      <c r="N86" s="104"/>
-      <c r="O86" s="104"/>
-      <c r="P86" s="104"/>
-      <c r="Q86" s="104"/>
-      <c r="R86" s="104"/>
-      <c r="S86" s="104"/>
-      <c r="T86" s="104"/>
-      <c r="U86" s="104"/>
-      <c r="V86" s="104"/>
-      <c r="W86" s="104"/>
-      <c r="X86" s="104"/>
-      <c r="Y86" s="104"/>
-      <c r="Z86" s="104"/>
+      <c r="E86" s="98"/>
+      <c r="F86" s="98"/>
+      <c r="G86" s="98"/>
+      <c r="H86" s="98"/>
+      <c r="I86" s="98"/>
+      <c r="J86" s="98"/>
+      <c r="K86" s="98"/>
+      <c r="L86" s="98"/>
+      <c r="M86" s="98"/>
+      <c r="N86" s="98"/>
+      <c r="O86" s="98"/>
+      <c r="P86" s="98"/>
+      <c r="Q86" s="98"/>
+      <c r="R86" s="98"/>
+      <c r="S86" s="98"/>
+      <c r="T86" s="98"/>
+      <c r="U86" s="98"/>
+      <c r="V86" s="98"/>
+      <c r="W86" s="98"/>
+      <c r="X86" s="98"/>
+      <c r="Y86" s="98"/>
+      <c r="Z86" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="P85:Z85"/>
-    <mergeCell ref="P86:Z86"/>
-    <mergeCell ref="P80:Z80"/>
-    <mergeCell ref="P81:Z81"/>
-    <mergeCell ref="P82:Z82"/>
-    <mergeCell ref="P83:Z83"/>
-    <mergeCell ref="P84:Z84"/>
-    <mergeCell ref="E82:O82"/>
-    <mergeCell ref="E83:O83"/>
-    <mergeCell ref="E84:O84"/>
-    <mergeCell ref="E85:O85"/>
-    <mergeCell ref="E86:O86"/>
-    <mergeCell ref="K74:N74"/>
-    <mergeCell ref="K75:N75"/>
-    <mergeCell ref="K76:N76"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="T67:U67"/>
-    <mergeCell ref="T68:U68"/>
-    <mergeCell ref="T66:U66"/>
-    <mergeCell ref="T69:U69"/>
-    <mergeCell ref="T70:U70"/>
+    <mergeCell ref="E80:O80"/>
+    <mergeCell ref="E81:O81"/>
     <mergeCell ref="N62:R62"/>
     <mergeCell ref="I62:J62"/>
     <mergeCell ref="AF60:AI60"/>
@@ -5185,8 +5161,32 @@
     <mergeCell ref="T63:U63"/>
     <mergeCell ref="T64:U64"/>
     <mergeCell ref="T65:U65"/>
-    <mergeCell ref="E80:O80"/>
-    <mergeCell ref="E81:O81"/>
+    <mergeCell ref="T67:U67"/>
+    <mergeCell ref="T68:U68"/>
+    <mergeCell ref="T66:U66"/>
+    <mergeCell ref="T69:U69"/>
+    <mergeCell ref="T70:U70"/>
+    <mergeCell ref="K74:N74"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="K76:N76"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="E82:O82"/>
+    <mergeCell ref="E83:O83"/>
+    <mergeCell ref="E84:O84"/>
+    <mergeCell ref="E85:O85"/>
+    <mergeCell ref="E86:O86"/>
+    <mergeCell ref="P85:Z85"/>
+    <mergeCell ref="P86:Z86"/>
+    <mergeCell ref="P80:Z80"/>
+    <mergeCell ref="P81:Z81"/>
+    <mergeCell ref="P82:Z82"/>
+    <mergeCell ref="P83:Z83"/>
+    <mergeCell ref="P84:Z84"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gun infos.xlsx
+++ b/gun infos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kingc\web\blackout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE69AB61-FFCD-45A7-9C38-0C8544DD4AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4736A8-A927-4A70-97A0-DAE8254FC5F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1759,8 +1759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4941,7 +4941,7 @@
         <v>149</v>
       </c>
       <c r="C81" s="41">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D81" s="85">
         <v>16</v>

--- a/gun infos.xlsx
+++ b/gun infos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kingc\web\blackout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4736A8-A927-4A70-97A0-DAE8254FC5F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6CF79C-8B6C-4B03-8AD8-F5318474D03A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2860" yWindow="9360" windowWidth="33240" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="172">
   <si>
     <t>Weapon info</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -726,12 +726,36 @@
     <t>When players are within the pickup range near the initial location and not in a house, and not riding a vehicle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>flare gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30 ~ 320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not reloadable. Shoots upto player's cursor location with maximum distance fixed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>you cannot fire before fire rate is passed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>red, green, yellow, white</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unkillable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1005,6 +1029,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="25">
     <fill>
@@ -1193,7 +1226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1477,6 +1510,11 @@
     <xf numFmtId="0" fontId="16" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1759,8 +1797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1775,6 +1813,9 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="F1" s="106" t="s">
+        <v>169</v>
+      </c>
       <c r="L1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2175,11 +2216,11 @@
         <v>0.5</v>
       </c>
       <c r="P6" s="23">
-        <f t="shared" ref="P6" si="4">-(FLOOR(G6/6,1)-1)</f>
+        <f t="shared" ref="P6:P7" si="4">-(FLOOR(G6/6,1)-1)</f>
         <v>-2</v>
       </c>
       <c r="Q6" s="23">
-        <f t="shared" ref="Q6" si="5">ROUND(C6/G6,3)</f>
+        <f t="shared" ref="Q6:Q7" si="5">ROUND(C6/G6,3)</f>
         <v>0.33300000000000002</v>
       </c>
       <c r="R6" s="37" t="s">
@@ -2208,30 +2249,70 @@
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A7" s="27"/>
-      <c r="B7" s="82"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
+      <c r="A7" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="B7" s="105" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="72">
+        <v>0</v>
+      </c>
+      <c r="D7" s="72">
+        <v>1</v>
+      </c>
+      <c r="E7" s="72">
+        <v>0</v>
+      </c>
+      <c r="F7" s="72">
+        <v>1000</v>
+      </c>
+      <c r="G7" s="72">
+        <v>3</v>
+      </c>
+      <c r="H7" s="72">
+        <v>1</v>
+      </c>
+      <c r="I7" s="72">
+        <v>1000</v>
+      </c>
+      <c r="J7" s="107" t="s">
+        <v>170</v>
+      </c>
       <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="72"/>
-      <c r="O7" s="72"/>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="72"/>
-      <c r="R7" s="72"/>
+      <c r="L7" s="23">
+        <f>ROUND(D7*E7/F7*1000,2)</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="23">
+        <f>ROUND(D7*E7/(F7+I7)*1000,2)</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="23">
+        <f>D7*E7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="38"/>
+      <c r="P7" s="23">
+        <f t="shared" ref="P7" si="8">-(FLOOR(G7/6,1)-1)</f>
+        <v>1</v>
+      </c>
+      <c r="Q7" s="23">
+        <f t="shared" ref="Q7" si="9">ROUND(C7/G7,3)</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="37" t="s">
+        <v>171</v>
+      </c>
       <c r="S7" s="72"/>
-      <c r="T7" s="72"/>
-      <c r="U7" s="72"/>
-      <c r="V7" s="72"/>
-      <c r="W7" s="72"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="39"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="31"/>
       <c r="X7" s="72"/>
+      <c r="Y7" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="27"/>
@@ -2398,7 +2479,7 @@
       </c>
       <c r="S11" s="23"/>
       <c r="T11" s="23">
-        <f t="shared" ref="T11" si="8" xml:space="preserve"> D11*E11*9/10</f>
+        <f t="shared" ref="T11" si="10" xml:space="preserve"> D11*E11*9/10</f>
         <v>2.7</v>
       </c>
       <c r="U11" s="34">
@@ -3676,7 +3757,7 @@
       <c r="R33" s="37"/>
       <c r="S33" s="23"/>
       <c r="T33" s="23">
-        <f t="shared" ref="T33:T35" si="9" xml:space="preserve"> D33*E33*9/10</f>
+        <f t="shared" ref="T33:T35" si="11" xml:space="preserve"> D33*E33*9/10</f>
         <v>0.18</v>
       </c>
       <c r="U33" s="39">
@@ -3684,7 +3765,7 @@
         <v>44.44</v>
       </c>
       <c r="V33" s="23">
-        <f t="shared" ref="V33:V34" si="10">D33*(E33-0.2)</f>
+        <f t="shared" ref="V33:V34" si="12">D33*(E33-0.2)</f>
         <v>0</v>
       </c>
       <c r="W33" s="39"/>
@@ -3741,7 +3822,7 @@
       <c r="R34" s="37"/>
       <c r="S34" s="23"/>
       <c r="T34" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.36</v>
       </c>
       <c r="U34" s="39">
@@ -3749,7 +3830,7 @@
         <v>22.22</v>
       </c>
       <c r="V34" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.2</v>
       </c>
       <c r="W34" s="39">
@@ -3789,7 +3870,7 @@
       <c r="J35" s="23"/>
       <c r="K35" s="23"/>
       <c r="L35" s="23">
-        <f t="shared" ref="L35" si="11">ROUND(D35*E35/F35*1000,3)</f>
+        <f t="shared" ref="L35" si="13">ROUND(D35*E35/F35*1000,3)</f>
         <v>2</v>
       </c>
       <c r="M35" s="23">
@@ -3806,7 +3887,7 @@
       <c r="R35" s="37"/>
       <c r="S35" s="23"/>
       <c r="T35" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.9</v>
       </c>
       <c r="U35" s="38">
@@ -4072,47 +4153,47 @@
         <v>74</v>
       </c>
       <c r="B53" s="42">
-        <f t="shared" ref="B53:L53" si="12">(2+B52)*tilesize</f>
+        <f t="shared" ref="B53:L53" si="14">(2+B52)*tilesize</f>
         <v>128</v>
       </c>
       <c r="C53" s="42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>256</v>
       </c>
       <c r="D53" s="42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>384</v>
       </c>
       <c r="E53" s="42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>512</v>
       </c>
       <c r="F53" s="42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>640</v>
       </c>
       <c r="G53" s="42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>768</v>
       </c>
       <c r="H53" s="42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>896</v>
       </c>
       <c r="I53" s="42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1024</v>
       </c>
       <c r="J53" s="42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1152</v>
       </c>
       <c r="K53" s="42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1280</v>
       </c>
       <c r="L53" s="42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1408</v>
       </c>
     </row>
@@ -4121,47 +4202,47 @@
         <v>75</v>
       </c>
       <c r="B54" s="53">
-        <f t="shared" ref="B54:L54" si="13">(2+B52+1)*tilesize+tilesize/2</f>
+        <f t="shared" ref="B54:L54" si="15">(2+B52+1)*tilesize+tilesize/2</f>
         <v>320</v>
       </c>
       <c r="C54" s="54">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>448</v>
       </c>
       <c r="D54" s="55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>576</v>
       </c>
       <c r="E54" s="56">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>704</v>
       </c>
       <c r="F54" s="57">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>832</v>
       </c>
       <c r="G54" s="58">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>960</v>
       </c>
       <c r="H54" s="59">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1088</v>
       </c>
       <c r="I54" s="60">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1216</v>
       </c>
       <c r="J54" s="61">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1344</v>
       </c>
       <c r="K54" s="62">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1472</v>
       </c>
       <c r="L54" s="63">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1600</v>
       </c>
     </row>
@@ -4236,7 +4317,7 @@
       </c>
       <c r="L62" s="94">
         <f>COUNTIF(G3:G35,"&gt;0")</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N62" s="102" t="s">
         <v>114</v>
@@ -4335,7 +4416,7 @@
         <v>0</v>
       </c>
       <c r="I64" s="86">
-        <f t="shared" ref="I64:I69" si="14">(B64-player_radius)*2</f>
+        <f t="shared" ref="I64:I69" si="16">(B64-player_radius)*2</f>
         <v>16</v>
       </c>
       <c r="J64" s="86"/>
@@ -4349,19 +4430,19 @@
       </c>
       <c r="M64" s="86"/>
       <c r="N64" s="87">
-        <f t="shared" ref="N64:N70" si="15">ROUND(C64/health_cap,2)*10</f>
+        <f t="shared" ref="N64:N70" si="17">ROUND(C64/health_cap,2)*10</f>
         <v>0.8</v>
       </c>
       <c r="O64" s="89">
-        <f t="shared" ref="O64:O70" si="16">ROUND(L64/guns_cap,2)*10</f>
+        <f t="shared" ref="O64:O70" si="18">ROUND(L64/guns_cap,2)*10</f>
         <v>3.3000000000000003</v>
       </c>
       <c r="P64" s="91">
-        <f t="shared" ref="P64:P70" si="17">ROUND(D64/speed_cap,2)*10</f>
+        <f t="shared" ref="P64:P70" si="19">ROUND(D64/speed_cap,2)*10</f>
         <v>6</v>
       </c>
       <c r="Q64" s="88">
-        <f t="shared" ref="Q64:Q70" si="18">ROUND(H64/DPS_cap,2)*10</f>
+        <f t="shared" ref="Q64:Q70" si="20">ROUND(H64/DPS_cap,2)*10</f>
         <v>0</v>
       </c>
       <c r="R64" s="96">
@@ -4407,7 +4488,7 @@
         <v>0</v>
       </c>
       <c r="I65" s="86">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>32</v>
       </c>
       <c r="J65" s="86"/>
@@ -4416,33 +4497,33 @@
         <v>2</v>
       </c>
       <c r="L65" s="86">
-        <f t="shared" ref="L65:L68" si="19">21-K65</f>
+        <f t="shared" ref="L65:L68" si="21">21-K65</f>
         <v>19</v>
       </c>
       <c r="M65" s="86"/>
       <c r="N65" s="87">
-        <f t="shared" si="15"/>
-        <v>3</v>
-      </c>
-      <c r="O65" s="89">
-        <f t="shared" si="16"/>
-        <v>6.3</v>
-      </c>
-      <c r="P65" s="91">
         <f t="shared" si="17"/>
         <v>3</v>
       </c>
+      <c r="O65" s="89">
+        <f t="shared" si="18"/>
+        <v>6.3</v>
+      </c>
+      <c r="P65" s="91">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
       <c r="Q65" s="88">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="R65" s="96">
-        <f t="shared" ref="R65:R69" si="20">SUM(N65:Q65)</f>
+        <f t="shared" ref="R65:R69" si="22">SUM(N65:Q65)</f>
         <v>12.3</v>
       </c>
       <c r="S65" s="86"/>
       <c r="T65" s="101">
-        <f t="shared" ref="T65:T70" si="21">Q65+N65+O65</f>
+        <f t="shared" ref="T65:T70" si="23">Q65+N65+O65</f>
         <v>9.3000000000000007</v>
       </c>
       <c r="U65" s="101"/>
@@ -4479,7 +4560,7 @@
         <v>11.11</v>
       </c>
       <c r="I66" s="86">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>28</v>
       </c>
       <c r="J66" s="86"/>
@@ -4488,33 +4569,33 @@
         <v>4</v>
       </c>
       <c r="L66" s="86">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>17</v>
       </c>
       <c r="M66" s="86"/>
       <c r="N66" s="87">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.5</v>
       </c>
       <c r="O66" s="89">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5.6999999999999993</v>
       </c>
       <c r="P66" s="91">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
       <c r="Q66" s="88">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="R66" s="96">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>14.399999999999999</v>
       </c>
       <c r="S66" s="86"/>
       <c r="T66" s="101">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>10.399999999999999</v>
       </c>
       <c r="U66" s="101"/>
@@ -4551,7 +4632,7 @@
         <v>5.63</v>
       </c>
       <c r="I67" s="86">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>48</v>
       </c>
       <c r="J67" s="86"/>
@@ -4560,33 +4641,33 @@
         <v>0</v>
       </c>
       <c r="L67" s="86">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>21</v>
       </c>
       <c r="M67" s="86"/>
       <c r="N67" s="87">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.6</v>
       </c>
       <c r="O67" s="89">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>7</v>
       </c>
       <c r="P67" s="91">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Q67" s="88">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="R67" s="96">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>18.700000000000003</v>
       </c>
       <c r="S67" s="86"/>
       <c r="T67" s="101">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>17.7</v>
       </c>
       <c r="U67" s="101"/>
@@ -4619,7 +4700,7 @@
         <v>13.33</v>
       </c>
       <c r="I68" s="86">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>72</v>
       </c>
       <c r="J68" s="86"/>
@@ -4628,33 +4709,33 @@
         <v>0</v>
       </c>
       <c r="L68" s="86">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>21</v>
       </c>
       <c r="M68" s="86"/>
       <c r="N68" s="87">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7.4</v>
       </c>
       <c r="O68" s="89">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>7</v>
       </c>
       <c r="P68" s="91">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q68" s="88">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2.7</v>
       </c>
       <c r="R68" s="96">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>17.100000000000001</v>
       </c>
       <c r="S68" s="86"/>
       <c r="T68" s="101">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>17.100000000000001</v>
       </c>
       <c r="U68" s="101"/>
@@ -4687,7 +4768,7 @@
         <v>9.09</v>
       </c>
       <c r="I69" s="86">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>20</v>
       </c>
       <c r="J69" s="86"/>
@@ -4701,28 +4782,28 @@
       </c>
       <c r="M69" s="86"/>
       <c r="N69" s="87">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="O69" s="89">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="P69" s="91">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="Q69" s="88">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.7999999999999998</v>
       </c>
       <c r="R69" s="96">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>18.8</v>
       </c>
       <c r="S69" s="86"/>
       <c r="T69" s="101">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>8.8000000000000007</v>
       </c>
       <c r="U69" s="101"/>
@@ -4755,7 +4836,7 @@
         <v>48</v>
       </c>
       <c r="I70" s="86">
-        <f t="shared" ref="I70" si="22">(B70-player_radius)*2</f>
+        <f t="shared" ref="I70" si="24">(B70-player_radius)*2</f>
         <v>24</v>
       </c>
       <c r="J70" s="86"/>
@@ -4769,28 +4850,28 @@
       </c>
       <c r="M70" s="86"/>
       <c r="N70" s="87">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.5</v>
       </c>
       <c r="O70" s="89">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5.6999999999999993</v>
       </c>
       <c r="P70" s="91">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>8</v>
       </c>
       <c r="Q70" s="88">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>9.6</v>
       </c>
       <c r="R70" s="96">
-        <f t="shared" ref="R70" si="23">SUM(N70:Q70)</f>
+        <f t="shared" ref="R70" si="25">SUM(N70:Q70)</f>
         <v>25.799999999999997</v>
       </c>
       <c r="S70" s="86"/>
       <c r="T70" s="101">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>17.799999999999997</v>
       </c>
       <c r="U70" s="101"/>
